--- a/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.14087645159787</v>
+        <v>18.14087645159791</v>
       </c>
       <c r="C2">
-        <v>10.38842433724611</v>
+        <v>10.38842433724591</v>
       </c>
       <c r="D2">
-        <v>3.109681297117718</v>
+        <v>3.109681297117779</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.31409884609</v>
+        <v>37.31409884608997</v>
       </c>
       <c r="G2">
-        <v>28.68847477933645</v>
+        <v>28.68847477933642</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.308052260116183</v>
+        <v>8.308052260116217</v>
       </c>
       <c r="J2">
-        <v>15.30447243862137</v>
+        <v>15.30447243862138</v>
       </c>
       <c r="K2">
-        <v>9.52101554389294</v>
+        <v>9.521015543892981</v>
       </c>
       <c r="L2">
-        <v>14.01814286411211</v>
+        <v>14.01814286411212</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.85484485874248</v>
+        <v>16.85484485874247</v>
       </c>
       <c r="C3">
-        <v>9.781061422951909</v>
+        <v>9.781061422951934</v>
       </c>
       <c r="D3">
         <v>3.147280032326281</v>
@@ -462,25 +462,25 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.60520546279106</v>
+        <v>35.60520546279092</v>
       </c>
       <c r="G3">
-        <v>27.52280219045675</v>
+        <v>27.52280219045665</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.17533875871038</v>
+        <v>8.175338758710346</v>
       </c>
       <c r="J3">
         <v>14.28163744149278</v>
       </c>
       <c r="K3">
-        <v>9.063746604510808</v>
+        <v>9.063746604510833</v>
       </c>
       <c r="L3">
-        <v>13.06040509719126</v>
+        <v>13.06040509719125</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.02412869616001</v>
+        <v>16.02412869616007</v>
       </c>
       <c r="C4">
-        <v>9.391378870108069</v>
+        <v>9.391378870107975</v>
       </c>
       <c r="D4">
-        <v>3.169916683074095</v>
+        <v>3.169916683074096</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.54940802514825</v>
+        <v>34.54940802514813</v>
       </c>
       <c r="G4">
-        <v>26.80847234767556</v>
+        <v>26.80847234767548</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.098506237685537</v>
+        <v>8.09850623768558</v>
       </c>
       <c r="J4">
-        <v>13.62180977234078</v>
+        <v>13.62180977234081</v>
       </c>
       <c r="K4">
-        <v>8.7799090747033</v>
+        <v>8.779909074703315</v>
       </c>
       <c r="L4">
         <v>12.44279041287264</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.67512226562785</v>
+        <v>15.6751222656279</v>
       </c>
       <c r="C5">
-        <v>9.228351544167868</v>
+        <v>9.228351544167589</v>
       </c>
       <c r="D5">
-        <v>3.179043987623159</v>
+        <v>3.179043987623093</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.11791237518591</v>
+        <v>34.11791237518597</v>
       </c>
       <c r="G5">
-        <v>26.51796370016599</v>
+        <v>26.51796370016601</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.068334047076304</v>
+        <v>8.068334047076222</v>
       </c>
       <c r="J5">
-        <v>13.34483154403868</v>
+        <v>13.3448315440387</v>
       </c>
       <c r="K5">
-        <v>8.66359445272913</v>
+        <v>8.663594452729196</v>
       </c>
       <c r="L5">
-        <v>12.18357307449966</v>
+        <v>12.18357307449967</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.61653261557093</v>
+        <v>15.61653261557108</v>
       </c>
       <c r="C6">
-        <v>9.20102550122572</v>
+        <v>9.201025501225629</v>
       </c>
       <c r="D6">
-        <v>3.18055412383496</v>
+        <v>3.18055412383463</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.04620037486619</v>
+        <v>34.046200374866</v>
       </c>
       <c r="G6">
-        <v>26.46976803967262</v>
+        <v>26.46976803967239</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.063391734703634</v>
+        <v>8.063391734703664</v>
       </c>
       <c r="J6">
-        <v>13.29834815551192</v>
+        <v>13.29834815551203</v>
       </c>
       <c r="K6">
-        <v>8.644245441350508</v>
+        <v>8.644245441350598</v>
       </c>
       <c r="L6">
-        <v>12.14007241267747</v>
+        <v>12.14007241267751</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>16.019464512083</v>
       </c>
       <c r="C7">
-        <v>9.389197354340473</v>
+        <v>9.389197354340741</v>
       </c>
       <c r="D7">
-        <v>3.170040151426803</v>
+        <v>3.170040151426799</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.54359320706932</v>
+        <v>34.54359320706931</v>
       </c>
       <c r="G7">
-        <v>26.80455173097397</v>
+        <v>26.804551730974</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.09809476167716</v>
+        <v>8.098094761677178</v>
       </c>
       <c r="J7">
-        <v>13.6181072336689</v>
+        <v>13.61810723366895</v>
       </c>
       <c r="K7">
-        <v>8.778342858566827</v>
+        <v>8.778342858566786</v>
       </c>
       <c r="L7">
-        <v>12.43932515015866</v>
+        <v>12.43932515015868</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.70588678553101</v>
+        <v>17.70588678553108</v>
       </c>
       <c r="C8">
-        <v>10.18247014136114</v>
+        <v>10.18247014136123</v>
       </c>
       <c r="D8">
-        <v>3.122748392785109</v>
+        <v>3.122748392785182</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.7264376652562</v>
+        <v>36.72643766525621</v>
       </c>
       <c r="G8">
-        <v>28.28638820609325</v>
+        <v>28.28638820609324</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>8.261306954469726</v>
+        <v>8.261306954469823</v>
       </c>
       <c r="J8">
-        <v>14.95833779133013</v>
+        <v>14.95833779133019</v>
       </c>
       <c r="K8">
-        <v>9.36405346723625</v>
+        <v>9.364053467236275</v>
       </c>
       <c r="L8">
-        <v>13.69398577865717</v>
+        <v>13.69398577865719</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.69424997688351</v>
+        <v>20.69424997688346</v>
       </c>
       <c r="C9">
-        <v>11.60663950744347</v>
+        <v>11.60663950744366</v>
       </c>
       <c r="D9">
-        <v>3.025662396686231</v>
+        <v>3.025662396686232</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.94246017255325</v>
+        <v>40.94246017255326</v>
       </c>
       <c r="G9">
         <v>31.19556554217606</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.619811523053647</v>
+        <v>8.619811523053615</v>
       </c>
       <c r="J9">
         <v>17.33920374406883</v>
       </c>
       <c r="K9">
-        <v>10.48416334574859</v>
+        <v>10.48416334574856</v>
       </c>
       <c r="L9">
-        <v>15.92496137702644</v>
+        <v>15.92496137702646</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.70652670018182</v>
+        <v>22.70652670018196</v>
       </c>
       <c r="C10">
-        <v>12.5762174760545</v>
+        <v>12.57621747605428</v>
       </c>
       <c r="D10">
         <v>2.95045755552772</v>
@@ -728,25 +728,25 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.99057137308038</v>
+        <v>43.99057137308045</v>
       </c>
       <c r="G10">
-        <v>33.32877020909761</v>
+        <v>33.32877020909764</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8.908921139295805</v>
+        <v>8.908921139295748</v>
       </c>
       <c r="J10">
-        <v>18.94565646662298</v>
+        <v>18.94565646662303</v>
       </c>
       <c r="K10">
-        <v>11.31821477223569</v>
+        <v>11.31821477223568</v>
       </c>
       <c r="L10">
-        <v>17.43221965502276</v>
+        <v>17.43221965502284</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.58488042379315</v>
+        <v>23.58488042379302</v>
       </c>
       <c r="C11">
-        <v>13.00171082967317</v>
+        <v>13.00171082967327</v>
       </c>
       <c r="D11">
-        <v>2.915088043225369</v>
+        <v>2.915088043225361</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.36643232668281</v>
+        <v>45.36643232668267</v>
       </c>
       <c r="G11">
-        <v>34.2983321106403</v>
+        <v>34.2983321106402</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9.046604665972207</v>
+        <v>9.046604665972177</v>
       </c>
       <c r="J11">
-        <v>19.64754120393571</v>
+        <v>19.64754120393561</v>
       </c>
       <c r="K11">
-        <v>11.76589797523517</v>
+        <v>11.76589797523521</v>
       </c>
       <c r="L11">
-        <v>18.09131778110086</v>
+        <v>18.09131778110083</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.91241490473092</v>
+        <v>23.91241490473083</v>
       </c>
       <c r="C12">
-        <v>13.16070687670008</v>
+        <v>13.16070687670024</v>
       </c>
       <c r="D12">
-        <v>2.901497746287052</v>
+        <v>2.901497746287114</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.88602072099191</v>
+        <v>45.88602072099203</v>
       </c>
       <c r="G12">
-        <v>34.66545311274677</v>
+        <v>34.66545311274685</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9.099684331989856</v>
+        <v>9.099684331989883</v>
       </c>
       <c r="J12">
-        <v>19.90936739109008</v>
+        <v>19.90936739109005</v>
       </c>
       <c r="K12">
-        <v>11.93305710411985</v>
+        <v>11.93305710411987</v>
       </c>
       <c r="L12">
         <v>18.33727305151405</v>
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.84209615228761</v>
+        <v>23.84209615228756</v>
       </c>
       <c r="C13">
-        <v>13.12655695035608</v>
+        <v>13.12655695035595</v>
       </c>
       <c r="D13">
-        <v>2.904433924918198</v>
+        <v>2.904433924918131</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.77417805943467</v>
+        <v>45.77417805943471</v>
       </c>
       <c r="G13">
-        <v>34.58638613104131</v>
+        <v>34.58638613104133</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9.088209807274723</v>
+        <v>9.088209807274637</v>
       </c>
       <c r="J13">
-        <v>19.85315132595521</v>
+        <v>19.85315132595516</v>
       </c>
       <c r="K13">
-        <v>11.89715936752836</v>
+        <v>11.89715936752838</v>
       </c>
       <c r="L13">
-        <v>18.28446042325526</v>
+        <v>18.28446042325525</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.61192715967669</v>
+        <v>23.61192715967663</v>
       </c>
       <c r="C14">
-        <v>13.01483349581759</v>
+        <v>13.01483349581771</v>
       </c>
       <c r="D14">
-        <v>2.913974087906185</v>
+        <v>2.913974087906181</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.40920653230713</v>
+        <v>45.40920653230702</v>
       </c>
       <c r="G14">
-        <v>34.32853519935122</v>
+        <v>34.32853519935117</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9.050952336164244</v>
+        <v>9.050952336164199</v>
       </c>
       <c r="J14">
-        <v>19.66916001999774</v>
+        <v>19.66916001999773</v>
       </c>
       <c r="K14">
-        <v>11.77969688014388</v>
+        <v>11.77969688014392</v>
       </c>
       <c r="L14">
         <v>18.11162427729787</v>
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.47028837205188</v>
+        <v>23.4702883720517</v>
       </c>
       <c r="C15">
-        <v>12.94612600537853</v>
+        <v>12.94612600537858</v>
       </c>
       <c r="D15">
-        <v>2.919791149040842</v>
+        <v>2.91979114904077</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.18547155837517</v>
+        <v>45.18547155837502</v>
       </c>
       <c r="G15">
-        <v>34.17059404319247</v>
+        <v>34.17059404319237</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9.028255515633052</v>
+        <v>9.028255515633024</v>
       </c>
       <c r="J15">
-        <v>19.55595016534198</v>
+        <v>19.55595016534186</v>
       </c>
       <c r="K15">
-        <v>11.70744361632423</v>
+        <v>11.70744361632421</v>
       </c>
       <c r="L15">
-        <v>18.00529027724034</v>
+        <v>18.00529027724025</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.64839941176596</v>
+        <v>22.64839941176582</v>
       </c>
       <c r="C16">
-        <v>12.54810609773812</v>
+        <v>12.54810609773804</v>
       </c>
       <c r="D16">
-        <v>2.952743242243413</v>
+        <v>2.952743242243397</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.90044759447311</v>
+        <v>43.90044759447289</v>
       </c>
       <c r="G16">
-        <v>33.26539601882988</v>
+        <v>33.2653960188297</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8.900051797312978</v>
+        <v>8.900051797312983</v>
       </c>
       <c r="J16">
-        <v>18.89922111883705</v>
+        <v>18.89922111883692</v>
       </c>
       <c r="K16">
-        <v>11.28861823635123</v>
+        <v>11.28861823635121</v>
       </c>
       <c r="L16">
-        <v>17.38862718558959</v>
+        <v>17.38862718558953</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.13487798093057</v>
+        <v>22.13487798093062</v>
       </c>
       <c r="C17">
-        <v>12.30001751512754</v>
+        <v>12.3000175151277</v>
       </c>
       <c r="D17">
-        <v>2.972641361184123</v>
+        <v>2.972641361184129</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.10942976731338</v>
+        <v>43.10942976731337</v>
       </c>
       <c r="G17">
-        <v>32.70991004390751</v>
+        <v>32.7099100439075</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8.823018879931421</v>
+        <v>8.82301887993145</v>
       </c>
       <c r="J17">
-        <v>18.48906769268793</v>
+        <v>18.48906769268799</v>
       </c>
       <c r="K17">
-        <v>11.05500263531308</v>
+        <v>11.05500263531307</v>
       </c>
       <c r="L17">
-        <v>17.00364878557681</v>
+        <v>17.00364878557683</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.83601129371651</v>
+        <v>21.83601129371653</v>
       </c>
       <c r="C18">
-        <v>12.15584999917477</v>
+        <v>12.15584999917484</v>
       </c>
       <c r="D18">
-        <v>2.983979202408777</v>
+        <v>2.983979202408911</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.65343218754354</v>
+        <v>42.65343218754357</v>
       </c>
       <c r="G18">
-        <v>32.39031974983911</v>
+        <v>32.39031974983912</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8.779288205690969</v>
+        <v>8.779288205691021</v>
       </c>
       <c r="J18">
-        <v>18.25042531731656</v>
+        <v>18.25042531731658</v>
       </c>
       <c r="K18">
         <v>10.9351295366996</v>
       </c>
       <c r="L18">
-        <v>16.77970681026682</v>
+        <v>16.77970681026684</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.73421145270164</v>
+        <v>21.7342114527016</v>
       </c>
       <c r="C19">
-        <v>12.10678123830105</v>
+        <v>12.10678123830094</v>
       </c>
       <c r="D19">
-        <v>2.98780047315806</v>
+        <v>2.987800473158189</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.49886120506028</v>
+        <v>42.49886120506027</v>
       </c>
       <c r="G19">
         <v>32.28209512073645</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8.764579242895731</v>
+        <v>8.764579242895765</v>
       </c>
       <c r="J19">
-        <v>18.16915020888481</v>
+        <v>18.16915020888476</v>
       </c>
       <c r="K19">
-        <v>10.89446632696015</v>
+        <v>10.89446632696016</v>
       </c>
       <c r="L19">
-        <v>16.70344697301847</v>
+        <v>16.70344697301843</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.18990402567649</v>
+        <v>22.18990402567644</v>
       </c>
       <c r="C20">
-        <v>12.32657873697592</v>
+        <v>12.32657873697627</v>
       </c>
       <c r="D20">
-        <v>2.970534455403699</v>
+        <v>2.970534455403764</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8.831159115090271</v>
+        <v>8.831159115090294</v>
       </c>
       <c r="J20">
-        <v>18.53301075217743</v>
+        <v>18.53301075217746</v>
       </c>
       <c r="K20">
         <v>11.07715226208778</v>
       </c>
       <c r="L20">
-        <v>17.04488913965041</v>
+        <v>17.04488913965044</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.67966910831486</v>
+        <v>23.67966910831493</v>
       </c>
       <c r="C21">
-        <v>13.04770618513789</v>
+        <v>13.04770618513777</v>
       </c>
       <c r="D21">
-        <v>2.911177505859503</v>
+        <v>2.911177505859433</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.51644451879434</v>
+        <v>45.51644451879439</v>
       </c>
       <c r="G21">
-        <v>34.40427199795223</v>
+        <v>34.40427199795225</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>9.061869710272473</v>
+        <v>9.061869710272477</v>
       </c>
       <c r="J21">
-        <v>19.723308602977</v>
+        <v>19.72330860297702</v>
       </c>
       <c r="K21">
-        <v>11.81426156364032</v>
+        <v>11.81426156364029</v>
       </c>
       <c r="L21">
         <v>18.16248736951963</v>
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.6238475997174</v>
+        <v>24.62384759971742</v>
       </c>
       <c r="C22">
-        <v>13.50666101319248</v>
+        <v>13.50666101319246</v>
       </c>
       <c r="D22">
-        <v>2.871221371183103</v>
+        <v>2.871221371183168</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.02632601849916</v>
+        <v>47.02632601849914</v>
       </c>
       <c r="G22">
-        <v>35.47290212523165</v>
+        <v>35.47290212523163</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9.218175182345178</v>
+        <v>9.218175182345217</v>
       </c>
       <c r="J22">
-        <v>20.47824928661343</v>
+        <v>20.47824928661344</v>
       </c>
       <c r="K22">
-        <v>12.29655811792374</v>
+        <v>12.29655811792369</v>
       </c>
       <c r="L22">
-        <v>18.8718431974458</v>
+        <v>18.87184319744576</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.1225291324652</v>
+        <v>24.12252913246513</v>
       </c>
       <c r="C23">
-        <v>13.26279581428237</v>
+        <v>13.2627958142821</v>
       </c>
       <c r="D23">
-        <v>2.892664081655465</v>
+        <v>2.892664081655584</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.22114822425977</v>
+        <v>46.22114822425968</v>
       </c>
       <c r="G23">
-        <v>34.90251075509877</v>
+        <v>34.90251075509868</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.134225945737937</v>
+        <v>9.134225945737931</v>
       </c>
       <c r="J23">
-        <v>20.07735629424337</v>
+        <v>20.07735629424328</v>
       </c>
       <c r="K23">
-        <v>12.04035365688958</v>
+        <v>12.04035365688956</v>
       </c>
       <c r="L23">
-        <v>18.49510521607004</v>
+        <v>18.49510521606999</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.16503809569041</v>
+        <v>22.16503809569046</v>
       </c>
       <c r="C24">
-        <v>12.31457520743523</v>
+        <v>12.31457520743515</v>
       </c>
       <c r="D24">
-        <v>2.971487302538952</v>
+        <v>2.971487302538822</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.15562746300659</v>
+        <v>43.15562746300655</v>
       </c>
       <c r="G24">
-        <v>32.74231428752678</v>
+        <v>32.74231428752673</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8.827477185210263</v>
+        <v>8.827477185210251</v>
       </c>
       <c r="J24">
-        <v>18.51315295432382</v>
+        <v>18.5131529543238</v>
       </c>
       <c r="K24">
         <v>11.0671399648003</v>
       </c>
       <c r="L24">
-        <v>17.02625252770659</v>
+        <v>17.02625252770657</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.91885594641327</v>
+        <v>19.91885594641332</v>
       </c>
       <c r="C25">
-        <v>11.23514913391026</v>
+        <v>11.23514913391043</v>
       </c>
       <c r="D25">
-        <v>3.052510288503161</v>
+        <v>3.052510288503235</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.8102214827815</v>
+        <v>39.81022148278161</v>
       </c>
       <c r="G25">
-        <v>30.40906501817803</v>
+        <v>30.40906501817812</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>8.518486776428137</v>
+        <v>8.518486776428153</v>
       </c>
       <c r="J25">
-        <v>16.72082596256154</v>
+        <v>16.72082596256159</v>
       </c>
       <c r="K25">
-        <v>10.18465268162442</v>
+        <v>10.1846526816244</v>
       </c>
       <c r="L25">
-        <v>15.34520747746892</v>
+        <v>15.34520747746895</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.14087645159791</v>
+        <v>18.14087645159787</v>
       </c>
       <c r="C2">
-        <v>10.38842433724591</v>
+        <v>10.38842433724611</v>
       </c>
       <c r="D2">
-        <v>3.109681297117779</v>
+        <v>3.109681297117718</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.31409884608997</v>
+        <v>37.31409884609</v>
       </c>
       <c r="G2">
-        <v>28.68847477933642</v>
+        <v>28.68847477933645</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.308052260116217</v>
+        <v>8.308052260116183</v>
       </c>
       <c r="J2">
-        <v>15.30447243862138</v>
+        <v>15.30447243862137</v>
       </c>
       <c r="K2">
-        <v>9.521015543892981</v>
+        <v>9.52101554389294</v>
       </c>
       <c r="L2">
-        <v>14.01814286411212</v>
+        <v>14.01814286411211</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.85484485874247</v>
+        <v>16.85484485874248</v>
       </c>
       <c r="C3">
-        <v>9.781061422951934</v>
+        <v>9.781061422951909</v>
       </c>
       <c r="D3">
         <v>3.147280032326281</v>
@@ -462,25 +462,25 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.60520546279092</v>
+        <v>35.60520546279106</v>
       </c>
       <c r="G3">
-        <v>27.52280219045665</v>
+        <v>27.52280219045675</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.175338758710346</v>
+        <v>8.17533875871038</v>
       </c>
       <c r="J3">
         <v>14.28163744149278</v>
       </c>
       <c r="K3">
-        <v>9.063746604510833</v>
+        <v>9.063746604510808</v>
       </c>
       <c r="L3">
-        <v>13.06040509719125</v>
+        <v>13.06040509719126</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.02412869616007</v>
+        <v>16.02412869616001</v>
       </c>
       <c r="C4">
-        <v>9.391378870107975</v>
+        <v>9.391378870108069</v>
       </c>
       <c r="D4">
-        <v>3.169916683074096</v>
+        <v>3.169916683074095</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.54940802514813</v>
+        <v>34.54940802514825</v>
       </c>
       <c r="G4">
-        <v>26.80847234767548</v>
+        <v>26.80847234767556</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.09850623768558</v>
+        <v>8.098506237685537</v>
       </c>
       <c r="J4">
-        <v>13.62180977234081</v>
+        <v>13.62180977234078</v>
       </c>
       <c r="K4">
-        <v>8.779909074703315</v>
+        <v>8.7799090747033</v>
       </c>
       <c r="L4">
         <v>12.44279041287264</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.6751222656279</v>
+        <v>15.67512226562785</v>
       </c>
       <c r="C5">
-        <v>9.228351544167589</v>
+        <v>9.228351544167868</v>
       </c>
       <c r="D5">
-        <v>3.179043987623093</v>
+        <v>3.179043987623159</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.11791237518597</v>
+        <v>34.11791237518591</v>
       </c>
       <c r="G5">
-        <v>26.51796370016601</v>
+        <v>26.51796370016599</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.068334047076222</v>
+        <v>8.068334047076304</v>
       </c>
       <c r="J5">
-        <v>13.3448315440387</v>
+        <v>13.34483154403868</v>
       </c>
       <c r="K5">
-        <v>8.663594452729196</v>
+        <v>8.66359445272913</v>
       </c>
       <c r="L5">
-        <v>12.18357307449967</v>
+        <v>12.18357307449966</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.61653261557108</v>
+        <v>15.61653261557093</v>
       </c>
       <c r="C6">
-        <v>9.201025501225629</v>
+        <v>9.20102550122572</v>
       </c>
       <c r="D6">
-        <v>3.18055412383463</v>
+        <v>3.18055412383496</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.046200374866</v>
+        <v>34.04620037486619</v>
       </c>
       <c r="G6">
-        <v>26.46976803967239</v>
+        <v>26.46976803967262</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.063391734703664</v>
+        <v>8.063391734703634</v>
       </c>
       <c r="J6">
-        <v>13.29834815551203</v>
+        <v>13.29834815551192</v>
       </c>
       <c r="K6">
-        <v>8.644245441350598</v>
+        <v>8.644245441350508</v>
       </c>
       <c r="L6">
-        <v>12.14007241267751</v>
+        <v>12.14007241267747</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>16.019464512083</v>
       </c>
       <c r="C7">
-        <v>9.389197354340741</v>
+        <v>9.389197354340473</v>
       </c>
       <c r="D7">
-        <v>3.170040151426799</v>
+        <v>3.170040151426803</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.54359320706931</v>
+        <v>34.54359320706932</v>
       </c>
       <c r="G7">
-        <v>26.804551730974</v>
+        <v>26.80455173097397</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.098094761677178</v>
+        <v>8.09809476167716</v>
       </c>
       <c r="J7">
-        <v>13.61810723366895</v>
+        <v>13.6181072336689</v>
       </c>
       <c r="K7">
-        <v>8.778342858566786</v>
+        <v>8.778342858566827</v>
       </c>
       <c r="L7">
-        <v>12.43932515015868</v>
+        <v>12.43932515015866</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.70588678553108</v>
+        <v>17.70588678553101</v>
       </c>
       <c r="C8">
-        <v>10.18247014136123</v>
+        <v>10.18247014136114</v>
       </c>
       <c r="D8">
-        <v>3.122748392785182</v>
+        <v>3.122748392785109</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.72643766525621</v>
+        <v>36.7264376652562</v>
       </c>
       <c r="G8">
-        <v>28.28638820609324</v>
+        <v>28.28638820609325</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>8.261306954469823</v>
+        <v>8.261306954469726</v>
       </c>
       <c r="J8">
-        <v>14.95833779133019</v>
+        <v>14.95833779133013</v>
       </c>
       <c r="K8">
-        <v>9.364053467236275</v>
+        <v>9.36405346723625</v>
       </c>
       <c r="L8">
-        <v>13.69398577865719</v>
+        <v>13.69398577865717</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.69424997688346</v>
+        <v>20.69424997688351</v>
       </c>
       <c r="C9">
-        <v>11.60663950744366</v>
+        <v>11.60663950744347</v>
       </c>
       <c r="D9">
-        <v>3.025662396686232</v>
+        <v>3.025662396686231</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.94246017255326</v>
+        <v>40.94246017255325</v>
       </c>
       <c r="G9">
         <v>31.19556554217606</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.619811523053615</v>
+        <v>8.619811523053647</v>
       </c>
       <c r="J9">
         <v>17.33920374406883</v>
       </c>
       <c r="K9">
-        <v>10.48416334574856</v>
+        <v>10.48416334574859</v>
       </c>
       <c r="L9">
-        <v>15.92496137702646</v>
+        <v>15.92496137702644</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.70652670018196</v>
+        <v>22.70652670018182</v>
       </c>
       <c r="C10">
-        <v>12.57621747605428</v>
+        <v>12.5762174760545</v>
       </c>
       <c r="D10">
         <v>2.95045755552772</v>
@@ -728,25 +728,25 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.99057137308045</v>
+        <v>43.99057137308038</v>
       </c>
       <c r="G10">
-        <v>33.32877020909764</v>
+        <v>33.32877020909761</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8.908921139295748</v>
+        <v>8.908921139295805</v>
       </c>
       <c r="J10">
-        <v>18.94565646662303</v>
+        <v>18.94565646662298</v>
       </c>
       <c r="K10">
-        <v>11.31821477223568</v>
+        <v>11.31821477223569</v>
       </c>
       <c r="L10">
-        <v>17.43221965502284</v>
+        <v>17.43221965502276</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.58488042379302</v>
+        <v>23.58488042379315</v>
       </c>
       <c r="C11">
-        <v>13.00171082967327</v>
+        <v>13.00171082967317</v>
       </c>
       <c r="D11">
-        <v>2.915088043225361</v>
+        <v>2.915088043225369</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.36643232668267</v>
+        <v>45.36643232668281</v>
       </c>
       <c r="G11">
-        <v>34.2983321106402</v>
+        <v>34.2983321106403</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9.046604665972177</v>
+        <v>9.046604665972207</v>
       </c>
       <c r="J11">
-        <v>19.64754120393561</v>
+        <v>19.64754120393571</v>
       </c>
       <c r="K11">
-        <v>11.76589797523521</v>
+        <v>11.76589797523517</v>
       </c>
       <c r="L11">
-        <v>18.09131778110083</v>
+        <v>18.09131778110086</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.91241490473083</v>
+        <v>23.91241490473092</v>
       </c>
       <c r="C12">
-        <v>13.16070687670024</v>
+        <v>13.16070687670008</v>
       </c>
       <c r="D12">
-        <v>2.901497746287114</v>
+        <v>2.901497746287052</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.88602072099203</v>
+        <v>45.88602072099191</v>
       </c>
       <c r="G12">
-        <v>34.66545311274685</v>
+        <v>34.66545311274677</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9.099684331989883</v>
+        <v>9.099684331989856</v>
       </c>
       <c r="J12">
-        <v>19.90936739109005</v>
+        <v>19.90936739109008</v>
       </c>
       <c r="K12">
-        <v>11.93305710411987</v>
+        <v>11.93305710411985</v>
       </c>
       <c r="L12">
         <v>18.33727305151405</v>
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.84209615228756</v>
+        <v>23.84209615228761</v>
       </c>
       <c r="C13">
-        <v>13.12655695035595</v>
+        <v>13.12655695035608</v>
       </c>
       <c r="D13">
-        <v>2.904433924918131</v>
+        <v>2.904433924918198</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.77417805943471</v>
+        <v>45.77417805943467</v>
       </c>
       <c r="G13">
-        <v>34.58638613104133</v>
+        <v>34.58638613104131</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9.088209807274637</v>
+        <v>9.088209807274723</v>
       </c>
       <c r="J13">
-        <v>19.85315132595516</v>
+        <v>19.85315132595521</v>
       </c>
       <c r="K13">
-        <v>11.89715936752838</v>
+        <v>11.89715936752836</v>
       </c>
       <c r="L13">
-        <v>18.28446042325525</v>
+        <v>18.28446042325526</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.61192715967663</v>
+        <v>23.61192715967669</v>
       </c>
       <c r="C14">
-        <v>13.01483349581771</v>
+        <v>13.01483349581759</v>
       </c>
       <c r="D14">
-        <v>2.913974087906181</v>
+        <v>2.913974087906185</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.40920653230702</v>
+        <v>45.40920653230713</v>
       </c>
       <c r="G14">
-        <v>34.32853519935117</v>
+        <v>34.32853519935122</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9.050952336164199</v>
+        <v>9.050952336164244</v>
       </c>
       <c r="J14">
-        <v>19.66916001999773</v>
+        <v>19.66916001999774</v>
       </c>
       <c r="K14">
-        <v>11.77969688014392</v>
+        <v>11.77969688014388</v>
       </c>
       <c r="L14">
         <v>18.11162427729787</v>
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.4702883720517</v>
+        <v>23.47028837205188</v>
       </c>
       <c r="C15">
-        <v>12.94612600537858</v>
+        <v>12.94612600537853</v>
       </c>
       <c r="D15">
-        <v>2.91979114904077</v>
+        <v>2.919791149040842</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.18547155837502</v>
+        <v>45.18547155837517</v>
       </c>
       <c r="G15">
-        <v>34.17059404319237</v>
+        <v>34.17059404319247</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9.028255515633024</v>
+        <v>9.028255515633052</v>
       </c>
       <c r="J15">
-        <v>19.55595016534186</v>
+        <v>19.55595016534198</v>
       </c>
       <c r="K15">
-        <v>11.70744361632421</v>
+        <v>11.70744361632423</v>
       </c>
       <c r="L15">
-        <v>18.00529027724025</v>
+        <v>18.00529027724034</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.64839941176582</v>
+        <v>22.64839941176596</v>
       </c>
       <c r="C16">
-        <v>12.54810609773804</v>
+        <v>12.54810609773812</v>
       </c>
       <c r="D16">
-        <v>2.952743242243397</v>
+        <v>2.952743242243413</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.90044759447289</v>
+        <v>43.90044759447311</v>
       </c>
       <c r="G16">
-        <v>33.2653960188297</v>
+        <v>33.26539601882988</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8.900051797312983</v>
+        <v>8.900051797312978</v>
       </c>
       <c r="J16">
-        <v>18.89922111883692</v>
+        <v>18.89922111883705</v>
       </c>
       <c r="K16">
-        <v>11.28861823635121</v>
+        <v>11.28861823635123</v>
       </c>
       <c r="L16">
-        <v>17.38862718558953</v>
+        <v>17.38862718558959</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.13487798093062</v>
+        <v>22.13487798093057</v>
       </c>
       <c r="C17">
-        <v>12.3000175151277</v>
+        <v>12.30001751512754</v>
       </c>
       <c r="D17">
-        <v>2.972641361184129</v>
+        <v>2.972641361184123</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.10942976731337</v>
+        <v>43.10942976731338</v>
       </c>
       <c r="G17">
-        <v>32.7099100439075</v>
+        <v>32.70991004390751</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8.82301887993145</v>
+        <v>8.823018879931421</v>
       </c>
       <c r="J17">
-        <v>18.48906769268799</v>
+        <v>18.48906769268793</v>
       </c>
       <c r="K17">
-        <v>11.05500263531307</v>
+        <v>11.05500263531308</v>
       </c>
       <c r="L17">
-        <v>17.00364878557683</v>
+        <v>17.00364878557681</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.83601129371653</v>
+        <v>21.83601129371651</v>
       </c>
       <c r="C18">
-        <v>12.15584999917484</v>
+        <v>12.15584999917477</v>
       </c>
       <c r="D18">
-        <v>2.983979202408911</v>
+        <v>2.983979202408777</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.65343218754357</v>
+        <v>42.65343218754354</v>
       </c>
       <c r="G18">
-        <v>32.39031974983912</v>
+        <v>32.39031974983911</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8.779288205691021</v>
+        <v>8.779288205690969</v>
       </c>
       <c r="J18">
-        <v>18.25042531731658</v>
+        <v>18.25042531731656</v>
       </c>
       <c r="K18">
         <v>10.9351295366996</v>
       </c>
       <c r="L18">
-        <v>16.77970681026684</v>
+        <v>16.77970681026682</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.7342114527016</v>
+        <v>21.73421145270164</v>
       </c>
       <c r="C19">
-        <v>12.10678123830094</v>
+        <v>12.10678123830105</v>
       </c>
       <c r="D19">
-        <v>2.987800473158189</v>
+        <v>2.98780047315806</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.49886120506027</v>
+        <v>42.49886120506028</v>
       </c>
       <c r="G19">
         <v>32.28209512073645</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8.764579242895765</v>
+        <v>8.764579242895731</v>
       </c>
       <c r="J19">
-        <v>18.16915020888476</v>
+        <v>18.16915020888481</v>
       </c>
       <c r="K19">
-        <v>10.89446632696016</v>
+        <v>10.89446632696015</v>
       </c>
       <c r="L19">
-        <v>16.70344697301843</v>
+        <v>16.70344697301847</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.18990402567644</v>
+        <v>22.18990402567649</v>
       </c>
       <c r="C20">
-        <v>12.32657873697627</v>
+        <v>12.32657873697592</v>
       </c>
       <c r="D20">
-        <v>2.970534455403764</v>
+        <v>2.970534455403699</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8.831159115090294</v>
+        <v>8.831159115090271</v>
       </c>
       <c r="J20">
-        <v>18.53301075217746</v>
+        <v>18.53301075217743</v>
       </c>
       <c r="K20">
         <v>11.07715226208778</v>
       </c>
       <c r="L20">
-        <v>17.04488913965044</v>
+        <v>17.04488913965041</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.67966910831493</v>
+        <v>23.67966910831486</v>
       </c>
       <c r="C21">
-        <v>13.04770618513777</v>
+        <v>13.04770618513789</v>
       </c>
       <c r="D21">
-        <v>2.911177505859433</v>
+        <v>2.911177505859503</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.51644451879439</v>
+        <v>45.51644451879434</v>
       </c>
       <c r="G21">
-        <v>34.40427199795225</v>
+        <v>34.40427199795223</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>9.061869710272477</v>
+        <v>9.061869710272473</v>
       </c>
       <c r="J21">
-        <v>19.72330860297702</v>
+        <v>19.723308602977</v>
       </c>
       <c r="K21">
-        <v>11.81426156364029</v>
+        <v>11.81426156364032</v>
       </c>
       <c r="L21">
         <v>18.16248736951963</v>
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.62384759971742</v>
+        <v>24.6238475997174</v>
       </c>
       <c r="C22">
-        <v>13.50666101319246</v>
+        <v>13.50666101319248</v>
       </c>
       <c r="D22">
-        <v>2.871221371183168</v>
+        <v>2.871221371183103</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.02632601849914</v>
+        <v>47.02632601849916</v>
       </c>
       <c r="G22">
-        <v>35.47290212523163</v>
+        <v>35.47290212523165</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9.218175182345217</v>
+        <v>9.218175182345178</v>
       </c>
       <c r="J22">
-        <v>20.47824928661344</v>
+        <v>20.47824928661343</v>
       </c>
       <c r="K22">
-        <v>12.29655811792369</v>
+        <v>12.29655811792374</v>
       </c>
       <c r="L22">
-        <v>18.87184319744576</v>
+        <v>18.8718431974458</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.12252913246513</v>
+        <v>24.1225291324652</v>
       </c>
       <c r="C23">
-        <v>13.2627958142821</v>
+        <v>13.26279581428237</v>
       </c>
       <c r="D23">
-        <v>2.892664081655584</v>
+        <v>2.892664081655465</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.22114822425968</v>
+        <v>46.22114822425977</v>
       </c>
       <c r="G23">
-        <v>34.90251075509868</v>
+        <v>34.90251075509877</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.134225945737931</v>
+        <v>9.134225945737937</v>
       </c>
       <c r="J23">
-        <v>20.07735629424328</v>
+        <v>20.07735629424337</v>
       </c>
       <c r="K23">
-        <v>12.04035365688956</v>
+        <v>12.04035365688958</v>
       </c>
       <c r="L23">
-        <v>18.49510521606999</v>
+        <v>18.49510521607004</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.16503809569046</v>
+        <v>22.16503809569041</v>
       </c>
       <c r="C24">
-        <v>12.31457520743515</v>
+        <v>12.31457520743523</v>
       </c>
       <c r="D24">
-        <v>2.971487302538822</v>
+        <v>2.971487302538952</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.15562746300655</v>
+        <v>43.15562746300659</v>
       </c>
       <c r="G24">
-        <v>32.74231428752673</v>
+        <v>32.74231428752678</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8.827477185210251</v>
+        <v>8.827477185210263</v>
       </c>
       <c r="J24">
-        <v>18.5131529543238</v>
+        <v>18.51315295432382</v>
       </c>
       <c r="K24">
         <v>11.0671399648003</v>
       </c>
       <c r="L24">
-        <v>17.02625252770657</v>
+        <v>17.02625252770659</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.91885594641332</v>
+        <v>19.91885594641327</v>
       </c>
       <c r="C25">
-        <v>11.23514913391043</v>
+        <v>11.23514913391026</v>
       </c>
       <c r="D25">
-        <v>3.052510288503235</v>
+        <v>3.052510288503161</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.81022148278161</v>
+        <v>39.8102214827815</v>
       </c>
       <c r="G25">
-        <v>30.40906501817812</v>
+        <v>30.40906501817803</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>8.518486776428153</v>
+        <v>8.518486776428137</v>
       </c>
       <c r="J25">
-        <v>16.72082596256159</v>
+        <v>16.72082596256154</v>
       </c>
       <c r="K25">
-        <v>10.1846526816244</v>
+        <v>10.18465268162442</v>
       </c>
       <c r="L25">
-        <v>15.34520747746895</v>
+        <v>15.34520747746892</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.14087645159787</v>
+        <v>18.14046263092121</v>
       </c>
       <c r="C2">
-        <v>10.38842433724611</v>
+        <v>10.38760270335273</v>
       </c>
       <c r="D2">
-        <v>3.109681297117718</v>
+        <v>3.107519464937151</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.31409884609</v>
+        <v>37.27828045251925</v>
       </c>
       <c r="G2">
-        <v>28.68847477933645</v>
+        <v>27.24721167719945</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>28.72605031233525</v>
       </c>
       <c r="I2">
-        <v>8.308052260116183</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.30447243862137</v>
+        <v>8.30596819653349</v>
       </c>
       <c r="K2">
-        <v>9.52101554389294</v>
+        <v>15.30390286471743</v>
       </c>
       <c r="L2">
-        <v>14.01814286411211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>9.522412991613482</v>
+      </c>
+      <c r="M2">
+        <v>14.01867942328665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.85484485874248</v>
+        <v>16.85461933177986</v>
       </c>
       <c r="C3">
-        <v>9.781061422951909</v>
+        <v>9.780560166367199</v>
       </c>
       <c r="D3">
-        <v>3.147280032326281</v>
+        <v>3.145105237794745</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.60520546279106</v>
+        <v>35.57179420696551</v>
       </c>
       <c r="G3">
-        <v>27.52280219045675</v>
+        <v>25.85945259279474</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>27.55939273346378</v>
       </c>
       <c r="I3">
-        <v>8.17533875871038</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>14.28163744149278</v>
+        <v>8.173507926039727</v>
       </c>
       <c r="K3">
-        <v>9.063746604510808</v>
+        <v>14.28130867075618</v>
       </c>
       <c r="L3">
-        <v>13.06040509719126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>9.065075991319313</v>
+      </c>
+      <c r="M3">
+        <v>13.06100193061719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.02412869616001</v>
+        <v>16.02401343921065</v>
       </c>
       <c r="C4">
-        <v>9.391378870108069</v>
+        <v>9.39108300627853</v>
       </c>
       <c r="D4">
-        <v>3.169916683074095</v>
+        <v>3.167729292816133</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.54940802514825</v>
+        <v>34.51754278611042</v>
       </c>
       <c r="G4">
-        <v>26.80847234767556</v>
+        <v>24.99635058318538</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>26.84450998833521</v>
       </c>
       <c r="I4">
-        <v>8.098506237685537</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>13.62180977234078</v>
+        <v>8.09683788527453</v>
       </c>
       <c r="K4">
-        <v>8.7799090747033</v>
+        <v>13.62163075335012</v>
       </c>
       <c r="L4">
-        <v>12.44279041287264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.781191631453682</v>
+      </c>
+      <c r="M4">
+        <v>12.44342069621629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.67512226562785</v>
+        <v>15.67505076074254</v>
       </c>
       <c r="C5">
-        <v>9.228351544167868</v>
+        <v>9.228141850455435</v>
       </c>
       <c r="D5">
-        <v>3.179043987623159</v>
+        <v>3.176850388967551</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.11791237518591</v>
+        <v>34.08669416669805</v>
       </c>
       <c r="G5">
-        <v>26.51796370016599</v>
+        <v>24.64216411488775</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>26.5537894970952</v>
       </c>
       <c r="I5">
-        <v>8.068334047076304</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>13.34483154403868</v>
+        <v>8.066733576116578</v>
       </c>
       <c r="K5">
-        <v>8.66359445272913</v>
+        <v>13.34471429329245</v>
       </c>
       <c r="L5">
-        <v>12.18357307449966</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.66485672979468</v>
+      </c>
+      <c r="M5">
+        <v>12.18421623543792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.61653261557093</v>
+        <v>15.61646830836485</v>
       </c>
       <c r="C6">
-        <v>9.20102550122572</v>
+        <v>9.200830273790766</v>
       </c>
       <c r="D6">
-        <v>3.18055412383496</v>
+        <v>3.178359431761287</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.04620037486619</v>
+        <v>34.01509062659605</v>
       </c>
       <c r="G6">
-        <v>26.46976803967262</v>
+        <v>24.58321316644482</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>26.50555948501365</v>
       </c>
       <c r="I6">
-        <v>8.063391734703634</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>13.29834815551192</v>
+        <v>8.061802633463842</v>
       </c>
       <c r="K6">
-        <v>8.644245441350508</v>
+        <v>13.29824121410856</v>
       </c>
       <c r="L6">
-        <v>12.14007241267747</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.645504280855864</v>
+      </c>
+      <c r="M6">
+        <v>12.14071767043587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.019464512083</v>
+        <v>16.01934984979001</v>
       </c>
       <c r="C7">
-        <v>9.389197354340473</v>
+        <v>9.388902642241389</v>
       </c>
       <c r="D7">
-        <v>3.170040151426803</v>
+        <v>3.167852681683383</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.54359320706932</v>
+        <v>34.51173662547514</v>
       </c>
       <c r="G7">
-        <v>26.80455173097397</v>
+        <v>24.99158342602449</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>26.84058645957638</v>
       </c>
       <c r="I7">
-        <v>8.09809476167716</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>13.6181072336689</v>
+        <v>8.09642731810408</v>
       </c>
       <c r="K7">
-        <v>8.778342858566827</v>
+        <v>13.61792904434206</v>
       </c>
       <c r="L7">
-        <v>12.43932515015866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.779625146566213</v>
+      </c>
+      <c r="M7">
+        <v>12.43995561004292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.70588678553101</v>
+        <v>17.70553910175406</v>
       </c>
       <c r="C8">
-        <v>10.18247014136114</v>
+        <v>10.18175734397136</v>
       </c>
       <c r="D8">
-        <v>3.122748392785109</v>
+        <v>3.120583111521297</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.7264376652562</v>
+        <v>36.69143514094866</v>
       </c>
       <c r="G8">
-        <v>28.28638820609325</v>
+        <v>26.77115628683149</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>28.32361360983856</v>
       </c>
       <c r="I8">
-        <v>8.261306954469726</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>14.95833779133013</v>
+        <v>8.25930870193301</v>
       </c>
       <c r="K8">
-        <v>9.36405346723625</v>
+        <v>14.95785101177642</v>
       </c>
       <c r="L8">
-        <v>13.69398577865717</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>9.365428536714363</v>
+      </c>
+      <c r="M8">
+        <v>13.6945439464334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.69424997688351</v>
+        <v>20.69339427081845</v>
       </c>
       <c r="C9">
-        <v>11.60663950744347</v>
+        <v>11.60516295004823</v>
       </c>
       <c r="D9">
-        <v>3.025662396686231</v>
+        <v>3.023499088707088</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.94246017255325</v>
+        <v>40.90182212913063</v>
       </c>
       <c r="G9">
-        <v>31.19556554217606</v>
+        <v>30.16429534643528</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>31.23551771296973</v>
       </c>
       <c r="I9">
-        <v>8.619811523053647</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>17.33920374406883</v>
+        <v>8.617223478020279</v>
       </c>
       <c r="K9">
-        <v>10.48416334574859</v>
+        <v>17.33811489205001</v>
       </c>
       <c r="L9">
-        <v>15.92496137702644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>10.48567706962478</v>
+      </c>
+      <c r="M9">
+        <v>15.92534268343632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.70652670018182</v>
+        <v>22.70525202161782</v>
       </c>
       <c r="C10">
-        <v>12.5762174760545</v>
+        <v>12.57419601898908</v>
       </c>
       <c r="D10">
-        <v>2.95045755552772</v>
+        <v>2.948262475126432</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.99057137308038</v>
+        <v>43.94609660202832</v>
       </c>
       <c r="G10">
-        <v>33.32877020909761</v>
+        <v>32.59200757942794</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>33.37093792486636</v>
       </c>
       <c r="I10">
-        <v>8.908921139295805</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>18.94565646662298</v>
+        <v>8.905939258697842</v>
       </c>
       <c r="K10">
-        <v>11.31821477223569</v>
+        <v>18.94410972901969</v>
       </c>
       <c r="L10">
-        <v>17.43221965502276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>11.319659261738</v>
+      </c>
+      <c r="M10">
+        <v>17.43243893711689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.58488042379315</v>
+        <v>23.5834011190754</v>
       </c>
       <c r="C11">
-        <v>13.00171082967317</v>
+        <v>12.99944079637505</v>
       </c>
       <c r="D11">
-        <v>2.915088043225369</v>
+        <v>2.912869065179682</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.36643232668281</v>
+        <v>45.32026979747899</v>
       </c>
       <c r="G11">
-        <v>34.2983321106403</v>
+        <v>33.68263400777691</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>34.34154845092124</v>
       </c>
       <c r="I11">
-        <v>9.046604665972207</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>19.64754120393571</v>
+        <v>9.043452580037254</v>
       </c>
       <c r="K11">
-        <v>11.76589797523517</v>
+        <v>19.64577850479963</v>
       </c>
       <c r="L11">
-        <v>18.09131778110086</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>11.76736058534473</v>
+      </c>
+      <c r="M11">
+        <v>18.09145355816132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.91241490473092</v>
+        <v>23.91085567444095</v>
       </c>
       <c r="C12">
-        <v>13.16070687670008</v>
+        <v>13.15834222323106</v>
       </c>
       <c r="D12">
-        <v>2.901497746287052</v>
+        <v>2.899268127559578</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.88602072099191</v>
+        <v>45.83922643753628</v>
       </c>
       <c r="G12">
-        <v>34.66545311274677</v>
+        <v>34.09378716988397</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>34.70907199076414</v>
       </c>
       <c r="I12">
-        <v>9.099684331989856</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>19.90936739109008</v>
+        <v>9.096469082581951</v>
       </c>
       <c r="K12">
-        <v>11.93305710411985</v>
+        <v>19.90752139846706</v>
       </c>
       <c r="L12">
-        <v>18.33727305151405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>11.93452530592982</v>
+      </c>
+      <c r="M12">
+        <v>18.33737551362033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.84209615228761</v>
+        <v>23.84055425135851</v>
       </c>
       <c r="C13">
-        <v>13.12655695035608</v>
+        <v>13.12421270350368</v>
       </c>
       <c r="D13">
-        <v>2.904433924918198</v>
+        <v>2.90220667283665</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.77417805943467</v>
+        <v>45.7275195248631</v>
       </c>
       <c r="G13">
-        <v>34.58638613104131</v>
+        <v>34.00531689392625</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>34.6299180794105</v>
       </c>
       <c r="I13">
-        <v>9.088209807274723</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>19.85315132595521</v>
+        <v>9.08500810414964</v>
       </c>
       <c r="K13">
-        <v>11.89715936752836</v>
+        <v>19.85132334657544</v>
       </c>
       <c r="L13">
-        <v>18.28446042325526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>11.89862642417713</v>
+      </c>
+      <c r="M13">
+        <v>18.28457014070893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.61192715967669</v>
+        <v>23.61044133097917</v>
       </c>
       <c r="C14">
-        <v>13.01483349581759</v>
+        <v>13.01255569026764</v>
       </c>
       <c r="D14">
-        <v>2.913974087906185</v>
+        <v>2.911754267836772</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.40920653230713</v>
+        <v>45.36299188670921</v>
       </c>
       <c r="G14">
-        <v>34.32853519935122</v>
+        <v>33.7164956903201</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>34.37178454976475</v>
       </c>
       <c r="I14">
-        <v>9.050952336164244</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>19.66916001999774</v>
+        <v>9.047795027970176</v>
       </c>
       <c r="K14">
-        <v>11.77969688014388</v>
+        <v>19.66739050115559</v>
       </c>
       <c r="L14">
-        <v>18.11162427729787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>11.78115997667537</v>
+      </c>
+      <c r="M14">
+        <v>18.11175734926021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.47028837205188</v>
+        <v>23.46883655792395</v>
       </c>
       <c r="C15">
-        <v>12.94612600537853</v>
+        <v>12.94388882094797</v>
       </c>
       <c r="D15">
-        <v>2.919791149040842</v>
+        <v>2.917575666365481</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.18547155837517</v>
+        <v>45.13952973581446</v>
       </c>
       <c r="G15">
-        <v>34.17059404319247</v>
+        <v>33.53934977177288</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>34.21367099171203</v>
       </c>
       <c r="I15">
-        <v>9.028255515633052</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>19.55595016534198</v>
+        <v>9.025125568168113</v>
       </c>
       <c r="K15">
-        <v>11.70744361632423</v>
+        <v>19.55421624495856</v>
       </c>
       <c r="L15">
-        <v>18.00529027724034</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>11.70890411696585</v>
+      </c>
+      <c r="M15">
+        <v>18.00543742470696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.64839941176596</v>
+        <v>22.64713778940445</v>
       </c>
       <c r="C16">
-        <v>12.54810609773812</v>
+        <v>12.54610083935793</v>
       </c>
       <c r="D16">
-        <v>2.952743242243413</v>
+        <v>2.950549514667363</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.90044759447311</v>
+        <v>43.8560842072391</v>
       </c>
       <c r="G16">
-        <v>33.26539601882988</v>
+        <v>32.52046533804728</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>33.3074959885335</v>
       </c>
       <c r="I16">
-        <v>8.900051797312978</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>18.89922111883705</v>
+        <v>8.897081220970604</v>
       </c>
       <c r="K16">
-        <v>11.28861823635123</v>
+        <v>18.897688306701</v>
       </c>
       <c r="L16">
-        <v>17.38862718558959</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>11.29006137240113</v>
+      </c>
+      <c r="M16">
+        <v>17.38885170452734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.13487798093057</v>
+        <v>22.13372916490601</v>
       </c>
       <c r="C17">
-        <v>12.30001751512754</v>
+        <v>12.29815409307075</v>
       </c>
       <c r="D17">
-        <v>2.972641361184123</v>
+        <v>2.970458408762774</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.10942976731338</v>
+        <v>43.06604885727617</v>
       </c>
       <c r="G17">
-        <v>32.70991004390751</v>
+        <v>31.89195862430558</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>32.75142080334135</v>
       </c>
       <c r="I17">
-        <v>8.823018879931421</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>18.48906769268793</v>
+        <v>8.820148375303807</v>
       </c>
       <c r="K17">
-        <v>11.05500263531308</v>
+        <v>18.48765601513012</v>
       </c>
       <c r="L17">
-        <v>17.00364878557681</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.05656892831751</v>
+      </c>
+      <c r="M17">
+        <v>17.00391807189449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.83601129371651</v>
+        <v>21.83492606923301</v>
       </c>
       <c r="C18">
-        <v>12.15584999917477</v>
+        <v>12.15406811734205</v>
       </c>
       <c r="D18">
-        <v>2.983979202408777</v>
+        <v>2.98180157499882</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.65343218754354</v>
+        <v>42.61062185938365</v>
       </c>
       <c r="G18">
-        <v>32.39031974983911</v>
+        <v>31.52915044274416</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>32.43149547063904</v>
       </c>
       <c r="I18">
-        <v>8.779288205690969</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>18.25042531731656</v>
+        <v>8.776476103676163</v>
       </c>
       <c r="K18">
-        <v>10.9351295366996</v>
+        <v>18.24908261905391</v>
       </c>
       <c r="L18">
-        <v>16.77970681026682</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>10.936685784152</v>
+      </c>
+      <c r="M18">
+        <v>16.78000094277943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.73421145270164</v>
+        <v>21.73314754897517</v>
       </c>
       <c r="C19">
-        <v>12.10678123830105</v>
+        <v>12.10502696884503</v>
       </c>
       <c r="D19">
-        <v>2.98780047315806</v>
+        <v>2.985624505221289</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.49886120506028</v>
+        <v>42.45624503328823</v>
       </c>
       <c r="G19">
-        <v>32.28209512073645</v>
+        <v>31.40608254499644</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>32.32315807931656</v>
       </c>
       <c r="I19">
-        <v>8.764579242895731</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>18.16915020888481</v>
+        <v>8.761787059468814</v>
       </c>
       <c r="K19">
-        <v>10.89446632696015</v>
+        <v>18.16783075823071</v>
       </c>
       <c r="L19">
-        <v>16.70344697301847</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>10.89601904674226</v>
+      </c>
+      <c r="M19">
+        <v>16.70374937086725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.18990402567649</v>
+        <v>22.18874333771357</v>
       </c>
       <c r="C20">
-        <v>12.32657873697592</v>
+        <v>12.32470022305122</v>
       </c>
       <c r="D20">
-        <v>2.970534455403699</v>
+        <v>2.968350447801703</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.19374050610774</v>
+        <v>43.15025444783723</v>
       </c>
       <c r="G20">
-        <v>32.76905132689684</v>
+        <v>31.95899888727639</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>32.81062441243318</v>
       </c>
       <c r="I20">
-        <v>8.831159115090271</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>18.53301075217743</v>
+        <v>8.828277870206099</v>
       </c>
       <c r="K20">
-        <v>11.07715226208778</v>
+        <v>18.53158625427107</v>
       </c>
       <c r="L20">
-        <v>17.04488913965041</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.07872035336909</v>
+      </c>
+      <c r="M20">
+        <v>17.04515375574989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.67966910831486</v>
+        <v>23.67816687974602</v>
       </c>
       <c r="C21">
-        <v>13.04770618513789</v>
+        <v>13.04540888078561</v>
       </c>
       <c r="D21">
-        <v>2.911177505859503</v>
+        <v>2.908955548102181</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.51644451879434</v>
+        <v>45.4700993007301</v>
       </c>
       <c r="G21">
-        <v>34.40427199795223</v>
+        <v>33.80137800456931</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>34.44760420956921</v>
       </c>
       <c r="I21">
-        <v>9.061869710272473</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>19.723308602977</v>
+        <v>9.058699327327957</v>
       </c>
       <c r="K21">
-        <v>11.81426156364032</v>
+        <v>19.72152195750551</v>
       </c>
       <c r="L21">
-        <v>18.16248736951963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>11.81572585912494</v>
+      </c>
+      <c r="M21">
+        <v>18.16261363016699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.6238475997174</v>
+        <v>24.62210768965495</v>
       </c>
       <c r="C22">
-        <v>13.50666101319248</v>
+        <v>13.50408693453572</v>
       </c>
       <c r="D22">
-        <v>2.871221371183103</v>
+        <v>2.868965192146912</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.02632601849916</v>
+        <v>46.97815451675332</v>
       </c>
       <c r="G22">
-        <v>35.47290212523165</v>
+        <v>34.99486006467916</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>35.5174156026019</v>
       </c>
       <c r="I22">
-        <v>9.218175182345178</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>20.47824928661343</v>
+        <v>9.214823328605975</v>
       </c>
       <c r="K22">
-        <v>12.29655811792374</v>
+        <v>20.47621689812279</v>
       </c>
       <c r="L22">
-        <v>18.8718431974458</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>12.29803614603989</v>
+      </c>
+      <c r="M22">
+        <v>18.87186899437346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.1225291324652</v>
+        <v>24.12091756085748</v>
       </c>
       <c r="C23">
-        <v>13.26279581428237</v>
+        <v>13.26036987732377</v>
       </c>
       <c r="D23">
-        <v>2.892664081655465</v>
+        <v>2.890427118773424</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.22114822425977</v>
+        <v>46.17394792726757</v>
       </c>
       <c r="G23">
-        <v>34.90251075509877</v>
+        <v>34.35878058420394</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>34.94639100862835</v>
       </c>
       <c r="I23">
-        <v>9.134225945737937</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>20.07735629424337</v>
+        <v>9.13097026682669</v>
       </c>
       <c r="K23">
-        <v>12.04035365688958</v>
+        <v>20.07545604434353</v>
       </c>
       <c r="L23">
-        <v>18.49510521607004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>12.04182509708039</v>
+      </c>
+      <c r="M23">
+        <v>18.49518565851318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.16503809569041</v>
+        <v>22.16388277893207</v>
       </c>
       <c r="C24">
-        <v>12.31457520743523</v>
+        <v>12.31270351652561</v>
       </c>
       <c r="D24">
-        <v>2.971487302538952</v>
+        <v>2.969303774676249</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.15562746300659</v>
+        <v>43.11218892429715</v>
       </c>
       <c r="G24">
-        <v>32.74231428752678</v>
+        <v>31.92869457617276</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>32.78385918386122</v>
       </c>
       <c r="I24">
-        <v>8.827477185210263</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>18.51315295432382</v>
+        <v>8.824600793286534</v>
       </c>
       <c r="K24">
-        <v>11.0671399648003</v>
+        <v>18.51173425453064</v>
       </c>
       <c r="L24">
-        <v>17.02625252770659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.06870724544494</v>
+      </c>
+      <c r="M24">
+        <v>17.02651925796679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.91885594641327</v>
+        <v>19.91814449601988</v>
       </c>
       <c r="C25">
-        <v>11.23514913391026</v>
+        <v>11.23387499874884</v>
       </c>
       <c r="D25">
-        <v>3.052510288503161</v>
+        <v>3.050351627666891</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.8102214827815</v>
+        <v>39.77105244686052</v>
       </c>
       <c r="G25">
-        <v>30.40906501817803</v>
+        <v>29.25766131296987</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>30.44824036107341</v>
       </c>
       <c r="I25">
-        <v>8.518486776428137</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>16.72082596256154</v>
+        <v>8.516051550131881</v>
       </c>
       <c r="K25">
-        <v>10.18465268162442</v>
+        <v>16.71990138324671</v>
       </c>
       <c r="L25">
-        <v>15.34520747746892</v>
+        <v>10.1861340140837</v>
+      </c>
+      <c r="M25">
+        <v>15.34564141121919</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.14046263092121</v>
+        <v>23.63350044982665</v>
       </c>
       <c r="C2">
-        <v>10.38760270335273</v>
+        <v>13.24531487452474</v>
       </c>
       <c r="D2">
-        <v>3.107519464937151</v>
+        <v>3.093773971418786</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.27828045251925</v>
+        <v>35.70079259421733</v>
       </c>
       <c r="G2">
-        <v>27.24721167719945</v>
+        <v>2.118585672689177</v>
       </c>
       <c r="H2">
-        <v>28.72605031233525</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.30596819653349</v>
+        <v>6.110694815353795</v>
       </c>
       <c r="K2">
-        <v>15.30390286471743</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>9.522412991613482</v>
+        <v>6.811002859274218</v>
       </c>
       <c r="M2">
-        <v>14.01867942328665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14.29096843201622</v>
+      </c>
+      <c r="N2">
+        <v>14.1866665933334</v>
+      </c>
+      <c r="O2">
+        <v>27.09869943421243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.85461933177986</v>
+        <v>22.25159595145254</v>
       </c>
       <c r="C3">
-        <v>9.780560166367199</v>
+        <v>12.35152763029267</v>
       </c>
       <c r="D3">
-        <v>3.145105237794745</v>
+        <v>3.035342365995501</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.57179420696551</v>
+        <v>34.87651299083673</v>
       </c>
       <c r="G3">
-        <v>25.85945259279474</v>
+        <v>2.128192544496004</v>
       </c>
       <c r="H3">
-        <v>27.55939273346378</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.173507926039727</v>
+        <v>6.147582567874483</v>
       </c>
       <c r="K3">
-        <v>14.28130867075618</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>9.065075991319313</v>
+        <v>6.746089369873707</v>
       </c>
       <c r="M3">
-        <v>13.06100193061719</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.773536328757</v>
+      </c>
+      <c r="N3">
+        <v>14.44934451712813</v>
+      </c>
+      <c r="O3">
+        <v>26.52346510630296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.02401343921065</v>
+        <v>21.37436469501438</v>
       </c>
       <c r="C4">
-        <v>9.39108300627853</v>
+        <v>11.77409938084983</v>
       </c>
       <c r="D4">
-        <v>3.167729292816133</v>
+        <v>2.999640383333983</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.51754278611042</v>
+        <v>34.39472502537066</v>
       </c>
       <c r="G4">
-        <v>24.99635058318538</v>
+        <v>2.134243825894362</v>
       </c>
       <c r="H4">
-        <v>26.84450998833521</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.09683788527453</v>
+        <v>6.170862511029713</v>
       </c>
       <c r="K4">
-        <v>13.62163075335012</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>8.781191631453682</v>
+        <v>6.70887295330864</v>
       </c>
       <c r="M4">
-        <v>12.44342069621629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.45485329310048</v>
+      </c>
+      <c r="N4">
+        <v>14.6136650224595</v>
+      </c>
+      <c r="O4">
+        <v>26.19024178765623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.67505076074254</v>
+        <v>21.00995197329442</v>
       </c>
       <c r="C5">
-        <v>9.228141850455435</v>
+        <v>11.53151894555579</v>
       </c>
       <c r="D5">
-        <v>3.176850388967551</v>
+        <v>2.985114761319656</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.08669416669805</v>
+        <v>34.20449846958623</v>
       </c>
       <c r="G5">
-        <v>24.64216411488775</v>
+        <v>2.136750036782044</v>
       </c>
       <c r="H5">
-        <v>26.5537894970952</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.066733576116578</v>
+        <v>6.18051232207497</v>
       </c>
       <c r="K5">
-        <v>13.34471429329245</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>8.66485672979468</v>
+        <v>6.694366596599534</v>
       </c>
       <c r="M5">
-        <v>12.18421623543792</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.32490239855099</v>
+      </c>
+      <c r="N5">
+        <v>14.68142674951067</v>
+      </c>
+      <c r="O5">
+        <v>26.05942101111543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.61646830836485</v>
+        <v>20.94903286574401</v>
       </c>
       <c r="C6">
-        <v>9.200830273790766</v>
+        <v>11.49079739780834</v>
       </c>
       <c r="D6">
-        <v>3.178359431761287</v>
+        <v>2.982703617783691</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.01509062659605</v>
+        <v>34.17327978108761</v>
       </c>
       <c r="G6">
-        <v>24.58321316644482</v>
+        <v>2.13716867587119</v>
       </c>
       <c r="H6">
-        <v>26.50555948501365</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.061802633463842</v>
+        <v>6.182124639171099</v>
       </c>
       <c r="K6">
-        <v>13.29824121410856</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>8.645504280855864</v>
+        <v>6.691997529874636</v>
       </c>
       <c r="M6">
-        <v>12.14071767043587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.30332404433186</v>
+      </c>
+      <c r="N6">
+        <v>14.69272787798647</v>
+      </c>
+      <c r="O6">
+        <v>26.03799682436145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.01934984979001</v>
+        <v>21.36947772704288</v>
       </c>
       <c r="C7">
-        <v>9.388902642241389</v>
+        <v>11.77085739642881</v>
       </c>
       <c r="D7">
-        <v>3.167852681683383</v>
+        <v>2.999444418017133</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.51173662547514</v>
+        <v>34.39213486132343</v>
       </c>
       <c r="G7">
-        <v>24.99158342602449</v>
+        <v>2.134277460096509</v>
       </c>
       <c r="H7">
-        <v>26.84058645957638</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.09642731810408</v>
+        <v>6.170991985869072</v>
       </c>
       <c r="K7">
-        <v>13.61792904434206</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>8.779625146566213</v>
+        <v>6.708674650796683</v>
       </c>
       <c r="M7">
-        <v>12.43995561004292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.4531008490562</v>
+      </c>
+      <c r="N7">
+        <v>14.61457559523371</v>
+      </c>
+      <c r="O7">
+        <v>26.18845744292335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.70553910175406</v>
+        <v>23.16313471388604</v>
       </c>
       <c r="C8">
-        <v>10.18175734397136</v>
+        <v>12.94303483076557</v>
       </c>
       <c r="D8">
-        <v>3.120583111521297</v>
+        <v>3.073577281284961</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.69143514094866</v>
+        <v>35.41152861776588</v>
       </c>
       <c r="G8">
-        <v>26.77115628683149</v>
+        <v>2.12186762174407</v>
       </c>
       <c r="H8">
-        <v>28.32361360983856</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.25930870193301</v>
+        <v>6.123285560860731</v>
       </c>
       <c r="K8">
-        <v>14.95785101177642</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>9.365428536714363</v>
+        <v>6.788070049848987</v>
       </c>
       <c r="M8">
-        <v>13.6945439464334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14.11285180666895</v>
+      </c>
+      <c r="N8">
+        <v>14.27663050651537</v>
+      </c>
+      <c r="O8">
+        <v>26.89618420667273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.69339427081845</v>
+        <v>26.44359292475971</v>
       </c>
       <c r="C9">
-        <v>11.60516295004823</v>
+        <v>15.018167318675</v>
       </c>
       <c r="D9">
-        <v>3.023499088707088</v>
+        <v>3.221382796877808</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.90182212913063</v>
+        <v>37.60395777081447</v>
       </c>
       <c r="G9">
-        <v>30.16429534643528</v>
+        <v>2.098650444568375</v>
       </c>
       <c r="H9">
-        <v>31.23551771296973</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.617223478020279</v>
+        <v>6.034523366872258</v>
       </c>
       <c r="K9">
-        <v>17.33811489205001</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>10.48567706962478</v>
+        <v>6.96491420078778</v>
       </c>
       <c r="M9">
-        <v>15.92534268343632</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15.39277476052066</v>
+      </c>
+      <c r="N9">
+        <v>13.63626541200887</v>
+      </c>
+      <c r="O9">
+        <v>28.44466319028132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.70525202161782</v>
+        <v>28.7023777379155</v>
       </c>
       <c r="C10">
-        <v>12.57419601898908</v>
+        <v>16.41239935445391</v>
       </c>
       <c r="D10">
-        <v>2.948262475126432</v>
+        <v>3.333080040390641</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.94609660202832</v>
+        <v>39.33389448071325</v>
       </c>
       <c r="G10">
-        <v>32.59200757942794</v>
+        <v>2.082133283563288</v>
       </c>
       <c r="H10">
-        <v>33.37093792486636</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.905939258697842</v>
+        <v>5.971909496339743</v>
       </c>
       <c r="K10">
-        <v>18.94410972901969</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>11.319659261738</v>
+        <v>7.108036517196082</v>
       </c>
       <c r="M10">
-        <v>17.43243893711689</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16.31809009247874</v>
+      </c>
+      <c r="N10">
+        <v>13.17686831635163</v>
+      </c>
+      <c r="O10">
+        <v>29.68350170412856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.5834011190754</v>
+        <v>29.69935206418351</v>
       </c>
       <c r="C11">
-        <v>12.99944079637505</v>
+        <v>17.0198568533323</v>
       </c>
       <c r="D11">
-        <v>2.912869065179682</v>
+        <v>3.384984279135897</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.32026979747899</v>
+        <v>40.14739302773121</v>
       </c>
       <c r="G11">
-        <v>33.68263400777691</v>
+        <v>2.074701311600025</v>
       </c>
       <c r="H11">
-        <v>34.34154845092124</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.043452580037254</v>
+        <v>5.943912493903793</v>
       </c>
       <c r="K11">
-        <v>19.64577850479963</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>11.76736058534473</v>
+        <v>7.176090507070267</v>
       </c>
       <c r="M11">
-        <v>18.09145355816132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.73484324877791</v>
+      </c>
+      <c r="N11">
+        <v>12.96969521971654</v>
+      </c>
+      <c r="O11">
+        <v>30.269954523264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.91085567444095</v>
+        <v>30.09864723595908</v>
       </c>
       <c r="C12">
-        <v>13.15834222323106</v>
+        <v>17.24617247322193</v>
       </c>
       <c r="D12">
-        <v>2.899268127559578</v>
+        <v>3.404835998443489</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.83922643753628</v>
+        <v>40.45934844644744</v>
       </c>
       <c r="G12">
-        <v>34.09378716988397</v>
+        <v>2.071895487157092</v>
       </c>
       <c r="H12">
-        <v>34.70907199076414</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.096469082581951</v>
+        <v>5.933373832925661</v>
       </c>
       <c r="K12">
-        <v>19.90752139846706</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>11.93452530592982</v>
+        <v>7.20229233351663</v>
       </c>
       <c r="M12">
-        <v>18.33737551362033</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.89201015634587</v>
+      </c>
+      <c r="N12">
+        <v>12.89145407399391</v>
+      </c>
+      <c r="O12">
+        <v>30.49541956290851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.84055425135851</v>
+        <v>30.01292287513281</v>
       </c>
       <c r="C13">
-        <v>13.12421270350368</v>
+        <v>17.19759426325636</v>
       </c>
       <c r="D13">
-        <v>2.90220667283665</v>
+        <v>3.400551141476218</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.7275195248631</v>
+        <v>40.39198797314111</v>
       </c>
       <c r="G13">
-        <v>34.00531689392625</v>
+        <v>2.072499449246787</v>
       </c>
       <c r="H13">
-        <v>34.6299180794105</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.08500810414964</v>
+        <v>5.935640824644373</v>
       </c>
       <c r="K13">
-        <v>19.85132334657544</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>11.89862642417713</v>
+        <v>7.196629981788012</v>
       </c>
       <c r="M13">
-        <v>18.28457014070893</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.85819078449142</v>
+      </c>
+      <c r="N13">
+        <v>12.90829613390163</v>
+      </c>
+      <c r="O13">
+        <v>30.4467091263038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.61044133097917</v>
+        <v>29.73232470849649</v>
       </c>
       <c r="C14">
-        <v>13.01255569026764</v>
+        <v>17.03854960202608</v>
       </c>
       <c r="D14">
-        <v>2.911754267836772</v>
+        <v>3.386613304708331</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.36299188670921</v>
+        <v>40.17297897263406</v>
       </c>
       <c r="G14">
-        <v>33.7164956903201</v>
+        <v>2.074470324276013</v>
       </c>
       <c r="H14">
-        <v>34.37178454976475</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.047795027970176</v>
+        <v>5.94304424592811</v>
       </c>
       <c r="K14">
-        <v>19.66739050115559</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>11.78115997667537</v>
+        <v>7.178237454549502</v>
       </c>
       <c r="M14">
-        <v>18.11175734926021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.7477866454853</v>
+      </c>
+      <c r="N14">
+        <v>12.96325433773954</v>
+      </c>
+      <c r="O14">
+        <v>30.28843511972905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.46883655792395</v>
+        <v>29.56688138954132</v>
       </c>
       <c r="C15">
-        <v>12.94388882094797</v>
+        <v>16.94065060932815</v>
       </c>
       <c r="D15">
-        <v>2.917575666365481</v>
+        <v>3.378102856330344</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.13952973581446</v>
+        <v>40.03934088424813</v>
       </c>
       <c r="G15">
-        <v>33.53934977177288</v>
+        <v>2.07567854659992</v>
       </c>
       <c r="H15">
-        <v>34.21367099171203</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.025125568168113</v>
+        <v>5.94758707592409</v>
       </c>
       <c r="K15">
-        <v>19.55421624495856</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>11.70890411696585</v>
+        <v>7.167027916580908</v>
       </c>
       <c r="M15">
-        <v>18.00543742470696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.68007548280207</v>
+      </c>
+      <c r="N15">
+        <v>12.99694378250633</v>
+      </c>
+      <c r="O15">
+        <v>30.19193225110214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.64713778940445</v>
+        <v>28.6367235064061</v>
       </c>
       <c r="C16">
-        <v>12.54610083935793</v>
+        <v>16.37217290734819</v>
       </c>
       <c r="D16">
-        <v>2.950549514667363</v>
+        <v>3.329713234273453</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.8560842072391</v>
+        <v>39.28127085446454</v>
       </c>
       <c r="G16">
-        <v>32.52046533804728</v>
+        <v>2.08262035544372</v>
       </c>
       <c r="H16">
-        <v>33.3074959885335</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.897081220970604</v>
+        <v>5.973748388924824</v>
       </c>
       <c r="K16">
-        <v>18.897688306701</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>11.29006137240113</v>
+        <v>7.103648929158505</v>
       </c>
       <c r="M16">
-        <v>17.38885170452734</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16.29076558214042</v>
+      </c>
+      <c r="N16">
+        <v>13.19043979391286</v>
+      </c>
+      <c r="O16">
+        <v>29.64564394971167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.13372916490601</v>
+        <v>28.057654109612</v>
       </c>
       <c r="C17">
-        <v>12.29815409307075</v>
+        <v>16.01666227857736</v>
       </c>
       <c r="D17">
-        <v>2.970458408762774</v>
+        <v>3.300334248393547</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.06604885727617</v>
+        <v>38.8230654829252</v>
       </c>
       <c r="G17">
-        <v>31.89195862430558</v>
+        <v>2.086897665192021</v>
       </c>
       <c r="H17">
-        <v>32.75142080334135</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.820148375303807</v>
+        <v>5.989917444673599</v>
       </c>
       <c r="K17">
-        <v>18.48765601513012</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>11.05656892831751</v>
+        <v>7.065527548155863</v>
       </c>
       <c r="M17">
-        <v>17.00391807189449</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16.05082478546613</v>
+      </c>
+      <c r="N17">
+        <v>13.30957216485599</v>
+      </c>
+      <c r="O17">
+        <v>29.31643831302052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.83492606923301</v>
+        <v>27.72147221162422</v>
       </c>
       <c r="C18">
-        <v>12.15406811734205</v>
+        <v>15.80965177302844</v>
       </c>
       <c r="D18">
-        <v>2.98180157499882</v>
+        <v>3.283536427359703</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.61062185938365</v>
+        <v>38.56200896026633</v>
       </c>
       <c r="G18">
-        <v>31.52915044274416</v>
+        <v>2.089365771546038</v>
       </c>
       <c r="H18">
-        <v>32.43149547063904</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.776476103676163</v>
+        <v>5.999263670464097</v>
       </c>
       <c r="K18">
-        <v>18.24908261905391</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>10.936685784152</v>
+        <v>7.04387797979188</v>
       </c>
       <c r="M18">
-        <v>16.78000094277943</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.9124253010342</v>
+      </c>
+      <c r="N18">
+        <v>13.37826729490863</v>
+      </c>
+      <c r="O18">
+        <v>29.12923621747224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.73314754897517</v>
+        <v>27.60711097351291</v>
       </c>
       <c r="C19">
-        <v>12.10502696884503</v>
+        <v>15.73912309068421</v>
       </c>
       <c r="D19">
-        <v>2.985624505221289</v>
+        <v>3.277865055551946</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.45624503328823</v>
+        <v>38.47404560836626</v>
       </c>
       <c r="G19">
-        <v>31.40608254499644</v>
+        <v>2.090202882206905</v>
       </c>
       <c r="H19">
-        <v>32.32315807931656</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.761787059468814</v>
+        <v>6.00243627580319</v>
       </c>
       <c r="K19">
-        <v>18.16783075823071</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>10.89601904674226</v>
+        <v>7.036595155485442</v>
       </c>
       <c r="M19">
-        <v>16.70374937086725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.86550016865366</v>
+      </c>
+      <c r="N19">
+        <v>13.40155752840804</v>
+      </c>
+      <c r="O19">
+        <v>29.0662193004702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.18874333771357</v>
+        <v>28.11961941051192</v>
       </c>
       <c r="C20">
-        <v>12.32470022305122</v>
+        <v>16.05476791612968</v>
       </c>
       <c r="D20">
-        <v>2.968350447801703</v>
+        <v>3.3034510507933</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.15025444783723</v>
+        <v>38.87158392227118</v>
       </c>
       <c r="G20">
-        <v>31.95899888727639</v>
+        <v>2.086441541984833</v>
       </c>
       <c r="H20">
-        <v>32.81062441243318</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.828277870206099</v>
+        <v>5.988191485403616</v>
       </c>
       <c r="K20">
-        <v>18.53158625427107</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>11.07872035336909</v>
+        <v>7.069556933535992</v>
       </c>
       <c r="M20">
-        <v>17.04515375574989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16.07640787654775</v>
+      </c>
+      <c r="N20">
+        <v>13.2968727316179</v>
+      </c>
+      <c r="O20">
+        <v>29.35125987236275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.67816687974602</v>
+        <v>29.81490889108682</v>
       </c>
       <c r="C21">
-        <v>13.04540888078561</v>
+        <v>17.08536454628232</v>
       </c>
       <c r="D21">
-        <v>2.908955548102181</v>
+        <v>3.39070150568917</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.4700993007301</v>
+        <v>40.23720047146554</v>
       </c>
       <c r="G21">
-        <v>33.80137800456931</v>
+        <v>2.073891227503481</v>
       </c>
       <c r="H21">
-        <v>34.44760420956921</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.058699327327957</v>
+        <v>5.94086802293725</v>
       </c>
       <c r="K21">
-        <v>19.72152195750551</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>11.81572585912494</v>
+        <v>7.183628012533004</v>
       </c>
       <c r="M21">
-        <v>18.16261363016699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.78023287280717</v>
+      </c>
+      <c r="N21">
+        <v>12.9471064620281</v>
+      </c>
+      <c r="O21">
+        <v>30.33483118162327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.62210768965495</v>
+        <v>30.96585590187583</v>
       </c>
       <c r="C22">
-        <v>13.50408693453572</v>
+        <v>17.73733755713146</v>
       </c>
       <c r="D22">
-        <v>2.868965192146912</v>
+        <v>3.448893496275418</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.97815451675332</v>
+        <v>41.15251934270554</v>
       </c>
       <c r="G22">
-        <v>34.99486006467916</v>
+        <v>2.065736647198682</v>
       </c>
       <c r="H22">
-        <v>35.5174156026019</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.214823328605975</v>
+        <v>5.910304230307982</v>
       </c>
       <c r="K22">
-        <v>20.47621689812279</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>12.29803614603989</v>
+        <v>7.260698673111919</v>
       </c>
       <c r="M22">
-        <v>18.87186899437346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17.23643924339551</v>
+      </c>
+      <c r="N22">
+        <v>12.71971859068518</v>
+      </c>
+      <c r="O22">
+        <v>30.997466181448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.12091756085748</v>
+        <v>30.35478782869327</v>
       </c>
       <c r="C23">
-        <v>13.26036987732377</v>
+        <v>17.39129292184476</v>
       </c>
       <c r="D23">
-        <v>2.890427118773424</v>
+        <v>3.417713941752576</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.17394792726757</v>
+        <v>40.66187032695638</v>
       </c>
       <c r="G23">
-        <v>34.35878058420394</v>
+        <v>2.070085701216663</v>
       </c>
       <c r="H23">
-        <v>34.94639100862835</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.13097026682669</v>
+        <v>5.926585692205311</v>
       </c>
       <c r="K23">
-        <v>20.07545604434353</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>12.04182509708039</v>
+        <v>7.21933117308262</v>
       </c>
       <c r="M23">
-        <v>18.49518565851318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16.99330878439095</v>
+      </c>
+      <c r="N23">
+        <v>12.84098632049913</v>
+      </c>
+      <c r="O23">
+        <v>30.64195323660993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.16388277893207</v>
+        <v>28.09161507738007</v>
       </c>
       <c r="C24">
-        <v>12.31270351652561</v>
+        <v>16.03754853666325</v>
       </c>
       <c r="D24">
-        <v>2.969303774676249</v>
+        <v>3.302041659082134</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.11218892429715</v>
+        <v>38.84964135386822</v>
       </c>
       <c r="G24">
-        <v>31.92869457617276</v>
+        <v>2.086647726937517</v>
       </c>
       <c r="H24">
-        <v>32.78385918386122</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.824600793286534</v>
+        <v>5.988971634038492</v>
       </c>
       <c r="K24">
-        <v>18.51173425453064</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>11.06870724544494</v>
+        <v>7.067734417544293</v>
       </c>
       <c r="M24">
-        <v>17.02651925796679</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16.06484317225133</v>
+      </c>
+      <c r="N24">
+        <v>13.30261350519616</v>
+      </c>
+      <c r="O24">
+        <v>29.33551062760998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.91814449601988</v>
+        <v>25.58245998204234</v>
       </c>
       <c r="C25">
-        <v>11.23387499874884</v>
+        <v>14.48014781915619</v>
       </c>
       <c r="D25">
-        <v>3.050351627666891</v>
+        <v>3.180980541347624</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.77105244686052</v>
+        <v>36.99005304935349</v>
       </c>
       <c r="G25">
-        <v>29.25766131296987</v>
+        <v>2.104825371522614</v>
       </c>
       <c r="H25">
-        <v>30.44824036107341</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.516051550131881</v>
+        <v>6.058054861065034</v>
       </c>
       <c r="K25">
-        <v>16.71990138324671</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>10.1861340140837</v>
+        <v>6.914779103406793</v>
       </c>
       <c r="M25">
-        <v>15.34564141121919</v>
+        <v>15.04876905800314</v>
+      </c>
+      <c r="N25">
+        <v>13.80736429755746</v>
+      </c>
+      <c r="O25">
+        <v>28.00824598722967</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.63350044982665</v>
+        <v>21.65036396205273</v>
       </c>
       <c r="C2">
-        <v>13.24531487452474</v>
+        <v>12.32169686841847</v>
       </c>
       <c r="D2">
-        <v>3.093773971418786</v>
+        <v>4.043422671848045</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.70079259421733</v>
+        <v>29.88289250916212</v>
       </c>
       <c r="G2">
-        <v>2.118585672689177</v>
+        <v>40.18905556025693</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>12.63967792553935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.110694815353795</v>
+        <v>6.211840961907936</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.811002859274218</v>
+        <v>6.862292933125715</v>
       </c>
       <c r="M2">
-        <v>14.29096843201622</v>
+        <v>13.37122647436911</v>
       </c>
       <c r="N2">
-        <v>14.1866665933334</v>
+        <v>13.22005816312087</v>
       </c>
       <c r="O2">
-        <v>27.09869943421243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.25159595145254</v>
+        <v>20.31851159308871</v>
       </c>
       <c r="C3">
-        <v>12.35152763029267</v>
+        <v>11.62195596730776</v>
       </c>
       <c r="D3">
-        <v>3.035342365995501</v>
+        <v>4.019257579944567</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.87651299083673</v>
+        <v>29.25850056186692</v>
       </c>
       <c r="G3">
-        <v>2.128192544496004</v>
+        <v>38.93341871281392</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.52931957790763</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.147582567874483</v>
+        <v>6.257071004017529</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.746089369873707</v>
+        <v>6.785165204798463</v>
       </c>
       <c r="M3">
-        <v>13.773536328757</v>
+        <v>12.85255201500645</v>
       </c>
       <c r="N3">
-        <v>14.44934451712813</v>
+        <v>13.4735489443065</v>
       </c>
       <c r="O3">
-        <v>26.52346510630296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.37436469501438</v>
+        <v>19.465542832596</v>
       </c>
       <c r="C4">
-        <v>11.77409938084983</v>
+        <v>11.17174038341195</v>
       </c>
       <c r="D4">
-        <v>2.999640383333983</v>
+        <v>4.004977140755109</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.39472502537066</v>
+        <v>28.89668800504873</v>
       </c>
       <c r="G4">
-        <v>2.134243825894362</v>
+        <v>38.18655080697727</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.47138725343501</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.170862511029713</v>
+        <v>6.285630872304042</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.70887295330864</v>
+        <v>6.740079773848774</v>
       </c>
       <c r="M4">
-        <v>13.45485329310048</v>
+        <v>12.53002750178668</v>
       </c>
       <c r="N4">
-        <v>14.6136650224595</v>
+        <v>13.63192156001963</v>
       </c>
       <c r="O4">
-        <v>26.19024178765623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.00995197329442</v>
+        <v>19.10930758050453</v>
       </c>
       <c r="C5">
-        <v>11.53151894555579</v>
+        <v>10.98314419330427</v>
       </c>
       <c r="D5">
-        <v>2.985114761319656</v>
+        <v>3.999291332705543</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.20449846958623</v>
+        <v>28.75466649713573</v>
       </c>
       <c r="G5">
-        <v>2.136750036782044</v>
+        <v>37.88849743834054</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.4501753305299</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.18051232207497</v>
+        <v>6.29747244385538</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.694366596599534</v>
+        <v>6.722282455931655</v>
       </c>
       <c r="M5">
-        <v>13.32490239855099</v>
+        <v>12.397756052604</v>
       </c>
       <c r="N5">
-        <v>14.68142674951067</v>
+        <v>13.69718703434442</v>
       </c>
       <c r="O5">
-        <v>26.05942101111543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94903286574401</v>
+        <v>19.04964032076854</v>
       </c>
       <c r="C6">
-        <v>11.49079739780834</v>
+        <v>10.9515197791769</v>
       </c>
       <c r="D6">
-        <v>2.982703617783691</v>
+        <v>3.998355097980037</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.17327978108761</v>
+        <v>28.731410912221</v>
       </c>
       <c r="G6">
-        <v>2.13716867587119</v>
+        <v>37.83939346066638</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12.44679555238331</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.182124639171099</v>
+        <v>6.299451140157081</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.691997529874636</v>
+        <v>6.719362084709664</v>
       </c>
       <c r="M6">
-        <v>13.30332404433186</v>
+        <v>12.37574738869403</v>
       </c>
       <c r="N6">
-        <v>14.69272787798647</v>
+        <v>13.70806940911747</v>
       </c>
       <c r="O6">
-        <v>26.03799682436145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.36947772704288</v>
+        <v>19.46077319346795</v>
       </c>
       <c r="C7">
-        <v>11.77085739642881</v>
+        <v>11.16921760739506</v>
       </c>
       <c r="D7">
-        <v>2.999444418017133</v>
+        <v>4.00489992723046</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.39213486132343</v>
+        <v>28.89475072241386</v>
       </c>
       <c r="G7">
-        <v>2.134277460096509</v>
+        <v>38.18250532441853</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.47109158271727</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.170991985869072</v>
+        <v>6.285789742789722</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.708674650796683</v>
+        <v>6.739837418303368</v>
       </c>
       <c r="M7">
-        <v>13.4531008490562</v>
+        <v>12.52824679177226</v>
       </c>
       <c r="N7">
-        <v>14.61457559523371</v>
+        <v>13.63279875512501</v>
       </c>
       <c r="O7">
-        <v>26.18845744292335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.16313471388604</v>
+        <v>21.1985547455594</v>
       </c>
       <c r="C8">
-        <v>12.94303483076557</v>
+        <v>12.08471577151786</v>
       </c>
       <c r="D8">
-        <v>3.073577281284961</v>
+        <v>4.034970847711425</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.41152861776588</v>
+        <v>29.66312808139945</v>
       </c>
       <c r="G8">
-        <v>2.12186762174407</v>
+        <v>39.75125524470127</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12.59954211221188</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.123285560860731</v>
+        <v>6.227275687450338</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.788070049848987</v>
+        <v>6.835230588648396</v>
       </c>
       <c r="M8">
-        <v>14.11285180666895</v>
+        <v>13.19333098594935</v>
       </c>
       <c r="N8">
-        <v>14.27663050651537</v>
+        <v>13.30692120190846</v>
       </c>
       <c r="O8">
-        <v>26.89618420667273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.44359292475971</v>
+        <v>24.32080408233359</v>
       </c>
       <c r="C9">
-        <v>15.018167318675</v>
+        <v>13.71586032789414</v>
       </c>
       <c r="D9">
-        <v>3.221382796877808</v>
+        <v>4.09868771326641</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.60395777081447</v>
+        <v>31.34071168221653</v>
       </c>
       <c r="G9">
-        <v>2.098650444568375</v>
+        <v>43.00857379937528</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12.93264459497727</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.034523366872258</v>
+        <v>6.118548925028883</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.96491420078778</v>
+        <v>7.040117784318078</v>
       </c>
       <c r="M9">
-        <v>15.39277476052066</v>
+        <v>14.45855259817262</v>
       </c>
       <c r="N9">
-        <v>13.63626541200887</v>
+        <v>12.68751504475554</v>
       </c>
       <c r="O9">
-        <v>28.44466319028132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.7023777379155</v>
+        <v>26.53591048927067</v>
       </c>
       <c r="C10">
-        <v>16.41239935445391</v>
+        <v>14.81419873682869</v>
       </c>
       <c r="D10">
-        <v>3.333080040390641</v>
+        <v>4.148913485134983</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>39.33389448071325</v>
+        <v>32.67676213762235</v>
       </c>
       <c r="G10">
-        <v>2.082133283563288</v>
+        <v>45.50009341941271</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>13.231145338772</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.971909496339743</v>
+        <v>6.041985282465487</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.108036517196082</v>
+        <v>7.201249901427243</v>
       </c>
       <c r="M10">
-        <v>16.31809009247874</v>
+        <v>15.35676208587859</v>
       </c>
       <c r="N10">
-        <v>13.17686831635163</v>
+        <v>12.24137973749674</v>
       </c>
       <c r="O10">
-        <v>29.68350170412856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.69935206418351</v>
+        <v>27.51774722604657</v>
       </c>
       <c r="C11">
-        <v>17.0198568533323</v>
+        <v>15.29243581987468</v>
       </c>
       <c r="D11">
-        <v>3.384984279135897</v>
+        <v>4.172637860800617</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40.14739302773121</v>
+        <v>33.30697838686235</v>
       </c>
       <c r="G11">
-        <v>2.074701311600025</v>
+        <v>46.65308023674113</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>13.37949717504776</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.943912493903793</v>
+        <v>6.007791551395317</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.176090507070267</v>
+        <v>7.27680470096366</v>
       </c>
       <c r="M11">
-        <v>16.73484324877791</v>
+        <v>15.75741238789966</v>
       </c>
       <c r="N11">
-        <v>12.96969521971654</v>
+        <v>12.03962519005801</v>
       </c>
       <c r="O11">
-        <v>30.269954523264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.09864723595908</v>
+        <v>27.88284974821244</v>
       </c>
       <c r="C12">
-        <v>17.24617247322193</v>
+        <v>15.47049480516929</v>
       </c>
       <c r="D12">
-        <v>3.404835998443489</v>
+        <v>4.181760542617888</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>40.45934844644744</v>
+        <v>33.54885703414715</v>
       </c>
       <c r="G12">
-        <v>2.071895487157092</v>
+        <v>47.09240989895081</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>13.43755180097911</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.933373832925661</v>
+        <v>5.994927293148513</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.20229233351663</v>
+        <v>7.30573595301523</v>
       </c>
       <c r="M12">
-        <v>16.89201015634587</v>
+        <v>15.90791588751604</v>
       </c>
       <c r="N12">
-        <v>12.89145407399391</v>
+        <v>11.96333080929289</v>
       </c>
       <c r="O12">
-        <v>30.49541956290851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.01292287513281</v>
+        <v>27.80451420221383</v>
       </c>
       <c r="C13">
-        <v>17.19759426325636</v>
+        <v>15.43228103312561</v>
       </c>
       <c r="D13">
-        <v>3.400551141476218</v>
+        <v>4.179789416745129</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>40.39198797314111</v>
+        <v>33.49662027724669</v>
       </c>
       <c r="G13">
-        <v>2.072499449246787</v>
+        <v>46.99767242033844</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>13.42496408125175</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.935640824644373</v>
+        <v>5.997694218475172</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.196629981788012</v>
+        <v>7.299490896275548</v>
       </c>
       <c r="M13">
-        <v>16.85819078449142</v>
+        <v>15.87555717534296</v>
       </c>
       <c r="N13">
-        <v>12.90829613390163</v>
+        <v>11.97975858553052</v>
       </c>
       <c r="O13">
-        <v>30.4467091263038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.73232470849649</v>
+        <v>27.54791792319368</v>
       </c>
       <c r="C14">
-        <v>17.03854960202608</v>
+        <v>15.30714548163148</v>
       </c>
       <c r="D14">
-        <v>3.386613304708331</v>
+        <v>4.173385529051987</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>40.17297897263406</v>
+        <v>33.3268130882798</v>
       </c>
       <c r="G14">
-        <v>2.074470324276013</v>
+        <v>46.68917002113409</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>13.38423533764684</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.94304424592811</v>
+        <v>6.006731557488351</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.178237454549502</v>
+        <v>7.279178492123259</v>
       </c>
       <c r="M14">
-        <v>16.7477866454853</v>
+        <v>15.76981906718892</v>
       </c>
       <c r="N14">
-        <v>12.96325433773954</v>
+        <v>12.03334668722018</v>
       </c>
       <c r="O14">
-        <v>30.28843511972905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.56688138954132</v>
+        <v>27.38987686067511</v>
       </c>
       <c r="C15">
-        <v>16.94065060932815</v>
+        <v>15.23010192752118</v>
       </c>
       <c r="D15">
-        <v>3.378102856330344</v>
+        <v>4.169481442394029</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>40.03934088424813</v>
+        <v>33.22322222412652</v>
       </c>
       <c r="G15">
-        <v>2.07567854659992</v>
+        <v>46.50055551998064</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>13.35953436131021</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.94758707592409</v>
+        <v>6.012277926542738</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.167027916580908</v>
+        <v>7.26677817036895</v>
       </c>
       <c r="M15">
-        <v>16.68007548280207</v>
+        <v>15.70489155698955</v>
       </c>
       <c r="N15">
-        <v>12.99694378250633</v>
+        <v>12.06618264727325</v>
       </c>
       <c r="O15">
-        <v>30.19193225110214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.6367235064061</v>
+        <v>26.47080104118132</v>
       </c>
       <c r="C16">
-        <v>16.37217290734819</v>
+        <v>14.7825171694328</v>
       </c>
       <c r="D16">
-        <v>3.329713234273453</v>
+        <v>4.147381729641626</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>39.28127085446454</v>
+        <v>32.63602741558825</v>
       </c>
       <c r="G16">
-        <v>2.08262035544372</v>
+        <v>45.42512746418112</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>13.22170899351567</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.973748388924824</v>
+        <v>6.044232105321471</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.103648929158505</v>
+        <v>7.196357229458947</v>
       </c>
       <c r="M16">
-        <v>16.29076558214042</v>
+        <v>15.33041215024127</v>
       </c>
       <c r="N16">
-        <v>13.19043979391286</v>
+        <v>12.25458339375873</v>
       </c>
       <c r="O16">
-        <v>29.64564394971167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.057654109612</v>
+        <v>25.89491567942448</v>
       </c>
       <c r="C17">
-        <v>16.01666227857736</v>
+        <v>14.50248032558977</v>
       </c>
       <c r="D17">
-        <v>3.300334248393547</v>
+        <v>4.134057306206816</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>38.8230654829252</v>
+        <v>32.28154664326971</v>
       </c>
       <c r="G17">
-        <v>2.086897665192021</v>
+        <v>44.77031591544007</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>13.14042506435464</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.989917444673599</v>
+        <v>6.063992742175865</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.065527548155863</v>
+        <v>7.153730665878477</v>
       </c>
       <c r="M17">
-        <v>16.05082478546613</v>
+        <v>15.09858810948776</v>
       </c>
       <c r="N17">
-        <v>13.30957216485599</v>
+        <v>12.37042191677655</v>
       </c>
       <c r="O17">
-        <v>29.31643831302052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.72147221162422</v>
+        <v>25.55921140239783</v>
       </c>
       <c r="C18">
-        <v>15.80965177302844</v>
+        <v>14.33939293263398</v>
       </c>
       <c r="D18">
-        <v>3.283536427359703</v>
+        <v>4.126475088162705</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>38.56200896026633</v>
+        <v>32.07976988768796</v>
       </c>
       <c r="G18">
-        <v>2.089365771546038</v>
+        <v>44.39553137703839</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>13.09485090229401</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.999263670464097</v>
+        <v>6.075418810832975</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.04387797979188</v>
+        <v>7.129425429421849</v>
       </c>
       <c r="M18">
-        <v>15.9124253010342</v>
+        <v>14.96450371788604</v>
       </c>
       <c r="N18">
-        <v>13.37826729490863</v>
+        <v>12.43716590680896</v>
       </c>
       <c r="O18">
-        <v>29.12923621747224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.60711097351291</v>
+        <v>25.4447765596916</v>
       </c>
       <c r="C19">
-        <v>15.73912309068421</v>
+        <v>14.28382683972703</v>
       </c>
       <c r="D19">
-        <v>3.277865055551946</v>
+        <v>4.123921538748476</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>38.47404560836626</v>
+        <v>32.01181453594119</v>
       </c>
       <c r="G19">
-        <v>2.090202882206905</v>
+        <v>44.26895665386031</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>13.07962049580548</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.00243627580319</v>
+        <v>6.079298044764899</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.036595155485442</v>
+        <v>7.121232718217805</v>
       </c>
       <c r="M19">
-        <v>15.86550016865366</v>
+        <v>14.91897952994906</v>
       </c>
       <c r="N19">
-        <v>13.40155752840804</v>
+        <v>12.45978624393848</v>
       </c>
       <c r="O19">
-        <v>29.0662193004702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.11961941051192</v>
+        <v>25.9566814996431</v>
       </c>
       <c r="C20">
-        <v>16.05476791612968</v>
+        <v>14.53249929897111</v>
       </c>
       <c r="D20">
-        <v>3.3034510507933</v>
+        <v>4.135467177491008</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>38.87158392227118</v>
+        <v>32.31906325985736</v>
       </c>
       <c r="G20">
-        <v>2.086441541984833</v>
+        <v>44.83983157903887</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>13.14895542983241</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.988191485403616</v>
+        <v>6.061883001237796</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.069556933535992</v>
+        <v>7.15824638233074</v>
       </c>
       <c r="M20">
-        <v>16.07640787654775</v>
+        <v>15.12334389210223</v>
       </c>
       <c r="N20">
-        <v>13.2968727316179</v>
+        <v>12.35807908675577</v>
       </c>
       <c r="O20">
-        <v>29.35125987236275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.81490889108682</v>
+        <v>27.62346721553792</v>
       </c>
       <c r="C21">
-        <v>17.08536454628232</v>
+        <v>15.34398293622912</v>
       </c>
       <c r="D21">
-        <v>3.39070150568917</v>
+        <v>4.175262629832107</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>40.23720047146554</v>
+        <v>33.37660182151996</v>
       </c>
       <c r="G21">
-        <v>2.073891227503481</v>
+        <v>46.77971136310006</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>13.39614684725832</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.94086802293725</v>
+        <v>6.004074847786517</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.183628012533004</v>
+        <v>7.285136071072484</v>
       </c>
       <c r="M21">
-        <v>16.78023287280717</v>
+        <v>15.80091032669297</v>
       </c>
       <c r="N21">
-        <v>12.9471064620281</v>
+        <v>12.01760425093133</v>
       </c>
       <c r="O21">
-        <v>30.33483118162327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.96585590187583</v>
+        <v>28.67383520095143</v>
       </c>
       <c r="C22">
-        <v>17.73733755713146</v>
+        <v>15.85664718789439</v>
       </c>
       <c r="D22">
-        <v>3.448893496275418</v>
+        <v>4.202087319744873</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>41.15251934270554</v>
+        <v>34.0866031115366</v>
       </c>
       <c r="G22">
-        <v>2.065736647198682</v>
+        <v>48.06337812509587</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>13.56867527974277</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.910304230307982</v>
+        <v>5.966780728628459</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.260698673111919</v>
+        <v>7.369931758348732</v>
       </c>
       <c r="M22">
-        <v>17.23643924339551</v>
+        <v>16.23664398617191</v>
       </c>
       <c r="N22">
-        <v>12.71971859068518</v>
+        <v>11.79566518800831</v>
       </c>
       <c r="O22">
-        <v>30.997466181448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.35478782869327</v>
+        <v>28.11675649969231</v>
       </c>
       <c r="C23">
-        <v>17.39129292184476</v>
+        <v>15.58463109692352</v>
       </c>
       <c r="D23">
-        <v>3.417713941752576</v>
+        <v>4.187691146251741</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>40.66187032695638</v>
+        <v>33.70593257515073</v>
       </c>
       <c r="G23">
-        <v>2.070085701216663</v>
+        <v>47.37682826184869</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>13.4755657363648</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.926585692205311</v>
+        <v>5.986643276250214</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.21933117308262</v>
+        <v>7.324504969346457</v>
       </c>
       <c r="M23">
-        <v>16.99330878439095</v>
+        <v>16.00475213043834</v>
       </c>
       <c r="N23">
-        <v>12.84098632049913</v>
+        <v>11.91408852184039</v>
       </c>
       <c r="O23">
-        <v>30.64195323660993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.09161507738007</v>
+        <v>25.92877157176787</v>
       </c>
       <c r="C24">
-        <v>16.03754853666325</v>
+        <v>14.51893423526404</v>
       </c>
       <c r="D24">
-        <v>3.302041659082134</v>
+        <v>4.134829532140895</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>38.84964135386822</v>
+        <v>32.30209570879676</v>
       </c>
       <c r="G24">
-        <v>2.086647726937517</v>
+        <v>44.80839832104467</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>13.14509525295897</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.988971634038492</v>
+        <v>6.062836610822836</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.067734417544293</v>
+        <v>7.15620419946565</v>
       </c>
       <c r="M24">
-        <v>16.06484317225133</v>
+        <v>15.11215430662161</v>
       </c>
       <c r="N24">
-        <v>13.30261350519616</v>
+        <v>12.36365881778703</v>
       </c>
       <c r="O24">
-        <v>29.33551062760998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.58245998204234</v>
+        <v>23.50737638863215</v>
       </c>
       <c r="C25">
-        <v>14.48014781915619</v>
+        <v>13.2922219838575</v>
       </c>
       <c r="D25">
-        <v>3.180980541347624</v>
+        <v>4.080892423240126</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.99005304935349</v>
+        <v>30.86865064578508</v>
       </c>
       <c r="G25">
-        <v>2.104825371522614</v>
+        <v>42.10934453815238</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12.83338887701218</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.058054861065034</v>
+        <v>6.147353004481299</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.914779103406793</v>
+        <v>6.982809568344382</v>
       </c>
       <c r="M25">
-        <v>15.04876905800314</v>
+        <v>14.12131656436669</v>
       </c>
       <c r="N25">
-        <v>13.80736429755746</v>
+        <v>12.85327698739788</v>
       </c>
       <c r="O25">
-        <v>28.00824598722967</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.65036396205273</v>
+        <v>20.48249366587727</v>
       </c>
       <c r="C2">
-        <v>12.32169686841847</v>
+        <v>8.149653998291772</v>
       </c>
       <c r="D2">
-        <v>4.043422671848045</v>
+        <v>7.286513955439299</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.88289250916212</v>
+        <v>41.22157376090607</v>
       </c>
       <c r="G2">
-        <v>40.18905556025693</v>
+        <v>49.26234733102064</v>
       </c>
       <c r="H2">
-        <v>12.63967792553935</v>
+        <v>19.29036350191045</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.211840961907936</v>
+        <v>10.38853773159663</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.862292933125715</v>
+        <v>11.55922703570403</v>
       </c>
       <c r="M2">
-        <v>13.37122647436911</v>
+        <v>18.3671174808787</v>
       </c>
       <c r="N2">
-        <v>13.22005816312087</v>
+        <v>20.38727722585705</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.31851159308871</v>
+        <v>20.15935192383868</v>
       </c>
       <c r="C3">
-        <v>11.62195596730776</v>
+        <v>7.81519558711231</v>
       </c>
       <c r="D3">
-        <v>4.019257579944567</v>
+        <v>7.288029373004988</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.25850056186692</v>
+        <v>41.24672159956441</v>
       </c>
       <c r="G3">
-        <v>38.93341871281392</v>
+        <v>49.19256948707853</v>
       </c>
       <c r="H3">
-        <v>12.52931957790763</v>
+        <v>19.32915751996078</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.257071004017529</v>
+        <v>10.40406491697725</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.785165204798463</v>
+        <v>11.56899560773879</v>
       </c>
       <c r="M3">
-        <v>12.85255201500645</v>
+        <v>18.31263633060843</v>
       </c>
       <c r="N3">
-        <v>13.4735489443065</v>
+        <v>20.45854149768611</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.465542832596</v>
+        <v>19.96299272784443</v>
       </c>
       <c r="C4">
-        <v>11.17174038341195</v>
+        <v>7.600756900924434</v>
       </c>
       <c r="D4">
-        <v>4.004977140755109</v>
+        <v>7.289212461993455</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.89668800504873</v>
+        <v>41.27210800648384</v>
       </c>
       <c r="G4">
-        <v>38.18655080697727</v>
+        <v>49.1643786576352</v>
       </c>
       <c r="H4">
-        <v>12.47138725343501</v>
+        <v>19.35672791430497</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.285630872304042</v>
+        <v>10.41408632593985</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.740079773848774</v>
+        <v>11.57631759686715</v>
       </c>
       <c r="M4">
-        <v>12.53002750178668</v>
+        <v>18.28222124452145</v>
       </c>
       <c r="N4">
-        <v>13.63192156001963</v>
+        <v>20.50424924492996</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.10930758050453</v>
+        <v>19.88359463691867</v>
       </c>
       <c r="C5">
-        <v>10.98314419330427</v>
+        <v>7.511159297351119</v>
       </c>
       <c r="D5">
-        <v>3.999291332705543</v>
+        <v>7.289758279655384</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.75466649713573</v>
+        <v>41.28494993176133</v>
       </c>
       <c r="G5">
-        <v>37.88849743834054</v>
+        <v>49.15657788198768</v>
       </c>
       <c r="H5">
-        <v>12.4501753305299</v>
+        <v>19.36890439373235</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.29747244385538</v>
+        <v>10.41829313076015</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.722282455931655</v>
+        <v>11.57963488269247</v>
       </c>
       <c r="M5">
-        <v>12.397756052604</v>
+        <v>18.2705990431955</v>
       </c>
       <c r="N5">
-        <v>13.69718703434442</v>
+        <v>20.52336782579141</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.04964032076854</v>
+        <v>19.87045111781559</v>
       </c>
       <c r="C6">
-        <v>10.9515197791769</v>
+        <v>7.496150356253235</v>
       </c>
       <c r="D6">
-        <v>3.998355097980037</v>
+        <v>7.289852764744981</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.731410912221</v>
+        <v>41.28723297747268</v>
       </c>
       <c r="G6">
-        <v>37.83939346066638</v>
+        <v>49.1555052716143</v>
       </c>
       <c r="H6">
-        <v>12.44679555238331</v>
+        <v>19.37098308585619</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.299451140157081</v>
+        <v>10.41899910737034</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.719362084709664</v>
+        <v>11.58020587495717</v>
       </c>
       <c r="M6">
-        <v>12.37574738869403</v>
+        <v>18.26871606214359</v>
       </c>
       <c r="N6">
-        <v>13.70806940911747</v>
+        <v>20.52657223417498</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.46077319346795</v>
+        <v>19.96191929034347</v>
       </c>
       <c r="C7">
-        <v>11.16921760739506</v>
+        <v>7.599557411586989</v>
       </c>
       <c r="D7">
-        <v>4.00489992723046</v>
+        <v>7.289219564917905</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.89475072241386</v>
+        <v>41.27227109433849</v>
       </c>
       <c r="G7">
-        <v>38.18250532441853</v>
+        <v>49.16425852367354</v>
       </c>
       <c r="H7">
-        <v>12.47109158271727</v>
+        <v>19.35688832177152</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.285789742789722</v>
+        <v>10.41414256186441</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.739837418303368</v>
+        <v>11.57636098382414</v>
       </c>
       <c r="M7">
-        <v>12.52824679177226</v>
+        <v>18.28206136602585</v>
       </c>
       <c r="N7">
-        <v>13.63279875512501</v>
+        <v>20.50450508931028</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.1985547455594</v>
+        <v>20.37071118428464</v>
       </c>
       <c r="C8">
-        <v>12.08471577151786</v>
+        <v>8.036256857754545</v>
       </c>
       <c r="D8">
-        <v>4.034970847711425</v>
+        <v>7.286984146067656</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.66312808139945</v>
+        <v>41.22817840849294</v>
       </c>
       <c r="G8">
-        <v>39.75125524470127</v>
+        <v>49.23524933213469</v>
       </c>
       <c r="H8">
-        <v>12.59954211221188</v>
+        <v>19.30296016398378</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.227275687450338</v>
+        <v>10.39379051862424</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.835230588648396</v>
+        <v>11.5623207884402</v>
       </c>
       <c r="M8">
-        <v>13.19333098594935</v>
+        <v>18.34770752444822</v>
       </c>
       <c r="N8">
-        <v>13.30692120190846</v>
+        <v>20.41144517964282</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.32080408233359</v>
+        <v>21.18405977975633</v>
       </c>
       <c r="C9">
-        <v>13.71586032789414</v>
+        <v>8.817942065546699</v>
       </c>
       <c r="D9">
-        <v>4.09868771326641</v>
+        <v>7.284597503045704</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.34071168221653</v>
+        <v>41.22076211583888</v>
       </c>
       <c r="G9">
-        <v>43.00857379937528</v>
+        <v>49.49045167831198</v>
       </c>
       <c r="H9">
-        <v>12.93264459497727</v>
+        <v>19.2270441564825</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.118548925028883</v>
+        <v>10.35773233895067</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.040117784318078</v>
+        <v>11.54526778616494</v>
       </c>
       <c r="M9">
-        <v>14.45855259817262</v>
+        <v>18.50012474098387</v>
       </c>
       <c r="N9">
-        <v>12.68751504475554</v>
+        <v>20.24435976467052</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.53591048927067</v>
+        <v>21.78272441874283</v>
       </c>
       <c r="C10">
-        <v>14.81419873682869</v>
+        <v>9.343792552525546</v>
       </c>
       <c r="D10">
-        <v>4.148913485134983</v>
+        <v>7.284052087835819</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.67676213762235</v>
+        <v>41.26361822676712</v>
       </c>
       <c r="G10">
-        <v>45.50009341941271</v>
+        <v>49.74805349864586</v>
       </c>
       <c r="H10">
-        <v>13.231145338772</v>
+        <v>19.18955554729876</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.041985282465487</v>
+        <v>10.3335645129102</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.201249901427243</v>
+        <v>11.53909172704653</v>
       </c>
       <c r="M10">
-        <v>15.35676208587859</v>
+        <v>18.62595614615731</v>
       </c>
       <c r="N10">
-        <v>12.24137973749674</v>
+        <v>20.13088338330019</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.51774722604657</v>
+        <v>22.05407125614236</v>
       </c>
       <c r="C11">
-        <v>15.29243581987468</v>
+        <v>9.572024725388344</v>
       </c>
       <c r="D11">
-        <v>4.172637860800617</v>
+        <v>7.284064332047194</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.30697838686235</v>
+        <v>41.29360092545522</v>
       </c>
       <c r="G11">
-        <v>46.65308023674113</v>
+        <v>49.88025857026089</v>
       </c>
       <c r="H11">
-        <v>13.37949717504776</v>
+        <v>19.17648926349306</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.007791551395317</v>
+        <v>10.32306943815587</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.27680470096366</v>
+        <v>11.53765299503198</v>
       </c>
       <c r="M11">
-        <v>15.75741238789966</v>
+        <v>18.68606880858786</v>
       </c>
       <c r="N11">
-        <v>12.03962519005801</v>
+        <v>20.08125183417962</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.88284974821244</v>
+        <v>22.15658177593096</v>
       </c>
       <c r="C12">
-        <v>15.47049480516929</v>
+        <v>9.656840239129291</v>
       </c>
       <c r="D12">
-        <v>4.181760542617888</v>
+        <v>7.284106236760477</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>33.54885703414715</v>
+        <v>41.30645994809111</v>
       </c>
       <c r="G12">
-        <v>47.09240989895081</v>
+        <v>49.93245762546193</v>
       </c>
       <c r="H12">
-        <v>13.43755180097911</v>
+        <v>19.17211587991071</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.994927293148513</v>
+        <v>10.31916659234486</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.30573595301523</v>
+        <v>11.53730448168308</v>
       </c>
       <c r="M12">
-        <v>15.90791588751604</v>
+        <v>18.70923208234463</v>
       </c>
       <c r="N12">
-        <v>11.96333080929289</v>
+        <v>20.06274198204263</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.80451420221383</v>
+        <v>22.13451665118573</v>
       </c>
       <c r="C13">
-        <v>15.43228103312561</v>
+        <v>9.638645808794402</v>
       </c>
       <c r="D13">
-        <v>4.179789416745129</v>
+        <v>7.284095557042869</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>33.49662027724669</v>
+        <v>41.30362364216273</v>
       </c>
       <c r="G13">
-        <v>46.99767242033844</v>
+        <v>49.92112105399524</v>
       </c>
       <c r="H13">
-        <v>13.42496408125175</v>
+        <v>19.17303219771497</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.997694218475172</v>
+        <v>10.3200039694215</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.299490896275548</v>
+        <v>11.53737082314737</v>
       </c>
       <c r="M13">
-        <v>15.87555717534296</v>
+        <v>18.70422588320201</v>
       </c>
       <c r="N13">
-        <v>11.97975858553052</v>
+        <v>20.06671577935514</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.54791792319368</v>
+        <v>22.06251028286584</v>
       </c>
       <c r="C14">
-        <v>15.30714548163148</v>
+        <v>9.579035002083227</v>
       </c>
       <c r="D14">
-        <v>4.173385529051987</v>
+        <v>7.284067033641516</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.3268130882798</v>
+        <v>41.29462869923003</v>
       </c>
       <c r="G14">
-        <v>46.68917002113409</v>
+        <v>49.884510362958</v>
       </c>
       <c r="H14">
-        <v>13.38423533764684</v>
+        <v>19.176117942253</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.006731557488351</v>
+        <v>10.32274691945018</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.279178492123259</v>
+        <v>11.53762039326814</v>
       </c>
       <c r="M14">
-        <v>15.76981906718892</v>
+        <v>18.68796652652349</v>
       </c>
       <c r="N14">
-        <v>12.03334668722018</v>
+        <v>20.07972332371245</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.38987686067511</v>
+        <v>22.01836978835038</v>
       </c>
       <c r="C15">
-        <v>15.23010192752118</v>
+        <v>9.542310991091558</v>
       </c>
       <c r="D15">
-        <v>4.169481442394029</v>
+        <v>7.284054410578935</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.22322222412652</v>
+        <v>41.28931495379464</v>
       </c>
       <c r="G15">
-        <v>46.50055551998064</v>
+        <v>49.86236263302095</v>
       </c>
       <c r="H15">
-        <v>13.35953436131021</v>
+        <v>19.17808290164064</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.012277926542738</v>
+        <v>10.32443634525819</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.26677817036895</v>
+        <v>11.53779880159812</v>
       </c>
       <c r="M15">
-        <v>15.70489155698955</v>
+        <v>18.67805888685196</v>
       </c>
       <c r="N15">
-        <v>12.06618264727325</v>
+        <v>20.08772783000658</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.47080104118132</v>
+        <v>21.7649626953006</v>
       </c>
       <c r="C16">
-        <v>14.7825171694328</v>
+        <v>9.328653226911721</v>
       </c>
       <c r="D16">
-        <v>4.147381729641626</v>
+        <v>7.284056512073428</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.63602741558825</v>
+        <v>41.26186960744411</v>
       </c>
       <c r="G16">
-        <v>45.42512746418112</v>
+        <v>49.73971386484212</v>
       </c>
       <c r="H16">
-        <v>13.22170899351567</v>
+        <v>19.19048979992666</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.044232105321471</v>
+        <v>10.33426040231109</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.196357229458947</v>
+        <v>11.53921326688786</v>
       </c>
       <c r="M16">
-        <v>15.33041215024127</v>
+        <v>18.62208432398366</v>
       </c>
       <c r="N16">
-        <v>12.25458339375873</v>
+        <v>20.13416682234107</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.89491567942448</v>
+        <v>21.6091797581128</v>
       </c>
       <c r="C17">
-        <v>14.50248032558977</v>
+        <v>9.194744272231087</v>
       </c>
       <c r="D17">
-        <v>4.134057306206816</v>
+        <v>7.28412436310918</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.28154664326971</v>
+        <v>41.24771724539467</v>
       </c>
       <c r="G17">
-        <v>44.77031591544007</v>
+        <v>49.66830400006285</v>
       </c>
       <c r="H17">
-        <v>13.14042506435464</v>
+        <v>19.19912319295424</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.063992742175865</v>
+        <v>10.34041470166518</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.153730665878477</v>
+        <v>11.54043152416142</v>
       </c>
       <c r="M17">
-        <v>15.09858810948776</v>
+        <v>18.58847210304685</v>
       </c>
       <c r="N17">
-        <v>12.37042191677655</v>
+        <v>20.16316408186227</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.55921140239783</v>
+        <v>21.51949025744794</v>
       </c>
       <c r="C18">
-        <v>14.33939293263398</v>
+        <v>9.116691460168429</v>
       </c>
       <c r="D18">
-        <v>4.126475088162705</v>
+        <v>7.284187905438673</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.07976988768796</v>
+        <v>41.24056454771483</v>
       </c>
       <c r="G18">
-        <v>44.39553137703839</v>
+        <v>49.62864643217568</v>
       </c>
       <c r="H18">
-        <v>13.09485090229401</v>
+        <v>19.20446415625919</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.075418810832975</v>
+        <v>10.34400147956209</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.129425429421849</v>
+        <v>11.54126131057041</v>
       </c>
       <c r="M18">
-        <v>14.96450371788604</v>
+        <v>18.56941031905343</v>
       </c>
       <c r="N18">
-        <v>12.43716590680896</v>
+        <v>20.18002988403305</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.4447765596916</v>
+        <v>21.48911106650645</v>
       </c>
       <c r="C19">
-        <v>14.28382683972703</v>
+        <v>9.090087954952688</v>
       </c>
       <c r="D19">
-        <v>4.123921538748476</v>
+        <v>7.284213635659732</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.01181453594119</v>
+        <v>41.23831241153438</v>
       </c>
       <c r="G19">
-        <v>44.26895665386031</v>
+        <v>49.61546284865501</v>
       </c>
       <c r="H19">
-        <v>13.07962049580548</v>
+        <v>19.20633692861918</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.079298044764899</v>
+        <v>10.34522398160553</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.121232718217805</v>
+        <v>11.54156445507126</v>
       </c>
       <c r="M19">
-        <v>14.91897952994906</v>
+        <v>18.56300327041724</v>
       </c>
       <c r="N19">
-        <v>12.45978624393848</v>
+        <v>20.18577257869191</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.9566814996431</v>
+        <v>21.62577289016079</v>
       </c>
       <c r="C20">
-        <v>14.53249929897111</v>
+        <v>9.209106159348865</v>
       </c>
       <c r="D20">
-        <v>4.135467177491008</v>
+        <v>7.284114604165961</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.31906325985736</v>
+        <v>41.24912161568038</v>
       </c>
       <c r="G20">
-        <v>44.83983157903887</v>
+        <v>49.67575936627435</v>
       </c>
       <c r="H20">
-        <v>13.14895542983241</v>
+        <v>19.19816530616687</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.061883001237796</v>
+        <v>10.33975470543523</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.15824638233074</v>
+        <v>11.54028848534108</v>
       </c>
       <c r="M20">
-        <v>15.12334389210223</v>
+        <v>18.59202221817212</v>
       </c>
       <c r="N20">
-        <v>12.35807908675577</v>
+        <v>20.16005789567901</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.62346721553792</v>
+        <v>22.08366766535071</v>
       </c>
       <c r="C21">
-        <v>15.34398293622912</v>
+        <v>9.59658809462282</v>
       </c>
       <c r="D21">
-        <v>4.175262629832107</v>
+        <v>7.2840744015713</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.37660182151996</v>
+        <v>41.29722991013147</v>
       </c>
       <c r="G21">
-        <v>46.77971136310006</v>
+        <v>49.89520605363118</v>
       </c>
       <c r="H21">
-        <v>13.39614684725832</v>
+        <v>19.17519598348878</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.004074847786517</v>
+        <v>10.3219393131771</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.285136071072484</v>
+        <v>11.53754176760704</v>
       </c>
       <c r="M21">
-        <v>15.80091032669297</v>
+        <v>18.69273154637438</v>
       </c>
       <c r="N21">
-        <v>12.01760425093133</v>
+        <v>20.07589498255052</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.67383520095143</v>
+        <v>22.38147029766217</v>
       </c>
       <c r="C22">
-        <v>15.85664718789439</v>
+        <v>9.840428162187651</v>
       </c>
       <c r="D22">
-        <v>4.202087319744873</v>
+        <v>7.284265274809373</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.0866031115366</v>
+        <v>41.33744276103733</v>
       </c>
       <c r="G22">
-        <v>48.06337812509587</v>
+        <v>50.05106289043045</v>
       </c>
       <c r="H22">
-        <v>13.56867527974277</v>
+        <v>19.16353341556762</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.966780728628459</v>
+        <v>10.31071200643424</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.369931758348732</v>
+        <v>11.53689041995562</v>
       </c>
       <c r="M22">
-        <v>16.23664398617191</v>
+        <v>18.76087551138777</v>
       </c>
       <c r="N22">
-        <v>11.79566518800831</v>
+        <v>20.02254745372656</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.11675649969231</v>
+        <v>22.22269301553345</v>
       </c>
       <c r="C23">
-        <v>15.58463109692352</v>
+        <v>9.711155674710954</v>
       </c>
       <c r="D23">
-        <v>4.187691146251741</v>
+        <v>7.284143589449994</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.70593257515073</v>
+        <v>41.31517912918211</v>
       </c>
       <c r="G23">
-        <v>47.37682826184869</v>
+        <v>49.96675018303574</v>
       </c>
       <c r="H23">
-        <v>13.4755657363648</v>
+        <v>19.16945117007734</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.986643276250214</v>
+        <v>10.31666627246179</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.324504969346457</v>
+        <v>11.53713368190702</v>
       </c>
       <c r="M23">
-        <v>16.00475213043834</v>
+        <v>18.72429752312546</v>
       </c>
       <c r="N23">
-        <v>11.91408852184039</v>
+        <v>20.05086885095866</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.92877157176787</v>
+        <v>21.6182715255284</v>
       </c>
       <c r="C24">
-        <v>14.51893423526404</v>
+        <v>9.20261647055206</v>
       </c>
       <c r="D24">
-        <v>4.134829532140895</v>
+        <v>7.284118939774159</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.30209570879676</v>
+        <v>41.24848363544644</v>
       </c>
       <c r="G24">
-        <v>44.80839832104467</v>
+        <v>49.67238444199734</v>
       </c>
       <c r="H24">
-        <v>13.14509525295897</v>
+        <v>19.19859719087538</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.062836610822836</v>
+        <v>10.34005293835044</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.15620419946565</v>
+        <v>11.54035275008019</v>
       </c>
       <c r="M24">
-        <v>15.11215430662161</v>
+        <v>18.59041639298133</v>
       </c>
       <c r="N24">
-        <v>12.36365881778703</v>
+        <v>20.16146159520586</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50737638863215</v>
+        <v>20.96340459204995</v>
       </c>
       <c r="C25">
-        <v>13.2922219838575</v>
+        <v>8.614802870325466</v>
       </c>
       <c r="D25">
-        <v>4.080892423240126</v>
+        <v>7.28503032984482</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.86865064578508</v>
+        <v>41.21428860399121</v>
       </c>
       <c r="G25">
-        <v>42.10934453815238</v>
+        <v>49.40904276386091</v>
       </c>
       <c r="H25">
-        <v>12.83338887701218</v>
+        <v>19.24437643515141</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.147353004481299</v>
+        <v>10.36707715132736</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.982809568344382</v>
+        <v>11.54876266659218</v>
       </c>
       <c r="M25">
-        <v>14.12131656436669</v>
+        <v>18.45641428862852</v>
       </c>
       <c r="N25">
-        <v>12.85327698739788</v>
+        <v>20.28792300439884</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.48249366587727</v>
+        <v>21.65036396205273</v>
       </c>
       <c r="C2">
-        <v>8.149653998291772</v>
+        <v>12.32169686841833</v>
       </c>
       <c r="D2">
-        <v>7.286513955439299</v>
+        <v>4.043422671847919</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.22157376090607</v>
+        <v>29.88289250916182</v>
       </c>
       <c r="G2">
-        <v>49.26234733102064</v>
+        <v>40.18905556025671</v>
       </c>
       <c r="H2">
-        <v>19.29036350191045</v>
+        <v>12.63967792553922</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.38853773159663</v>
+        <v>6.211840961907836</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.55922703570403</v>
+        <v>6.862292933125662</v>
       </c>
       <c r="M2">
-        <v>18.3671174808787</v>
+        <v>13.37122647436904</v>
       </c>
       <c r="N2">
-        <v>20.38727722585705</v>
+        <v>13.2200581631207</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.15935192383868</v>
+        <v>20.31851159308872</v>
       </c>
       <c r="C3">
-        <v>7.81519558711231</v>
+        <v>11.62195596730786</v>
       </c>
       <c r="D3">
-        <v>7.288029373004988</v>
+        <v>4.019257579944631</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>41.24672159956441</v>
+        <v>29.25850056186691</v>
       </c>
       <c r="G3">
-        <v>49.19256948707853</v>
+        <v>38.93341871281392</v>
       </c>
       <c r="H3">
-        <v>19.32915751996078</v>
+        <v>12.52931957790764</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.40406491697725</v>
+        <v>6.257071004017464</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.56899560773879</v>
+        <v>6.785165204798391</v>
       </c>
       <c r="M3">
-        <v>18.31263633060843</v>
+        <v>12.85255201500642</v>
       </c>
       <c r="N3">
-        <v>20.45854149768611</v>
+        <v>13.47354894430657</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.96299272784443</v>
+        <v>19.46554283259601</v>
       </c>
       <c r="C4">
-        <v>7.600756900924434</v>
+        <v>11.17174038341171</v>
       </c>
       <c r="D4">
-        <v>7.289212461993455</v>
+        <v>4.004977140755118</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>41.27210800648384</v>
+        <v>28.89668800504894</v>
       </c>
       <c r="G4">
-        <v>49.1643786576352</v>
+        <v>38.18655080697756</v>
       </c>
       <c r="H4">
-        <v>19.35672791430497</v>
+        <v>12.47138725343505</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.41408632593985</v>
+        <v>6.285630872304007</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.57631759686715</v>
+        <v>6.740079773848801</v>
       </c>
       <c r="M4">
-        <v>18.28222124452145</v>
+        <v>12.53002750178673</v>
       </c>
       <c r="N4">
-        <v>20.50424924492996</v>
+        <v>13.63192156001966</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.88359463691867</v>
+        <v>19.10930758050455</v>
       </c>
       <c r="C5">
-        <v>7.511159297351119</v>
+        <v>10.9831441933042</v>
       </c>
       <c r="D5">
-        <v>7.289758279655384</v>
+        <v>3.999291332705347</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>41.28494993176133</v>
+        <v>28.75466649713581</v>
       </c>
       <c r="G5">
-        <v>49.15657788198768</v>
+        <v>37.88849743834066</v>
       </c>
       <c r="H5">
-        <v>19.36890439373235</v>
+        <v>12.45017533052998</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.41829313076015</v>
+        <v>6.29747244385548</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.57963488269247</v>
+        <v>6.722282455931698</v>
       </c>
       <c r="M5">
-        <v>18.2705990431955</v>
+        <v>12.39775605260406</v>
       </c>
       <c r="N5">
-        <v>20.52336782579141</v>
+        <v>13.69718703434451</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.87045111781559</v>
+        <v>19.04964032076849</v>
       </c>
       <c r="C6">
-        <v>7.496150356253235</v>
+        <v>10.95151977917683</v>
       </c>
       <c r="D6">
-        <v>7.289852764744981</v>
+        <v>3.998355097980031</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>41.28723297747268</v>
+        <v>28.73141091222077</v>
       </c>
       <c r="G6">
-        <v>49.1555052716143</v>
+        <v>37.83939346066616</v>
       </c>
       <c r="H6">
-        <v>19.37098308585619</v>
+        <v>12.44679555238321</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.41899910737034</v>
+        <v>6.299451140157078</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.58020587495717</v>
+        <v>6.719362084709745</v>
       </c>
       <c r="M6">
-        <v>18.26871606214359</v>
+        <v>12.37574738869398</v>
       </c>
       <c r="N6">
-        <v>20.52657223417498</v>
+        <v>13.7080694091174</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.96191929034347</v>
+        <v>19.46077319346798</v>
       </c>
       <c r="C7">
-        <v>7.599557411586989</v>
+        <v>11.16921760739494</v>
       </c>
       <c r="D7">
-        <v>7.289219564917905</v>
+        <v>4.00489992723052</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>41.27227109433849</v>
+        <v>28.89475072241394</v>
       </c>
       <c r="G7">
-        <v>49.16425852367354</v>
+        <v>38.18250532441863</v>
       </c>
       <c r="H7">
-        <v>19.35688832177152</v>
+        <v>12.47109158271734</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.41414256186441</v>
+        <v>6.285789742789821</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.57636098382414</v>
+        <v>6.739837418303467</v>
       </c>
       <c r="M7">
-        <v>18.28206136602585</v>
+        <v>12.5282467917723</v>
       </c>
       <c r="N7">
-        <v>20.50450508931028</v>
+        <v>13.63279875512501</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.37071118428464</v>
+        <v>21.19855474555945</v>
       </c>
       <c r="C8">
-        <v>8.036256857754545</v>
+        <v>12.08471577151785</v>
       </c>
       <c r="D8">
-        <v>7.286984146067656</v>
+        <v>4.034970847711359</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>41.22817840849294</v>
+        <v>29.66312808139967</v>
       </c>
       <c r="G8">
-        <v>49.23524933213469</v>
+        <v>39.75125524470148</v>
       </c>
       <c r="H8">
-        <v>19.30296016398378</v>
+        <v>12.59954211221203</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.39379051862424</v>
+        <v>6.227275687450337</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.5623207884402</v>
+        <v>6.835230588648421</v>
       </c>
       <c r="M8">
-        <v>18.34770752444822</v>
+        <v>13.19333098594941</v>
       </c>
       <c r="N8">
-        <v>20.41144517964282</v>
+        <v>13.30692120190853</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.18405977975633</v>
+        <v>24.32080408233357</v>
       </c>
       <c r="C9">
-        <v>8.817942065546699</v>
+        <v>13.71586032789446</v>
       </c>
       <c r="D9">
-        <v>7.284597503045704</v>
+        <v>4.098687713266534</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>41.22076211583888</v>
+        <v>31.34071168221636</v>
       </c>
       <c r="G9">
-        <v>49.49045167831198</v>
+        <v>43.00857379937497</v>
       </c>
       <c r="H9">
-        <v>19.2270441564825</v>
+        <v>12.93264459497724</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.35773233895067</v>
+        <v>6.118548925029016</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.54526778616494</v>
+        <v>7.040117784318095</v>
       </c>
       <c r="M9">
-        <v>18.50012474098387</v>
+        <v>14.45855259817262</v>
       </c>
       <c r="N9">
-        <v>20.24435976467052</v>
+        <v>12.68751504475551</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.78272441874283</v>
+        <v>26.53591048927065</v>
       </c>
       <c r="C10">
-        <v>9.343792552525546</v>
+        <v>14.81419873682853</v>
       </c>
       <c r="D10">
-        <v>7.284052087835819</v>
+        <v>4.148913485134932</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>41.26361822676712</v>
+        <v>32.6767621376224</v>
       </c>
       <c r="G10">
-        <v>49.74805349864586</v>
+        <v>45.50009341941276</v>
       </c>
       <c r="H10">
-        <v>19.18955554729876</v>
+        <v>13.23114533877201</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.3335645129102</v>
+        <v>6.041985282465553</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.53909172704653</v>
+        <v>7.201249901427259</v>
       </c>
       <c r="M10">
-        <v>18.62595614615731</v>
+        <v>15.3567620858786</v>
       </c>
       <c r="N10">
-        <v>20.13088338330019</v>
+        <v>12.24137973749677</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.05407125614236</v>
+        <v>27.51774722604666</v>
       </c>
       <c r="C11">
-        <v>9.572024725388344</v>
+        <v>15.29243581987477</v>
       </c>
       <c r="D11">
-        <v>7.284064332047194</v>
+        <v>4.172637860800617</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>41.29360092545522</v>
+        <v>33.30697838686223</v>
       </c>
       <c r="G11">
-        <v>49.88025857026089</v>
+        <v>46.653080236741</v>
       </c>
       <c r="H11">
-        <v>19.17648926349306</v>
+        <v>13.37949717504764</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.32306943815587</v>
+        <v>6.007791551395285</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.53765299503198</v>
+        <v>7.276804700963664</v>
       </c>
       <c r="M11">
-        <v>18.68606880858786</v>
+        <v>15.75741238789963</v>
       </c>
       <c r="N11">
-        <v>20.08125183417962</v>
+        <v>12.03962519005788</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.15658177593096</v>
+        <v>27.88284974821243</v>
       </c>
       <c r="C12">
-        <v>9.656840239129291</v>
+        <v>15.47049480516941</v>
       </c>
       <c r="D12">
-        <v>7.284106236760477</v>
+        <v>4.181760542618012</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>41.30645994809111</v>
+        <v>33.54885703414698</v>
       </c>
       <c r="G12">
-        <v>49.93245762546193</v>
+        <v>47.09240989895066</v>
       </c>
       <c r="H12">
-        <v>19.17211587991071</v>
+        <v>13.43755180097898</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.31916659234486</v>
+        <v>5.994927293148412</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.53730448168308</v>
+        <v>7.305735953015198</v>
       </c>
       <c r="M12">
-        <v>18.70923208234463</v>
+        <v>15.90791588751602</v>
       </c>
       <c r="N12">
-        <v>20.06274198204263</v>
+        <v>11.96333080929275</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.13451665118573</v>
+        <v>27.8045142022138</v>
       </c>
       <c r="C13">
-        <v>9.638645808794402</v>
+        <v>15.43228103312568</v>
       </c>
       <c r="D13">
-        <v>7.284095557042869</v>
+        <v>4.179789416745008</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>41.30362364216273</v>
+        <v>33.49662027724671</v>
       </c>
       <c r="G13">
-        <v>49.92112105399524</v>
+        <v>46.99767242033847</v>
       </c>
       <c r="H13">
-        <v>19.17303219771497</v>
+        <v>13.42496408125181</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.3200039694215</v>
+        <v>5.997694218475138</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.53737082314737</v>
+        <v>7.299490896275502</v>
       </c>
       <c r="M13">
-        <v>18.70422588320201</v>
+        <v>15.87555717534296</v>
       </c>
       <c r="N13">
-        <v>20.06671577935514</v>
+        <v>11.97975858553055</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.06251028286584</v>
+        <v>27.54791792319366</v>
       </c>
       <c r="C14">
-        <v>9.579035002083227</v>
+        <v>15.30714548163138</v>
       </c>
       <c r="D14">
-        <v>7.284067033641516</v>
+        <v>4.173385529051996</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>41.29462869923003</v>
+        <v>33.32681308827983</v>
       </c>
       <c r="G14">
-        <v>49.884510362958</v>
+        <v>46.6891700211341</v>
       </c>
       <c r="H14">
-        <v>19.176117942253</v>
+        <v>13.38423533764688</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.32274691945018</v>
+        <v>6.006731557488487</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.53762039326814</v>
+        <v>7.27917849212332</v>
       </c>
       <c r="M14">
-        <v>18.68796652652349</v>
+        <v>15.76981906718895</v>
       </c>
       <c r="N14">
-        <v>20.07972332371245</v>
+        <v>12.03334668722018</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.01836978835038</v>
+        <v>27.38987686067517</v>
       </c>
       <c r="C15">
-        <v>9.542310991091558</v>
+        <v>15.23010192752112</v>
       </c>
       <c r="D15">
-        <v>7.284054410578935</v>
+        <v>4.169481442394033</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>41.28931495379464</v>
+        <v>33.22322222412647</v>
       </c>
       <c r="G15">
-        <v>49.86236263302095</v>
+        <v>46.50055551998057</v>
       </c>
       <c r="H15">
-        <v>19.17808290164064</v>
+        <v>13.3595343613102</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.32443634525819</v>
+        <v>6.012277926542704</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.53779880159812</v>
+        <v>7.266778170368923</v>
       </c>
       <c r="M15">
-        <v>18.67805888685196</v>
+        <v>15.70489155698952</v>
       </c>
       <c r="N15">
-        <v>20.08772783000658</v>
+        <v>12.06618264727318</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.7649626953006</v>
+        <v>26.47080104118132</v>
       </c>
       <c r="C16">
-        <v>9.328653226911721</v>
+        <v>14.78251716943283</v>
       </c>
       <c r="D16">
-        <v>7.284056512073428</v>
+        <v>4.147381729641502</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>41.26186960744411</v>
+        <v>32.63602741558816</v>
       </c>
       <c r="G16">
-        <v>49.73971386484212</v>
+        <v>45.42512746418106</v>
       </c>
       <c r="H16">
-        <v>19.19048979992666</v>
+        <v>13.22170899351566</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.33426040231109</v>
+        <v>6.044232105321471</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.53921326688786</v>
+        <v>7.196357229458876</v>
       </c>
       <c r="M16">
-        <v>18.62208432398366</v>
+        <v>15.33041215024125</v>
       </c>
       <c r="N16">
-        <v>20.13416682234107</v>
+        <v>12.25458339375869</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.6091797581128</v>
+        <v>25.89491567942447</v>
       </c>
       <c r="C17">
-        <v>9.194744272231087</v>
+        <v>14.50248032558978</v>
       </c>
       <c r="D17">
-        <v>7.28412436310918</v>
+        <v>4.134057306206694</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>41.24771724539467</v>
+        <v>32.28154664326972</v>
       </c>
       <c r="G17">
-        <v>49.66830400006285</v>
+        <v>44.77031591544016</v>
       </c>
       <c r="H17">
-        <v>19.19912319295424</v>
+        <v>13.14042506435459</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.34041470166518</v>
+        <v>6.063992742175829</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.54043152416142</v>
+        <v>7.153730665878472</v>
       </c>
       <c r="M17">
-        <v>18.58847210304685</v>
+        <v>15.09858810948776</v>
       </c>
       <c r="N17">
-        <v>20.16316408186227</v>
+        <v>12.37042191677659</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.51949025744794</v>
+        <v>25.55921140239779</v>
       </c>
       <c r="C18">
-        <v>9.116691460168429</v>
+        <v>14.33939293263414</v>
       </c>
       <c r="D18">
-        <v>7.284187905438673</v>
+        <v>4.126475088162707</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.24056454771483</v>
+        <v>32.07976988768795</v>
       </c>
       <c r="G18">
-        <v>49.62864643217568</v>
+        <v>44.39553137703835</v>
       </c>
       <c r="H18">
-        <v>19.20446415625919</v>
+        <v>13.09485090229404</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.34400147956209</v>
+        <v>6.07541881083304</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.54126131057041</v>
+        <v>7.129425429421854</v>
       </c>
       <c r="M18">
-        <v>18.56941031905343</v>
+        <v>14.96450371788607</v>
       </c>
       <c r="N18">
-        <v>20.18002988403305</v>
+        <v>12.43716590680902</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.48911106650645</v>
+        <v>25.44477655969163</v>
       </c>
       <c r="C19">
-        <v>9.090087954952688</v>
+        <v>14.28382683972712</v>
       </c>
       <c r="D19">
-        <v>7.284213635659732</v>
+        <v>4.123921538748676</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.23831241153438</v>
+        <v>32.01181453594123</v>
       </c>
       <c r="G19">
-        <v>49.61546284865501</v>
+        <v>44.26895665386033</v>
       </c>
       <c r="H19">
-        <v>19.20633692861918</v>
+        <v>13.07962049580543</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.34522398160553</v>
+        <v>6.079298044764831</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.54156445507126</v>
+        <v>7.121232718217812</v>
       </c>
       <c r="M19">
-        <v>18.56300327041724</v>
+        <v>14.91897952994906</v>
       </c>
       <c r="N19">
-        <v>20.18577257869191</v>
+        <v>12.45978624393845</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.62577289016079</v>
+        <v>25.9566814996431</v>
       </c>
       <c r="C20">
-        <v>9.209106159348865</v>
+        <v>14.5324992989711</v>
       </c>
       <c r="D20">
-        <v>7.284114604165961</v>
+        <v>4.135467177490954</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>41.24912161568038</v>
+        <v>32.31906325985725</v>
       </c>
       <c r="G20">
-        <v>49.67575936627435</v>
+        <v>44.83983157903878</v>
       </c>
       <c r="H20">
-        <v>19.19816530616687</v>
+        <v>13.14895542983233</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.33975470543523</v>
+        <v>6.06188300123776</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.54028848534108</v>
+        <v>7.15824638233073</v>
       </c>
       <c r="M20">
-        <v>18.59202221817212</v>
+        <v>15.12334389210219</v>
       </c>
       <c r="N20">
-        <v>20.16005789567901</v>
+        <v>12.35807908675574</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.08366766535071</v>
+        <v>27.62346721553798</v>
       </c>
       <c r="C21">
-        <v>9.59658809462282</v>
+        <v>15.34398293622926</v>
       </c>
       <c r="D21">
-        <v>7.2840744015713</v>
+        <v>4.175262629831997</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>41.29722991013147</v>
+        <v>33.37660182151991</v>
       </c>
       <c r="G21">
-        <v>49.89520605363118</v>
+        <v>46.77971136310017</v>
       </c>
       <c r="H21">
-        <v>19.17519598348878</v>
+        <v>13.39614684725828</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.3219393131771</v>
+        <v>6.004074847786683</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.53754176760704</v>
+        <v>7.285136071072502</v>
       </c>
       <c r="M21">
-        <v>18.69273154637438</v>
+        <v>15.80091032669297</v>
       </c>
       <c r="N21">
-        <v>20.07589498255052</v>
+        <v>12.01760425093127</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.38147029766217</v>
+        <v>28.67383520095136</v>
       </c>
       <c r="C22">
-        <v>9.840428162187651</v>
+        <v>15.85664718789425</v>
       </c>
       <c r="D22">
-        <v>7.284265274809373</v>
+        <v>4.202087319744751</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>41.33744276103733</v>
+        <v>34.08660311153658</v>
       </c>
       <c r="G22">
-        <v>50.05106289043045</v>
+        <v>48.0633781250959</v>
       </c>
       <c r="H22">
-        <v>19.16353341556762</v>
+        <v>13.56867527974275</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.31071200643424</v>
+        <v>5.966780728628456</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.53689041995562</v>
+        <v>7.369931758348764</v>
       </c>
       <c r="M22">
-        <v>18.76087551138777</v>
+        <v>16.23664398617191</v>
       </c>
       <c r="N22">
-        <v>20.02254745372656</v>
+        <v>11.79566518800834</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.22269301553345</v>
+        <v>28.11675649969229</v>
       </c>
       <c r="C23">
-        <v>9.711155674710954</v>
+        <v>15.58463109692345</v>
       </c>
       <c r="D23">
-        <v>7.284143589449994</v>
+        <v>4.18769114625156</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>41.31517912918211</v>
+        <v>33.70593257515072</v>
       </c>
       <c r="G23">
-        <v>49.96675018303574</v>
+        <v>47.37682826184872</v>
       </c>
       <c r="H23">
-        <v>19.16945117007734</v>
+        <v>13.47556573636481</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.31666627246179</v>
+        <v>5.98664327625028</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.53713368190702</v>
+        <v>7.324504969346478</v>
       </c>
       <c r="M23">
-        <v>18.72429752312546</v>
+        <v>16.00475213043835</v>
       </c>
       <c r="N23">
-        <v>20.05086885095866</v>
+        <v>11.91408852184039</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.6182715255284</v>
+        <v>25.92877157176782</v>
       </c>
       <c r="C24">
-        <v>9.20261647055206</v>
+        <v>14.51893423526402</v>
       </c>
       <c r="D24">
-        <v>7.284118939774159</v>
+        <v>4.134829532140841</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>41.24848363544644</v>
+        <v>32.30209570879688</v>
       </c>
       <c r="G24">
-        <v>49.67238444199734</v>
+        <v>44.8083983210448</v>
       </c>
       <c r="H24">
-        <v>19.19859719087538</v>
+        <v>13.14509525295909</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.34005293835044</v>
+        <v>6.062836610822901</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.54035275008019</v>
+        <v>7.156204199465704</v>
       </c>
       <c r="M24">
-        <v>18.59041639298133</v>
+        <v>15.11215430662168</v>
       </c>
       <c r="N24">
-        <v>20.16146159520586</v>
+        <v>12.36365881778707</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.96340459204995</v>
+        <v>23.50737638863214</v>
       </c>
       <c r="C25">
-        <v>8.614802870325466</v>
+        <v>13.29222198385718</v>
       </c>
       <c r="D25">
-        <v>7.28503032984482</v>
+        <v>4.080892423239944</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>41.21428860399121</v>
+        <v>30.86865064578491</v>
       </c>
       <c r="G25">
-        <v>49.40904276386091</v>
+        <v>42.10934453815222</v>
       </c>
       <c r="H25">
-        <v>19.24437643515141</v>
+        <v>12.83338887701211</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.36707715132736</v>
+        <v>6.147353004481231</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.54876266659218</v>
+        <v>6.982809568344438</v>
       </c>
       <c r="M25">
-        <v>18.45641428862852</v>
+        <v>14.12131656436667</v>
       </c>
       <c r="N25">
-        <v>20.28792300439884</v>
+        <v>12.85327698739768</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.65036396205273</v>
+        <v>17.93175699291533</v>
       </c>
       <c r="C2">
-        <v>12.32169686841833</v>
+        <v>12.06368635533958</v>
       </c>
       <c r="D2">
-        <v>4.043422671847919</v>
+        <v>6.212379162249379</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.88289250916182</v>
+        <v>20.64191257757684</v>
       </c>
       <c r="G2">
-        <v>40.18905556025671</v>
+        <v>22.82277795009621</v>
       </c>
       <c r="H2">
-        <v>12.63967792553922</v>
+        <v>2.336591694995061</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.742062321145292</v>
       </c>
       <c r="J2">
-        <v>6.211840961907836</v>
+        <v>8.98589930852059</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.46952491655963</v>
       </c>
       <c r="L2">
-        <v>6.862292933125662</v>
+        <v>6.717115624102611</v>
       </c>
       <c r="M2">
-        <v>13.37122647436904</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.2200581631207</v>
+        <v>7.374393287015504</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.07833566758803</v>
+      </c>
+      <c r="P2">
+        <v>12.87945633351965</v>
+      </c>
+      <c r="Q2">
+        <v>14.73027624006861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.31851159308872</v>
+        <v>16.76136087170188</v>
       </c>
       <c r="C3">
-        <v>11.62195596730786</v>
+        <v>11.62157120257364</v>
       </c>
       <c r="D3">
-        <v>4.019257579944631</v>
+        <v>6.121902414451992</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.25850056186691</v>
+        <v>20.35810167220675</v>
       </c>
       <c r="G3">
-        <v>38.93341871281392</v>
+        <v>22.30099280602673</v>
       </c>
       <c r="H3">
-        <v>12.52931957790764</v>
+        <v>2.512326881517674</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.876232169703297</v>
       </c>
       <c r="J3">
-        <v>6.257071004017464</v>
+        <v>8.979040152816307</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.54510749032056</v>
       </c>
       <c r="L3">
-        <v>6.785165204798391</v>
+        <v>6.688049334885321</v>
       </c>
       <c r="M3">
-        <v>12.85255201500642</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.47354894430657</v>
+        <v>7.215974004755521</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.54355720208699</v>
+      </c>
+      <c r="P3">
+        <v>12.93918597220572</v>
+      </c>
+      <c r="Q3">
+        <v>14.61215492815479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.46554283259601</v>
+        <v>16.00857645323404</v>
       </c>
       <c r="C4">
-        <v>11.17174038341171</v>
+        <v>11.34202262550418</v>
       </c>
       <c r="D4">
-        <v>4.004977140755118</v>
+        <v>6.066614614665427</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.89668800504894</v>
+        <v>20.1893674377398</v>
       </c>
       <c r="G4">
-        <v>38.18655080697756</v>
+        <v>21.9850327965603</v>
       </c>
       <c r="H4">
-        <v>12.47138725343505</v>
+        <v>2.624343689443927</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.962624469501932</v>
       </c>
       <c r="J4">
-        <v>6.285630872304007</v>
+        <v>8.977682733463462</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.59569177995454</v>
       </c>
       <c r="L4">
-        <v>6.740079773848801</v>
+        <v>6.669385014485339</v>
       </c>
       <c r="M4">
-        <v>12.53002750178673</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.63192156001966</v>
+        <v>7.117585710706749</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.20239732204833</v>
+      </c>
+      <c r="P4">
+        <v>12.97839545443666</v>
+      </c>
+      <c r="Q4">
+        <v>14.54487399707782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.10930758050455</v>
+        <v>15.68624370686378</v>
       </c>
       <c r="C5">
-        <v>10.9831441933042</v>
+        <v>11.23178370810896</v>
       </c>
       <c r="D5">
-        <v>3.999291332705347</v>
+        <v>6.044289583823655</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.75466649713581</v>
+        <v>20.11676521587893</v>
       </c>
       <c r="G5">
-        <v>37.88849743834066</v>
+        <v>21.8480574726722</v>
       </c>
       <c r="H5">
-        <v>12.45017533052998</v>
+        <v>2.671300077348033</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.001688045482618</v>
       </c>
       <c r="J5">
-        <v>6.29747244385548</v>
+        <v>8.976338117179669</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.61372466183832</v>
       </c>
       <c r="L5">
-        <v>6.722282455931698</v>
+        <v>6.661362940259151</v>
       </c>
       <c r="M5">
-        <v>12.39775605260406</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.69718703434451</v>
+        <v>7.078257421404833</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.05965416699912</v>
+      </c>
+      <c r="P5">
+        <v>12.99568145486361</v>
+      </c>
+      <c r="Q5">
+        <v>14.51493905669255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.04964032076849</v>
+        <v>15.62659754717462</v>
       </c>
       <c r="C6">
-        <v>10.95151977917683</v>
+        <v>11.22025981931475</v>
       </c>
       <c r="D6">
-        <v>3.998355097980031</v>
+        <v>6.040736623116173</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.73141091222077</v>
+        <v>20.0983427546197</v>
       </c>
       <c r="G6">
-        <v>37.83939346066616</v>
+        <v>21.81379917554145</v>
       </c>
       <c r="H6">
-        <v>12.44679555238321</v>
+        <v>2.679480829981939</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.01190058831944</v>
       </c>
       <c r="J6">
-        <v>6.299451140157078</v>
+        <v>8.974326806229527</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.61237411731996</v>
       </c>
       <c r="L6">
-        <v>6.719362084709745</v>
+        <v>6.659765671739409</v>
       </c>
       <c r="M6">
-        <v>12.37574738869398</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.7080694091174</v>
+        <v>7.072951661726483</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.03496987355236</v>
+      </c>
+      <c r="P6">
+        <v>12.99942819660629</v>
+      </c>
+      <c r="Q6">
+        <v>14.50536259276363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.46077319346798</v>
+        <v>15.98973588784074</v>
       </c>
       <c r="C7">
-        <v>11.16921760739494</v>
+        <v>11.35919512820036</v>
       </c>
       <c r="D7">
-        <v>4.00489992723052</v>
+        <v>6.066720186937531</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.89475072241394</v>
+        <v>20.17084462458025</v>
       </c>
       <c r="G7">
-        <v>38.18250532441863</v>
+        <v>21.95175576965956</v>
       </c>
       <c r="H7">
-        <v>12.47109158271734</v>
+        <v>2.625830525161893</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.972839839426356</v>
       </c>
       <c r="J7">
-        <v>6.285789742789821</v>
+        <v>8.972673137941751</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.58390280083355</v>
       </c>
       <c r="L7">
-        <v>6.739837418303467</v>
+        <v>6.668605404219447</v>
       </c>
       <c r="M7">
-        <v>12.5282467917723</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.63279875512501</v>
+        <v>7.120416183797555</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.19832418110233</v>
+      </c>
+      <c r="P7">
+        <v>12.98097777425017</v>
+      </c>
+      <c r="Q7">
+        <v>14.53171306642625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.19855474555945</v>
+        <v>17.51498467485124</v>
       </c>
       <c r="C8">
-        <v>12.08471577151785</v>
+        <v>11.93682352651003</v>
       </c>
       <c r="D8">
-        <v>4.034970847711359</v>
+        <v>6.181681962062427</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.66312808139967</v>
+        <v>20.52018036016659</v>
       </c>
       <c r="G8">
-        <v>39.75125524470148</v>
+        <v>22.60164229095914</v>
       </c>
       <c r="H8">
-        <v>12.59954211221203</v>
+        <v>2.397401781141364</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.79992127179184</v>
       </c>
       <c r="J8">
-        <v>6.227275687450337</v>
+        <v>8.97638088896937</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.47882353297116</v>
       </c>
       <c r="L8">
-        <v>6.835230588648421</v>
+        <v>6.706445127377007</v>
       </c>
       <c r="M8">
-        <v>13.19333098594941</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>13.30692120190853</v>
+        <v>7.32436823705388</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.89396462573324</v>
+      </c>
+      <c r="P8">
+        <v>12.90289332984517</v>
+      </c>
+      <c r="Q8">
+        <v>14.67180219158315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.32080408233357</v>
+        <v>20.23070612536597</v>
       </c>
       <c r="C9">
-        <v>13.71586032789446</v>
+        <v>12.97035069434975</v>
       </c>
       <c r="D9">
-        <v>4.098687713266534</v>
+        <v>6.407727059478526</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.34071168221636</v>
+        <v>21.27755549584741</v>
       </c>
       <c r="G9">
-        <v>43.00857379937497</v>
+        <v>23.95881244592823</v>
       </c>
       <c r="H9">
-        <v>12.93264459497724</v>
+        <v>1.980165487136992</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.481624254103322</v>
       </c>
       <c r="J9">
-        <v>6.118548925029016</v>
+        <v>9.01572096369882</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.32859162223716</v>
       </c>
       <c r="L9">
-        <v>7.040117784318095</v>
+        <v>6.775389338119058</v>
       </c>
       <c r="M9">
-        <v>14.45855259817262</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.68751504475551</v>
+        <v>7.708119689820009</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.15434160445671</v>
+      </c>
+      <c r="P9">
+        <v>12.76575821035931</v>
+      </c>
+      <c r="Q9">
+        <v>15.01078634807315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.53591048927065</v>
+        <v>21.9637820012059</v>
       </c>
       <c r="C10">
-        <v>14.81419873682853</v>
+        <v>13.72890413367832</v>
       </c>
       <c r="D10">
-        <v>4.148913485134932</v>
+        <v>6.53679865901332</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.6767621376224</v>
+        <v>21.7430121436329</v>
       </c>
       <c r="G10">
-        <v>45.50009341941276</v>
+        <v>24.81844720131395</v>
       </c>
       <c r="H10">
-        <v>13.23114533877201</v>
+        <v>1.722914982483459</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.695193977662822</v>
       </c>
       <c r="J10">
-        <v>6.041985282465553</v>
+        <v>9.034514785046106</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.18894937766896</v>
       </c>
       <c r="L10">
-        <v>7.201249901427259</v>
+        <v>6.820200682974875</v>
       </c>
       <c r="M10">
-        <v>15.3567620858786</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12.24137973749677</v>
+        <v>7.90908928622799</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.93759406901277</v>
+      </c>
+      <c r="P10">
+        <v>12.69428880271413</v>
+      </c>
+      <c r="Q10">
+        <v>15.2226462788084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.51774722604666</v>
+        <v>22.41305735951972</v>
       </c>
       <c r="C11">
-        <v>15.29243581987477</v>
+        <v>14.40260051394848</v>
       </c>
       <c r="D11">
-        <v>4.172637860800617</v>
+        <v>6.281091186611584</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.30697838686223</v>
+        <v>21.01966767202025</v>
       </c>
       <c r="G11">
-        <v>46.653080236741</v>
+        <v>24.01918695836652</v>
       </c>
       <c r="H11">
-        <v>13.37949717504764</v>
+        <v>2.744787250862765</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.763388699641545</v>
       </c>
       <c r="J11">
-        <v>6.007791551395285</v>
+        <v>8.840979242032242</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.71603621023021</v>
       </c>
       <c r="L11">
-        <v>7.276804700963664</v>
+        <v>6.870603412372707</v>
       </c>
       <c r="M11">
-        <v>15.75741238789963</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03962519005788</v>
+        <v>7.380412428490331</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.67160516581859</v>
+      </c>
+      <c r="P11">
+        <v>12.80728559161365</v>
+      </c>
+      <c r="Q11">
+        <v>14.81090155958944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.88284974821243</v>
+        <v>22.45607503728949</v>
       </c>
       <c r="C12">
-        <v>15.47049480516941</v>
+        <v>14.79872783930196</v>
       </c>
       <c r="D12">
-        <v>4.181760542618012</v>
+        <v>6.042892572783579</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>33.54885703414698</v>
+        <v>20.32152517652948</v>
       </c>
       <c r="G12">
-        <v>47.09240989895066</v>
+        <v>23.18647345503714</v>
       </c>
       <c r="H12">
-        <v>13.43755180097898</v>
+        <v>4.137737392990925</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.773313080999401</v>
       </c>
       <c r="J12">
-        <v>5.994927293148412</v>
+        <v>8.67689714225188</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.36686697734955</v>
       </c>
       <c r="L12">
-        <v>7.305735953015198</v>
+        <v>6.966768772327006</v>
       </c>
       <c r="M12">
-        <v>15.90791588751602</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.96333080929275</v>
+        <v>6.912633185015271</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.27957480327943</v>
+      </c>
+      <c r="P12">
+        <v>12.92533904578799</v>
+      </c>
+      <c r="Q12">
+        <v>14.42742830186609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.8045142022138</v>
+        <v>22.17448350238801</v>
       </c>
       <c r="C13">
-        <v>15.43228103312568</v>
+        <v>15.03701250900992</v>
       </c>
       <c r="D13">
-        <v>4.179789416745008</v>
+        <v>5.804015537026324</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>33.49662027724671</v>
+        <v>19.56765738492596</v>
       </c>
       <c r="G13">
-        <v>46.99767242033847</v>
+        <v>22.2163863146975</v>
       </c>
       <c r="H13">
-        <v>13.42496408125181</v>
+        <v>5.56681643640881</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.744357855101888</v>
       </c>
       <c r="J13">
-        <v>5.997694218475138</v>
+        <v>8.517374186967134</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.0751038631306</v>
       </c>
       <c r="L13">
-        <v>7.299490896275502</v>
+        <v>7.097600102048402</v>
       </c>
       <c r="M13">
-        <v>15.87555717534296</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.97975858553055</v>
+        <v>6.47096878850363</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>12.75448001075155</v>
+      </c>
+      <c r="P13">
+        <v>13.05404340302418</v>
+      </c>
+      <c r="Q13">
+        <v>14.01998405468478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.54791792319366</v>
+        <v>21.82301437612207</v>
       </c>
       <c r="C14">
-        <v>15.30714548163138</v>
+        <v>15.14022028075248</v>
       </c>
       <c r="D14">
-        <v>4.173385529051996</v>
+        <v>5.638735984812328</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.32681308827983</v>
+        <v>19.00941813355088</v>
       </c>
       <c r="G14">
-        <v>46.6891700211341</v>
+        <v>21.46086434047203</v>
       </c>
       <c r="H14">
-        <v>13.38423533764688</v>
+        <v>6.577848065183682</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.707858163128543</v>
       </c>
       <c r="J14">
-        <v>6.006731557488487</v>
+        <v>8.406888673478347</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.89745557889815</v>
       </c>
       <c r="L14">
-        <v>7.27917849212332</v>
+        <v>7.20988360251985</v>
       </c>
       <c r="M14">
-        <v>15.76981906718895</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.03334668722018</v>
+        <v>6.183820828188009</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.32012377221618</v>
+      </c>
+      <c r="P14">
+        <v>13.14979239193539</v>
+      </c>
+      <c r="Q14">
+        <v>13.72049502487679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.38987686067517</v>
+        <v>21.662090563047</v>
       </c>
       <c r="C15">
-        <v>15.23010192752112</v>
+        <v>15.13785776232828</v>
       </c>
       <c r="D15">
-        <v>4.169481442394033</v>
+        <v>5.597923437996715</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.22322222412647</v>
+        <v>18.85781118114359</v>
       </c>
       <c r="G15">
-        <v>46.50055551998057</v>
+        <v>21.238556804544</v>
       </c>
       <c r="H15">
-        <v>13.3595343613102</v>
+        <v>6.812891401351219</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.692118392194118</v>
       </c>
       <c r="J15">
-        <v>6.012277926542704</v>
+        <v>8.379955241584417</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.86311494803763</v>
       </c>
       <c r="L15">
-        <v>7.266778170368923</v>
+        <v>7.236484277526133</v>
       </c>
       <c r="M15">
-        <v>15.70489155698952</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.06618264727318</v>
+        <v>6.117247792645944</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.18498372953422</v>
+      </c>
+      <c r="P15">
+        <v>13.1748823311352</v>
+      </c>
+      <c r="Q15">
+        <v>13.63952260119302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.47080104118132</v>
+        <v>20.98383118222571</v>
       </c>
       <c r="C16">
-        <v>14.78251716943283</v>
+        <v>14.79664171290143</v>
       </c>
       <c r="D16">
-        <v>4.147381729641502</v>
+        <v>5.589072881207037</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.63602741558816</v>
+        <v>18.7850890878325</v>
       </c>
       <c r="G16">
-        <v>45.42512746418106</v>
+        <v>21.00847785825928</v>
       </c>
       <c r="H16">
-        <v>13.22170899351566</v>
+        <v>6.609986234811678</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.609450050287243</v>
       </c>
       <c r="J16">
-        <v>6.044232105321471</v>
+        <v>8.3999061007649</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.97871002955155</v>
       </c>
       <c r="L16">
-        <v>7.196357229458876</v>
+        <v>7.184499014600242</v>
       </c>
       <c r="M16">
-        <v>15.33041215024125</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>12.25458339375869</v>
+        <v>6.115808615318463</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.93438317603338</v>
+      </c>
+      <c r="P16">
+        <v>13.16878297653238</v>
+      </c>
+      <c r="Q16">
+        <v>13.61587964870846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.89491567942447</v>
+        <v>20.6478475518398</v>
       </c>
       <c r="C17">
-        <v>14.50248032558978</v>
+        <v>14.47396617747524</v>
       </c>
       <c r="D17">
-        <v>4.134057306206694</v>
+        <v>5.669534164493879</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.28154664326972</v>
+        <v>19.03017251719682</v>
       </c>
       <c r="G17">
-        <v>44.77031591544016</v>
+        <v>21.24499441558442</v>
       </c>
       <c r="H17">
-        <v>13.14042506435459</v>
+        <v>5.885859602754405</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.565654206209686</v>
       </c>
       <c r="J17">
-        <v>6.063992742175829</v>
+        <v>8.474303808399858</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.15950669330805</v>
       </c>
       <c r="L17">
-        <v>7.153730665878472</v>
+        <v>7.080721122828399</v>
       </c>
       <c r="M17">
-        <v>15.09858810948776</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>12.37042191677659</v>
+        <v>6.263315274884926</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.97990955939168</v>
+      </c>
+      <c r="P17">
+        <v>13.1148884295479</v>
+      </c>
+      <c r="Q17">
+        <v>13.75905718269961</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.55921140239779</v>
+        <v>20.5892775847843</v>
       </c>
       <c r="C18">
-        <v>14.33939293263414</v>
+        <v>14.12137434621875</v>
       </c>
       <c r="D18">
-        <v>4.126475088162707</v>
+        <v>5.841399822086972</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.07976988768795</v>
+        <v>19.58557572855045</v>
       </c>
       <c r="G18">
-        <v>44.39553137703835</v>
+        <v>21.9257995113125</v>
       </c>
       <c r="H18">
-        <v>13.09485090229404</v>
+        <v>4.659496067887471</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.547074295745069</v>
       </c>
       <c r="J18">
-        <v>6.07541881083304</v>
+        <v>8.606248222473949</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.42875792671158</v>
       </c>
       <c r="L18">
-        <v>7.129425429421854</v>
+        <v>6.946816020635901</v>
       </c>
       <c r="M18">
-        <v>14.96450371788607</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.43716590680902</v>
+        <v>6.57891510099459</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.28777982018605</v>
+      </c>
+      <c r="P18">
+        <v>13.01508437535691</v>
+      </c>
+      <c r="Q18">
+        <v>14.06804410997668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.44477655969163</v>
+        <v>20.73768670095332</v>
       </c>
       <c r="C19">
-        <v>14.28382683972712</v>
+        <v>13.8127596881455</v>
       </c>
       <c r="D19">
-        <v>4.123921538748676</v>
+        <v>6.082847804115621</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.01181453594123</v>
+        <v>20.31824672889012</v>
       </c>
       <c r="G19">
-        <v>44.26895665386033</v>
+        <v>22.8511257037198</v>
       </c>
       <c r="H19">
-        <v>13.07962049580543</v>
+        <v>3.226470730524532</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.562468229588551</v>
       </c>
       <c r="J19">
-        <v>6.079298044764831</v>
+        <v>8.765718615813405</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.73856095955575</v>
       </c>
       <c r="L19">
-        <v>7.121232718217812</v>
+        <v>6.840822180366776</v>
       </c>
       <c r="M19">
-        <v>14.91897952994906</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.45978624393845</v>
+        <v>7.042144376410588</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.77403658310426</v>
+      </c>
+      <c r="P19">
+        <v>12.89931220895684</v>
+      </c>
+      <c r="Q19">
+        <v>14.46380680161954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.9566814996431</v>
+        <v>21.4871225590301</v>
       </c>
       <c r="C20">
-        <v>14.5324992989711</v>
+        <v>13.58613394258235</v>
       </c>
       <c r="D20">
-        <v>4.135467177490954</v>
+        <v>6.502534398881806</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.31906325985725</v>
+        <v>21.56407474702556</v>
       </c>
       <c r="G20">
-        <v>44.83983157903878</v>
+        <v>24.49870090889408</v>
       </c>
       <c r="H20">
-        <v>13.14895542983233</v>
+        <v>1.790558834460756</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.652360923301607</v>
       </c>
       <c r="J20">
-        <v>6.06188300123776</v>
+        <v>9.012465510245264</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.18502860960128</v>
       </c>
       <c r="L20">
-        <v>7.15824638233073</v>
+        <v>6.806974924126028</v>
       </c>
       <c r="M20">
-        <v>15.12334389210219</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>12.35807908675574</v>
+        <v>7.862945792244239</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>13.72768089296852</v>
+      </c>
+      <c r="P20">
+        <v>12.72195394635344</v>
+      </c>
+      <c r="Q20">
+        <v>15.12514092005122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.62346721553798</v>
+        <v>22.80656674860264</v>
       </c>
       <c r="C21">
-        <v>15.34398293622926</v>
+        <v>14.08505620290641</v>
       </c>
       <c r="D21">
-        <v>4.175262629831997</v>
+        <v>6.658370587321123</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.37660182151991</v>
+        <v>22.10275730148931</v>
       </c>
       <c r="G21">
-        <v>46.77971136310017</v>
+        <v>25.38625706393583</v>
       </c>
       <c r="H21">
-        <v>13.39614684725828</v>
+        <v>1.567160830480938</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.81631510336548</v>
       </c>
       <c r="J21">
-        <v>6.004074847786683</v>
+        <v>9.070241874960349</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.16485264720239</v>
       </c>
       <c r="L21">
-        <v>7.285136071072502</v>
+        <v>6.843799096192649</v>
       </c>
       <c r="M21">
-        <v>15.80091032669297</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.01760425093127</v>
+        <v>8.127196895652862</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>14.41492437509012</v>
+      </c>
+      <c r="P21">
+        <v>12.64782038767192</v>
+      </c>
+      <c r="Q21">
+        <v>15.39251860741636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.67383520095136</v>
+        <v>23.62531492680123</v>
       </c>
       <c r="C22">
-        <v>15.85664718789425</v>
+        <v>14.40062357120455</v>
       </c>
       <c r="D22">
-        <v>4.202087319744751</v>
+        <v>6.740414156845671</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.08660311153658</v>
+        <v>22.42418432237285</v>
       </c>
       <c r="G22">
-        <v>48.0633781250959</v>
+        <v>25.93189768172967</v>
       </c>
       <c r="H22">
-        <v>13.56867527974275</v>
+        <v>1.702221855251383</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.914875914479911</v>
       </c>
       <c r="J22">
-        <v>5.966780728628456</v>
+        <v>9.105582310844259</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.14839098482564</v>
       </c>
       <c r="L22">
-        <v>7.369931758348764</v>
+        <v>6.866843606565689</v>
       </c>
       <c r="M22">
-        <v>16.23664398617191</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.79566518800834</v>
+        <v>8.255931190529004</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>14.81584715796966</v>
+      </c>
+      <c r="P22">
+        <v>12.60526833321912</v>
+      </c>
+      <c r="Q22">
+        <v>15.55799677323774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.11675649969229</v>
+        <v>23.20431310755545</v>
       </c>
       <c r="C23">
-        <v>15.58463109692345</v>
+        <v>14.2143235105672</v>
       </c>
       <c r="D23">
-        <v>4.18769114625156</v>
+        <v>6.696177172440261</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.70593257515072</v>
+        <v>22.27097185566356</v>
       </c>
       <c r="G23">
-        <v>47.37682826184872</v>
+        <v>25.67258951153272</v>
       </c>
       <c r="H23">
-        <v>13.47556573636481</v>
+        <v>1.63117620726215</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.857701489736399</v>
       </c>
       <c r="J23">
-        <v>5.98664327625028</v>
+        <v>9.092109588601822</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.17077125223362</v>
       </c>
       <c r="L23">
-        <v>7.324504969346478</v>
+        <v>6.855152487399955</v>
       </c>
       <c r="M23">
-        <v>16.00475213043835</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.91408852184039</v>
+        <v>8.183874478668734</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>14.60525540769877</v>
+      </c>
+      <c r="P23">
+        <v>12.62405215797762</v>
+      </c>
+      <c r="Q23">
+        <v>15.48320891074371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.92877157176782</v>
+        <v>21.51100916363933</v>
       </c>
       <c r="C24">
-        <v>14.51893423526402</v>
+        <v>13.51940482404509</v>
       </c>
       <c r="D24">
-        <v>4.134829532140841</v>
+        <v>6.528741583591256</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.30209570879688</v>
+        <v>21.66858415019247</v>
       </c>
       <c r="G24">
-        <v>44.8083983210448</v>
+        <v>24.6408455498636</v>
       </c>
       <c r="H24">
-        <v>13.14509525295909</v>
+        <v>1.771487091754918</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.644582859784016</v>
       </c>
       <c r="J24">
-        <v>6.062836610822901</v>
+        <v>9.038298813561363</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.24338448632616</v>
       </c>
       <c r="L24">
-        <v>7.156204199465704</v>
+        <v>6.808867631187768</v>
       </c>
       <c r="M24">
-        <v>15.11215430662168</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>12.36365881778707</v>
+        <v>7.912400500362536</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>13.77569069699348</v>
+      </c>
+      <c r="P24">
+        <v>12.7064467790943</v>
+      </c>
+      <c r="Q24">
+        <v>15.18787465009497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50737638863214</v>
+        <v>19.51384452752658</v>
       </c>
       <c r="C25">
-        <v>13.29222198385718</v>
+        <v>12.72941005953537</v>
       </c>
       <c r="D25">
-        <v>4.080892423239944</v>
+        <v>6.347283502856134</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.86865064578491</v>
+        <v>21.0383445186664</v>
       </c>
       <c r="G25">
-        <v>42.10934453815222</v>
+        <v>23.5367098965738</v>
       </c>
       <c r="H25">
-        <v>12.83338887701211</v>
+        <v>2.091014740729671</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.578953898582959</v>
       </c>
       <c r="J25">
-        <v>6.147353004481231</v>
+        <v>8.993653423864441</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.34375747944966</v>
       </c>
       <c r="L25">
-        <v>6.982809568344438</v>
+        <v>6.756396437131437</v>
       </c>
       <c r="M25">
-        <v>14.12131656436667</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.85327698739768</v>
+        <v>7.611358152380307</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.82211557745175</v>
+      </c>
+      <c r="P25">
+        <v>12.80562162871444</v>
+      </c>
+      <c r="Q25">
+        <v>14.89230607601174</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.93175699291533</v>
+        <v>17.75619297879478</v>
       </c>
       <c r="C2">
-        <v>12.06368635533958</v>
+        <v>12.07602571674115</v>
       </c>
       <c r="D2">
-        <v>6.212379162249379</v>
+        <v>6.216214053851668</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.64191257757684</v>
+        <v>20.2651401067705</v>
       </c>
       <c r="G2">
-        <v>22.82277795009621</v>
+        <v>21.58978526341782</v>
       </c>
       <c r="H2">
-        <v>2.336591694995061</v>
+        <v>2.28347582509032</v>
       </c>
       <c r="I2">
-        <v>2.742062321145292</v>
+        <v>2.665981503366323</v>
       </c>
       <c r="J2">
-        <v>8.98589930852059</v>
+        <v>9.321704142973129</v>
       </c>
       <c r="K2">
-        <v>14.46952491655963</v>
+        <v>14.07683977778978</v>
       </c>
       <c r="L2">
-        <v>6.717115624102611</v>
+        <v>11.93781821140839</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.878819745734344</v>
       </c>
       <c r="N2">
-        <v>7.374393287015504</v>
+        <v>6.670291367063275</v>
       </c>
       <c r="O2">
-        <v>12.07833566758803</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.87945633351965</v>
+        <v>7.506832228143491</v>
       </c>
       <c r="Q2">
-        <v>14.73027624006861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.03519997150044</v>
+      </c>
+      <c r="R2">
+        <v>12.85434054907298</v>
+      </c>
+      <c r="S2">
+        <v>14.44604118345115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.76136087170188</v>
+        <v>16.61032281413491</v>
       </c>
       <c r="C3">
-        <v>11.62157120257364</v>
+        <v>11.55532693206872</v>
       </c>
       <c r="D3">
-        <v>6.121902414451992</v>
+        <v>6.128645356641294</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.35810167220675</v>
+        <v>20.01574020855692</v>
       </c>
       <c r="G3">
-        <v>22.30099280602673</v>
+        <v>21.13844074338363</v>
       </c>
       <c r="H3">
-        <v>2.512326881517674</v>
+        <v>2.448822118384414</v>
       </c>
       <c r="I3">
-        <v>2.876232169703297</v>
+        <v>2.786476573146954</v>
       </c>
       <c r="J3">
-        <v>8.979040152816307</v>
+        <v>9.294843149239714</v>
       </c>
       <c r="K3">
-        <v>14.54510749032056</v>
+        <v>14.16880147751987</v>
       </c>
       <c r="L3">
-        <v>6.688049334885321</v>
+        <v>12.08410615835612</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.897392374750343</v>
       </c>
       <c r="N3">
-        <v>7.215974004755521</v>
+        <v>6.642448774950112</v>
       </c>
       <c r="O3">
-        <v>11.54355720208699</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.93918597220572</v>
+        <v>7.346345860648635</v>
       </c>
       <c r="Q3">
-        <v>14.61215492815479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.50327962829641</v>
+      </c>
+      <c r="R3">
+        <v>12.89432749403363</v>
+      </c>
+      <c r="S3">
+        <v>14.35054767661127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.00857645323404</v>
+        <v>15.86093565793898</v>
       </c>
       <c r="C4">
-        <v>11.34202262550418</v>
+        <v>11.22563828375945</v>
       </c>
       <c r="D4">
-        <v>6.066614614665427</v>
+        <v>6.075339983972391</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.1893674377398</v>
+        <v>19.8671010512159</v>
       </c>
       <c r="G4">
-        <v>21.9850327965603</v>
+        <v>20.86736261570643</v>
       </c>
       <c r="H4">
-        <v>2.624343689443927</v>
+        <v>2.554252330727985</v>
       </c>
       <c r="I4">
-        <v>2.962624469501932</v>
+        <v>2.864394899114449</v>
       </c>
       <c r="J4">
-        <v>8.977682733463462</v>
+        <v>9.27937988472357</v>
       </c>
       <c r="K4">
-        <v>14.59569177995454</v>
+        <v>14.22836031937778</v>
       </c>
       <c r="L4">
-        <v>6.669385014485339</v>
+        <v>12.17641923827269</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.927391059381488</v>
       </c>
       <c r="N4">
-        <v>7.117585710706749</v>
+        <v>6.624606383776574</v>
       </c>
       <c r="O4">
-        <v>11.20239732204833</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.97839545443666</v>
+        <v>7.247006734806134</v>
       </c>
       <c r="Q4">
-        <v>14.54487399707782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.16366296303811</v>
+      </c>
+      <c r="R4">
+        <v>12.92173002189437</v>
+      </c>
+      <c r="S4">
+        <v>14.29615500516693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.68624370686378</v>
+        <v>15.53949868334067</v>
       </c>
       <c r="C5">
-        <v>11.23178370810896</v>
+        <v>11.09498024166058</v>
       </c>
       <c r="D5">
-        <v>6.044289583823655</v>
+        <v>6.053879865263296</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.11676521587893</v>
+        <v>19.80236480148324</v>
       </c>
       <c r="G5">
-        <v>21.8480574726722</v>
+        <v>20.74878661915437</v>
       </c>
       <c r="H5">
-        <v>2.671300077348033</v>
+        <v>2.598466994419152</v>
       </c>
       <c r="I5">
-        <v>3.001688045482618</v>
+        <v>2.900482416357977</v>
       </c>
       <c r="J5">
-        <v>8.976338117179669</v>
+        <v>9.271816991003542</v>
       </c>
       <c r="K5">
-        <v>14.61372466183832</v>
+        <v>14.24982190894657</v>
       </c>
       <c r="L5">
-        <v>6.661362940259151</v>
+        <v>12.21117537510191</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.942406683140335</v>
       </c>
       <c r="N5">
-        <v>7.078257421404833</v>
+        <v>6.616951116147277</v>
       </c>
       <c r="O5">
-        <v>11.05965416699912</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.99568145486361</v>
+        <v>7.207385927551702</v>
       </c>
       <c r="Q5">
-        <v>14.51493905669255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.02148172698175</v>
+      </c>
+      <c r="R5">
+        <v>12.93434587379029</v>
+      </c>
+      <c r="S5">
+        <v>14.27118565347437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.62659754717462</v>
+        <v>15.479932649328</v>
       </c>
       <c r="C6">
-        <v>11.22025981931475</v>
+        <v>11.08058972846785</v>
       </c>
       <c r="D6">
-        <v>6.040736623116173</v>
+        <v>6.050482602966334</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.0983427546197</v>
+        <v>19.78517418547125</v>
       </c>
       <c r="G6">
-        <v>21.81379917554145</v>
+        <v>20.7173043921538</v>
       </c>
       <c r="H6">
-        <v>2.679480829981939</v>
+        <v>2.606184007907173</v>
       </c>
       <c r="I6">
-        <v>3.01190058831944</v>
+        <v>2.910855546385279</v>
       </c>
       <c r="J6">
-        <v>8.974326806229527</v>
+        <v>9.268718750391534</v>
       </c>
       <c r="K6">
-        <v>14.61237411731996</v>
+        <v>14.24907097692922</v>
       </c>
       <c r="L6">
-        <v>6.659765671739409</v>
+        <v>12.21272378885662</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.942924216474511</v>
       </c>
       <c r="N6">
-        <v>7.072951661726483</v>
+        <v>6.615433038474849</v>
       </c>
       <c r="O6">
-        <v>11.03496987355236</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.99942819660629</v>
+        <v>7.202050226071102</v>
       </c>
       <c r="Q6">
-        <v>14.50536259276363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.99687526373533</v>
+      </c>
+      <c r="R6">
+        <v>12.93740005438624</v>
+      </c>
+      <c r="S6">
+        <v>14.26238390605082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.98973588784074</v>
+        <v>15.83688738910196</v>
       </c>
       <c r="C7">
-        <v>11.35919512820036</v>
+        <v>11.23737067447095</v>
       </c>
       <c r="D7">
-        <v>6.066720186937531</v>
+        <v>6.077864480414523</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.17084462458025</v>
+        <v>19.83825070287734</v>
       </c>
       <c r="G7">
-        <v>21.95175576965956</v>
+        <v>20.9205006456451</v>
       </c>
       <c r="H7">
-        <v>2.625830525161893</v>
+        <v>2.556159023100085</v>
       </c>
       <c r="I7">
-        <v>2.972839839426356</v>
+        <v>2.876752937480036</v>
       </c>
       <c r="J7">
-        <v>8.972673137941751</v>
+        <v>9.238098037511357</v>
       </c>
       <c r="K7">
-        <v>14.58390280083355</v>
+        <v>14.21260142252059</v>
       </c>
       <c r="L7">
-        <v>6.668605404219447</v>
+        <v>12.16152921740184</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.918822982495955</v>
       </c>
       <c r="N7">
-        <v>7.120416183797555</v>
+        <v>6.623649365765999</v>
       </c>
       <c r="O7">
-        <v>11.19832418110233</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.98097777425017</v>
+        <v>7.249646595530601</v>
       </c>
       <c r="Q7">
-        <v>14.53171306642625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.15763993445795</v>
+      </c>
+      <c r="R7">
+        <v>12.92548500998564</v>
+      </c>
+      <c r="S7">
+        <v>14.27444825554756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.51498467485124</v>
+        <v>17.33704610024463</v>
       </c>
       <c r="C8">
-        <v>11.93682352651003</v>
+        <v>11.90322584909552</v>
       </c>
       <c r="D8">
-        <v>6.181681962062427</v>
+        <v>6.194365231109619</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.52018036016659</v>
+        <v>20.12175953345425</v>
       </c>
       <c r="G8">
-        <v>22.60164229095914</v>
+        <v>21.67423652306929</v>
       </c>
       <c r="H8">
-        <v>2.397401781141364</v>
+        <v>2.342181737733057</v>
       </c>
       <c r="I8">
-        <v>2.79992127179184</v>
+        <v>2.722767428892563</v>
       </c>
       <c r="J8">
-        <v>8.97638088896937</v>
+        <v>9.187786424403805</v>
       </c>
       <c r="K8">
-        <v>14.47882353297116</v>
+        <v>14.07862508197545</v>
       </c>
       <c r="L8">
-        <v>6.706445127377007</v>
+        <v>11.9620290482402</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.86236374090975</v>
       </c>
       <c r="N8">
-        <v>7.32436823705388</v>
+        <v>6.659390573801979</v>
       </c>
       <c r="O8">
-        <v>11.89396462573324</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.90289332984517</v>
+        <v>7.455383713642492</v>
       </c>
       <c r="Q8">
-        <v>14.67180219158315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.84573963143377</v>
+      </c>
+      <c r="R8">
+        <v>12.87489433738888</v>
+      </c>
+      <c r="S8">
+        <v>14.3674933204487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.23070612536597</v>
+        <v>19.95925158302336</v>
       </c>
       <c r="C9">
-        <v>12.97035069434975</v>
+        <v>13.11545541255158</v>
       </c>
       <c r="D9">
-        <v>6.407727059478526</v>
+        <v>6.416130594392953</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.27755549584741</v>
+        <v>20.78060420809818</v>
       </c>
       <c r="G9">
-        <v>23.95881244592823</v>
+        <v>22.92755228345586</v>
       </c>
       <c r="H9">
-        <v>1.980165487136992</v>
+        <v>1.950014854204738</v>
       </c>
       <c r="I9">
-        <v>2.481624254103322</v>
+        <v>2.533233315386558</v>
       </c>
       <c r="J9">
-        <v>9.01572096369882</v>
+        <v>9.2352778173984</v>
       </c>
       <c r="K9">
-        <v>14.32859162223716</v>
+        <v>13.87740233688986</v>
       </c>
       <c r="L9">
-        <v>6.775389338119058</v>
+        <v>11.62285554595693</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.922757818541125</v>
       </c>
       <c r="N9">
-        <v>7.708119689820009</v>
+        <v>6.725497598859522</v>
       </c>
       <c r="O9">
-        <v>13.15434160445671</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.76575821035931</v>
+        <v>7.845717499503404</v>
       </c>
       <c r="Q9">
-        <v>15.01078634807315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.09696622650611</v>
+      </c>
+      <c r="R9">
+        <v>12.79009912412588</v>
+      </c>
+      <c r="S9">
+        <v>14.63785709862972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.9637820012059</v>
+        <v>21.61120530864084</v>
       </c>
       <c r="C10">
-        <v>13.72890413367832</v>
+        <v>13.95840628816361</v>
       </c>
       <c r="D10">
-        <v>6.53679865901332</v>
+        <v>6.555808648817302</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.7430121436329</v>
+        <v>21.12098946878614</v>
       </c>
       <c r="G10">
-        <v>24.81844720131395</v>
+        <v>24.18448792477541</v>
       </c>
       <c r="H10">
-        <v>1.722914982483459</v>
+        <v>1.712148444838692</v>
       </c>
       <c r="I10">
-        <v>2.695193977662822</v>
+        <v>2.724730780223944</v>
       </c>
       <c r="J10">
-        <v>9.034514785046106</v>
+        <v>9.057048325671552</v>
       </c>
       <c r="K10">
-        <v>14.18894937766896</v>
+        <v>13.67710807404247</v>
       </c>
       <c r="L10">
-        <v>6.820200682974875</v>
+        <v>11.33715609927096</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.997919577913905</v>
       </c>
       <c r="N10">
-        <v>7.90908928622799</v>
+        <v>6.769291447455372</v>
       </c>
       <c r="O10">
-        <v>13.93759406901277</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.69428880271413</v>
+        <v>8.050217777708188</v>
       </c>
       <c r="Q10">
-        <v>15.2226462788084</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.86407045535347</v>
+      </c>
+      <c r="R10">
+        <v>12.76682305214099</v>
+      </c>
+      <c r="S10">
+        <v>14.75251527155191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.41305735951972</v>
+        <v>22.01818536740182</v>
       </c>
       <c r="C11">
-        <v>14.40260051394848</v>
+        <v>14.5801863774261</v>
       </c>
       <c r="D11">
-        <v>6.281091186611584</v>
+        <v>6.3218636901734</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.01966767202025</v>
+        <v>20.30278296453071</v>
       </c>
       <c r="G11">
-        <v>24.01918695836652</v>
+        <v>24.41500590450238</v>
       </c>
       <c r="H11">
-        <v>2.744787250862765</v>
+        <v>2.743633754958407</v>
       </c>
       <c r="I11">
-        <v>2.763388699641545</v>
+        <v>2.785428627958759</v>
       </c>
       <c r="J11">
-        <v>8.840979242032242</v>
+        <v>8.509082322269229</v>
       </c>
       <c r="K11">
-        <v>13.71603621023021</v>
+        <v>13.19435642418134</v>
       </c>
       <c r="L11">
-        <v>6.870603412372707</v>
+        <v>10.95066281053825</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.696284883799709</v>
       </c>
       <c r="N11">
-        <v>7.380412428490331</v>
+        <v>6.831633133211179</v>
       </c>
       <c r="O11">
-        <v>13.67160516581859</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.80728559161365</v>
+        <v>7.508472178116943</v>
       </c>
       <c r="Q11">
-        <v>14.81090155958944</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.58035593800907</v>
+      </c>
+      <c r="R11">
+        <v>12.91996705139739</v>
+      </c>
+      <c r="S11">
+        <v>14.25797321539259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.45607503728949</v>
+        <v>22.05609260513518</v>
       </c>
       <c r="C12">
-        <v>14.79872783930196</v>
+        <v>14.92997367463671</v>
       </c>
       <c r="D12">
-        <v>6.042892572783579</v>
+        <v>6.089441904457295</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.32152517652948</v>
+        <v>19.58819956371488</v>
       </c>
       <c r="G12">
-        <v>23.18647345503714</v>
+        <v>24.0891697405748</v>
       </c>
       <c r="H12">
-        <v>4.137737392990925</v>
+        <v>4.138013312768914</v>
       </c>
       <c r="I12">
-        <v>2.773313080999401</v>
+        <v>2.792684540888563</v>
       </c>
       <c r="J12">
-        <v>8.67689714225188</v>
+        <v>8.228185266627595</v>
       </c>
       <c r="K12">
-        <v>13.36686697734955</v>
+        <v>12.86746651639198</v>
       </c>
       <c r="L12">
-        <v>6.966768772327006</v>
+        <v>10.72041805745228</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.444498535296944</v>
       </c>
       <c r="N12">
-        <v>6.912633185015271</v>
+        <v>6.936794433225484</v>
       </c>
       <c r="O12">
-        <v>13.27957480327943</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.92533904578799</v>
+        <v>7.028566004792741</v>
       </c>
       <c r="Q12">
-        <v>14.42742830186609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.18269120885636</v>
+      </c>
+      <c r="R12">
+        <v>13.0560822793658</v>
+      </c>
+      <c r="S12">
+        <v>13.85668732064574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.17448350238801</v>
+        <v>21.80733507247248</v>
       </c>
       <c r="C13">
-        <v>15.03701250900992</v>
+        <v>15.14081852171339</v>
       </c>
       <c r="D13">
-        <v>5.804015537026324</v>
+        <v>5.840659527432699</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.56765738492596</v>
+        <v>18.89971213803596</v>
       </c>
       <c r="G13">
-        <v>22.2163863146975</v>
+        <v>23.04931622354847</v>
       </c>
       <c r="H13">
-        <v>5.56681643640881</v>
+        <v>5.566054107719016</v>
       </c>
       <c r="I13">
-        <v>2.744357855101888</v>
+        <v>2.766982563973116</v>
       </c>
       <c r="J13">
-        <v>8.517374186967134</v>
+        <v>8.157974128606311</v>
       </c>
       <c r="K13">
-        <v>13.0751038631306</v>
+        <v>12.63010003565956</v>
       </c>
       <c r="L13">
-        <v>7.097600102048402</v>
+        <v>10.5753738680713</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.214139909222883</v>
       </c>
       <c r="N13">
-        <v>6.47096878850363</v>
+        <v>7.07573715377164</v>
       </c>
       <c r="O13">
-        <v>12.75448001075155</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>13.05404340302418</v>
+        <v>6.575504300317794</v>
       </c>
       <c r="Q13">
-        <v>14.01998405468478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.66466797209795</v>
+      </c>
+      <c r="R13">
+        <v>13.18100274542348</v>
+      </c>
+      <c r="S13">
+        <v>13.499807638185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.82301437612207</v>
+        <v>21.49610899792019</v>
       </c>
       <c r="C14">
-        <v>15.14022028075248</v>
+        <v>15.23334767525958</v>
       </c>
       <c r="D14">
-        <v>5.638735984812328</v>
+        <v>5.662932979098203</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.00941813355088</v>
+        <v>18.42169118724302</v>
       </c>
       <c r="G14">
-        <v>21.46086434047203</v>
+        <v>21.99334287106513</v>
       </c>
       <c r="H14">
-        <v>6.577848065183682</v>
+        <v>6.57591246502406</v>
       </c>
       <c r="I14">
-        <v>2.707858163128543</v>
+        <v>2.735768518143115</v>
       </c>
       <c r="J14">
-        <v>8.406888673478347</v>
+        <v>8.190051186977175</v>
       </c>
       <c r="K14">
-        <v>12.89745557889815</v>
+        <v>12.50173285366016</v>
       </c>
       <c r="L14">
-        <v>7.20988360251985</v>
+        <v>10.50605238093106</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.064560577110038</v>
       </c>
       <c r="N14">
-        <v>6.183820828188009</v>
+        <v>7.193254808398406</v>
       </c>
       <c r="O14">
-        <v>12.32012377221618</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>13.14979239193539</v>
+        <v>6.280879800026923</v>
       </c>
       <c r="Q14">
-        <v>13.72049502487679</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.24074426428686</v>
+      </c>
+      <c r="R14">
+        <v>13.26357186318778</v>
+      </c>
+      <c r="S14">
+        <v>13.26440413731047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.662090563047</v>
+        <v>21.35249839219905</v>
       </c>
       <c r="C15">
-        <v>15.13785776232828</v>
+        <v>15.23226163832727</v>
       </c>
       <c r="D15">
-        <v>5.597923437996715</v>
+        <v>5.617032654828899</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.85781118114359</v>
+        <v>18.30408036321316</v>
       </c>
       <c r="G15">
-        <v>21.238556804544</v>
+        <v>21.59132092890673</v>
       </c>
       <c r="H15">
-        <v>6.812891401351219</v>
+        <v>6.81038075262901</v>
       </c>
       <c r="I15">
-        <v>2.692118392194118</v>
+        <v>2.723112711081946</v>
       </c>
       <c r="J15">
-        <v>8.379955241584417</v>
+        <v>8.232741465380419</v>
       </c>
       <c r="K15">
-        <v>12.86311494803763</v>
+        <v>12.48417294256875</v>
       </c>
       <c r="L15">
-        <v>7.236484277526133</v>
+        <v>10.50090103245893</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.031151580729738</v>
       </c>
       <c r="N15">
-        <v>6.117247792645944</v>
+        <v>7.221237949492798</v>
       </c>
       <c r="O15">
-        <v>12.18498372953422</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>13.1748823311352</v>
+        <v>6.212863485606292</v>
       </c>
       <c r="Q15">
-        <v>13.63952260119302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.11047002261674</v>
+      </c>
+      <c r="R15">
+        <v>13.28110094849352</v>
+      </c>
+      <c r="S15">
+        <v>13.21111138464026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.98383118222571</v>
+        <v>20.73844416376359</v>
       </c>
       <c r="C16">
-        <v>14.79664171290143</v>
+        <v>14.9168106263477</v>
       </c>
       <c r="D16">
-        <v>5.589072881207037</v>
+        <v>5.591038526463279</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.7850890878325</v>
+        <v>18.3516165756683</v>
       </c>
       <c r="G16">
-        <v>21.00847785825928</v>
+        <v>20.49635211753227</v>
       </c>
       <c r="H16">
-        <v>6.609986234811678</v>
+        <v>6.604060898223634</v>
       </c>
       <c r="I16">
-        <v>2.609450050287243</v>
+        <v>2.652853201095826</v>
       </c>
       <c r="J16">
-        <v>8.3999061007649</v>
+        <v>8.55567523923769</v>
       </c>
       <c r="K16">
-        <v>12.97871002955155</v>
+        <v>12.63899260085981</v>
       </c>
       <c r="L16">
-        <v>7.184499014600242</v>
+        <v>10.63240181433259</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.083067042586116</v>
       </c>
       <c r="N16">
-        <v>6.115808615318463</v>
+        <v>7.170352155155946</v>
       </c>
       <c r="O16">
-        <v>11.93438317603338</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>13.16878297653238</v>
+        <v>6.214945460831031</v>
       </c>
       <c r="Q16">
-        <v>13.61587964870846</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.87923808980536</v>
+      </c>
+      <c r="R16">
+        <v>13.23791450243239</v>
+      </c>
+      <c r="S16">
+        <v>13.28735622767899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.6478475518398</v>
+        <v>20.42388103775577</v>
       </c>
       <c r="C17">
-        <v>14.47396617747524</v>
+        <v>14.6097196247704</v>
       </c>
       <c r="D17">
-        <v>5.669534164493879</v>
+        <v>5.666134384609949</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.03017251719682</v>
+        <v>18.63371702559935</v>
       </c>
       <c r="G17">
-        <v>21.24499441558442</v>
+        <v>20.35371451122668</v>
       </c>
       <c r="H17">
-        <v>5.885859602754405</v>
+        <v>5.877168088718901</v>
       </c>
       <c r="I17">
-        <v>2.565654206209686</v>
+        <v>2.615388028650771</v>
       </c>
       <c r="J17">
-        <v>8.474303808399858</v>
+        <v>8.758493452647178</v>
       </c>
       <c r="K17">
-        <v>13.15950669330805</v>
+        <v>12.82200747802174</v>
       </c>
       <c r="L17">
-        <v>7.080721122828399</v>
+        <v>10.77587713845638</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.194096792203734</v>
       </c>
       <c r="N17">
-        <v>6.263315274884926</v>
+        <v>7.064052176433933</v>
       </c>
       <c r="O17">
-        <v>11.97990955939168</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>13.1148884295479</v>
+        <v>6.368613042148354</v>
       </c>
       <c r="Q17">
-        <v>13.75905718269961</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.93173921977789</v>
+      </c>
+      <c r="R17">
+        <v>13.1666880481154</v>
+      </c>
+      <c r="S17">
+        <v>13.46216349279702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.5892775847843</v>
+        <v>20.36015557759466</v>
       </c>
       <c r="C18">
-        <v>14.12137434621875</v>
+        <v>14.27681466087479</v>
       </c>
       <c r="D18">
-        <v>5.841399822086972</v>
+        <v>5.837392390700684</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.58557572855045</v>
+        <v>19.18028535538132</v>
       </c>
       <c r="G18">
-        <v>21.9257995113125</v>
+        <v>20.84889008910089</v>
       </c>
       <c r="H18">
-        <v>4.659496067887471</v>
+        <v>4.647684821034124</v>
       </c>
       <c r="I18">
-        <v>2.547074295745069</v>
+        <v>2.597788389297019</v>
       </c>
       <c r="J18">
-        <v>8.606248222473949</v>
+        <v>8.934951390856986</v>
       </c>
       <c r="K18">
-        <v>13.42875792671158</v>
+        <v>13.06955739244914</v>
       </c>
       <c r="L18">
-        <v>6.946816020635901</v>
+        <v>10.96207982226584</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.37728576047704</v>
       </c>
       <c r="N18">
-        <v>6.57891510099459</v>
+        <v>6.92404675387846</v>
       </c>
       <c r="O18">
-        <v>12.28777982018605</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>13.01508437535691</v>
+        <v>6.69320078742453</v>
       </c>
       <c r="Q18">
-        <v>14.06804410997668</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.24023861271121</v>
+      </c>
+      <c r="R18">
+        <v>13.05948340534134</v>
+      </c>
+      <c r="S18">
+        <v>13.76619449239954</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.73768670095332</v>
+        <v>20.48607083169955</v>
       </c>
       <c r="C19">
-        <v>13.8127596881455</v>
+        <v>13.99554980751527</v>
       </c>
       <c r="D19">
-        <v>6.082847804115621</v>
+        <v>6.080678357217426</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.31824672889012</v>
+        <v>19.87621251272228</v>
       </c>
       <c r="G19">
-        <v>22.8511257037198</v>
+        <v>21.68215256666178</v>
       </c>
       <c r="H19">
-        <v>3.226470730524532</v>
+        <v>3.210463484265866</v>
       </c>
       <c r="I19">
-        <v>2.562468229588551</v>
+        <v>2.612480905964137</v>
       </c>
       <c r="J19">
-        <v>8.765718615813405</v>
+        <v>9.093479564133276</v>
       </c>
       <c r="K19">
-        <v>13.73856095955575</v>
+        <v>13.342631765118</v>
       </c>
       <c r="L19">
-        <v>6.840822180366776</v>
+        <v>11.16270437918434</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.59631925979744</v>
       </c>
       <c r="N19">
-        <v>7.042144376410588</v>
+        <v>6.808750305196824</v>
       </c>
       <c r="O19">
-        <v>12.77403658310426</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.89931220895684</v>
+        <v>7.167132731897549</v>
       </c>
       <c r="Q19">
-        <v>14.46380680161954</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.72339268601412</v>
+      </c>
+      <c r="R19">
+        <v>12.94247174343245</v>
+      </c>
+      <c r="S19">
+        <v>14.13518911368884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.4871225590301</v>
+        <v>21.16925979505531</v>
       </c>
       <c r="C20">
-        <v>13.58613394258235</v>
+        <v>13.81777802859066</v>
       </c>
       <c r="D20">
-        <v>6.502534398881806</v>
+        <v>6.510576991456841</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.56407474702556</v>
+        <v>21.00965785810179</v>
       </c>
       <c r="G20">
-        <v>24.49870090889408</v>
+        <v>23.47570555200607</v>
       </c>
       <c r="H20">
-        <v>1.790558834460756</v>
+        <v>1.773378186921298</v>
       </c>
       <c r="I20">
-        <v>2.652360923301607</v>
+        <v>2.692504309131909</v>
       </c>
       <c r="J20">
-        <v>9.012465510245264</v>
+        <v>9.208989946338185</v>
       </c>
       <c r="K20">
-        <v>14.18502860960128</v>
+        <v>13.70593171547776</v>
       </c>
       <c r="L20">
-        <v>6.806974924126028</v>
+        <v>11.39471520608691</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.953983161372744</v>
       </c>
       <c r="N20">
-        <v>7.862945792244239</v>
+        <v>6.757272654168537</v>
       </c>
       <c r="O20">
-        <v>13.72768089296852</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.72195394635344</v>
+        <v>8.003882578030927</v>
       </c>
       <c r="Q20">
-        <v>15.12514092005122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.6641277578378</v>
+      </c>
+      <c r="R20">
+        <v>12.77803707233348</v>
+      </c>
+      <c r="S20">
+        <v>14.71041359063032</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.80656674860264</v>
+        <v>22.35193008073527</v>
       </c>
       <c r="C21">
-        <v>14.08505620290641</v>
+        <v>14.2789543160523</v>
       </c>
       <c r="D21">
-        <v>6.658370587321123</v>
+        <v>6.719503129677681</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.10275730148931</v>
+        <v>21.2615633497715</v>
       </c>
       <c r="G21">
-        <v>25.38625706393583</v>
+        <v>26.1391561880421</v>
       </c>
       <c r="H21">
-        <v>1.567160830480938</v>
+        <v>1.56292281871738</v>
       </c>
       <c r="I21">
-        <v>2.81631510336548</v>
+        <v>2.832613621536408</v>
       </c>
       <c r="J21">
-        <v>9.070241874960349</v>
+        <v>8.51896040822038</v>
       </c>
       <c r="K21">
-        <v>14.16485264720239</v>
+        <v>13.54989944295947</v>
       </c>
       <c r="L21">
-        <v>6.843799096192649</v>
+        <v>11.17930613507054</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.027246950865697</v>
       </c>
       <c r="N21">
-        <v>8.127196895652862</v>
+        <v>6.787623352881707</v>
       </c>
       <c r="O21">
-        <v>14.41492437509012</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.64782038767192</v>
+        <v>8.26994939625644</v>
       </c>
       <c r="Q21">
-        <v>15.39251860741636</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.30825568009168</v>
+      </c>
+      <c r="R21">
+        <v>12.76659366062352</v>
+      </c>
+      <c r="S21">
+        <v>14.74059681182857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.62531492680123</v>
+        <v>23.08216083708274</v>
       </c>
       <c r="C22">
-        <v>14.40062357120455</v>
+        <v>14.5608773315002</v>
       </c>
       <c r="D22">
-        <v>6.740414156845671</v>
+        <v>6.840402835370282</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.42418432237285</v>
+        <v>21.38477544969647</v>
       </c>
       <c r="G22">
-        <v>25.93189768172967</v>
+        <v>27.95101951299315</v>
       </c>
       <c r="H22">
-        <v>1.702221855251383</v>
+        <v>1.684644675206729</v>
       </c>
       <c r="I22">
-        <v>2.914875914479911</v>
+        <v>2.914705745151793</v>
       </c>
       <c r="J22">
-        <v>9.105582310844259</v>
+        <v>8.085424754231408</v>
       </c>
       <c r="K22">
-        <v>14.14839098482564</v>
+        <v>13.43792907075273</v>
       </c>
       <c r="L22">
-        <v>6.866843606565689</v>
+        <v>11.0348017384929</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.076348919583621</v>
       </c>
       <c r="N22">
-        <v>8.255931190529004</v>
+        <v>6.807529033803486</v>
       </c>
       <c r="O22">
-        <v>14.81584715796966</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.60526833321912</v>
+        <v>8.399125025378011</v>
       </c>
       <c r="Q22">
-        <v>15.55799677323774</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.67970649744656</v>
+      </c>
+      <c r="R22">
+        <v>12.76846354918691</v>
+      </c>
+      <c r="S22">
+        <v>14.73987000119596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.20431310755545</v>
+        <v>22.71797551311593</v>
       </c>
       <c r="C23">
-        <v>14.2143235105672</v>
+        <v>14.40545818504498</v>
       </c>
       <c r="D23">
-        <v>6.696177172440261</v>
+        <v>6.769019208303657</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.27097185566356</v>
+        <v>21.36256671826951</v>
       </c>
       <c r="G23">
-        <v>25.67258951153272</v>
+        <v>26.80984258070567</v>
       </c>
       <c r="H23">
-        <v>1.63117620726215</v>
+        <v>1.621441340888705</v>
       </c>
       <c r="I23">
-        <v>2.857701489736399</v>
+        <v>2.865580565161876</v>
       </c>
       <c r="J23">
-        <v>9.092109588601822</v>
+        <v>8.385551986242737</v>
       </c>
       <c r="K23">
-        <v>14.17077125223362</v>
+        <v>13.52158017007023</v>
       </c>
       <c r="L23">
-        <v>6.855152487399955</v>
+        <v>11.12699056372333</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.070743967234383</v>
       </c>
       <c r="N23">
-        <v>8.183874478668734</v>
+        <v>6.797747088193984</v>
       </c>
       <c r="O23">
-        <v>14.60525540769877</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.62405215797762</v>
+        <v>8.327194676789922</v>
       </c>
       <c r="Q23">
-        <v>15.48320891074371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.48895391097502</v>
+      </c>
+      <c r="R23">
+        <v>12.7592172423307</v>
+      </c>
+      <c r="S23">
+        <v>14.77537701858918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.51100916363933</v>
+        <v>21.19194243881383</v>
       </c>
       <c r="C24">
-        <v>13.51940482404509</v>
+        <v>13.75139374525422</v>
       </c>
       <c r="D24">
-        <v>6.528741583591256</v>
+        <v>6.536638261478317</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.66858415019247</v>
+        <v>21.11208316753002</v>
       </c>
       <c r="G24">
-        <v>24.6408455498636</v>
+        <v>23.59847054451156</v>
       </c>
       <c r="H24">
-        <v>1.771487091754918</v>
+        <v>1.754258023818102</v>
       </c>
       <c r="I24">
-        <v>2.644582859784016</v>
+        <v>2.682412674277732</v>
       </c>
       <c r="J24">
-        <v>9.038298813561363</v>
+        <v>9.238910370369338</v>
       </c>
       <c r="K24">
-        <v>14.24338448632616</v>
+        <v>13.75996378558062</v>
       </c>
       <c r="L24">
-        <v>6.808867631187768</v>
+        <v>11.43485789169204</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.996324105170761</v>
       </c>
       <c r="N24">
-        <v>7.912400500362536</v>
+        <v>6.757716037853853</v>
       </c>
       <c r="O24">
-        <v>13.77569069699348</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.7064467790943</v>
+        <v>8.054303248187448</v>
       </c>
       <c r="Q24">
-        <v>15.18787465009497</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.71211528857743</v>
+      </c>
+      <c r="R24">
+        <v>12.76098122435145</v>
+      </c>
+      <c r="S24">
+        <v>14.77165625593611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.51384452752658</v>
+        <v>19.27245373283136</v>
       </c>
       <c r="C25">
-        <v>12.72941005953537</v>
+        <v>12.83886714595381</v>
       </c>
       <c r="D25">
-        <v>6.347283502856134</v>
+        <v>6.353413677273593</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.0383445186664</v>
+        <v>20.58270202846743</v>
       </c>
       <c r="G25">
-        <v>23.5367098965738</v>
+        <v>22.41383903194469</v>
       </c>
       <c r="H25">
-        <v>2.091014740729671</v>
+        <v>2.053635831327322</v>
       </c>
       <c r="I25">
-        <v>2.578953898582959</v>
+        <v>2.528019943294435</v>
       </c>
       <c r="J25">
-        <v>8.993653423864441</v>
+        <v>9.262657542119177</v>
       </c>
       <c r="K25">
-        <v>14.34375747944966</v>
+        <v>13.91396608440502</v>
       </c>
       <c r="L25">
-        <v>6.756396437131437</v>
+        <v>11.70094951883339</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.878840260000402</v>
       </c>
       <c r="N25">
-        <v>7.611358152380307</v>
+        <v>6.707623920075189</v>
       </c>
       <c r="O25">
-        <v>12.82211557745175</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.80562162871444</v>
+        <v>7.747333844832951</v>
       </c>
       <c r="Q25">
-        <v>14.89230607601174</v>
+        <v>12.76975489459812</v>
+      </c>
+      <c r="R25">
+        <v>12.81436767683311</v>
+      </c>
+      <c r="S25">
+        <v>14.55059030823291</v>
       </c>
     </row>
   </sheetData>
